--- a/8Bit Computer ver2.0/excel/chips availability.xlsx
+++ b/8Bit Computer ver2.0/excel/chips availability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Github Repo\Computer_HTL\1.5. 8Bit Computer ver2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Desktop\Computer_HTL\8Bit Computer ver2.0\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890C4B9D-7336-4B18-936F-F8B01016088A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29533198-46E8-4D6C-915E-015F4C8FA0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E9CC7EE1-7E8B-4FEA-8BE1-446B4A860683}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9CC7EE1-7E8B-4FEA-8BE1-446B4A860683}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="79">
   <si>
     <t>Boolean Logic</t>
   </si>
@@ -217,6 +217,60 @@
   </si>
   <si>
     <t>15ns</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>8Bit Shift Register</t>
+  </si>
+  <si>
+    <t>Datasheet</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ds/symlink/sn54als323.pdf?ts=1756926622365</t>
+  </si>
+  <si>
+    <t>11USD</t>
+  </si>
+  <si>
+    <t>74x323</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/product/SN74ALS323</t>
+  </si>
+  <si>
+    <t>74x4051</t>
+  </si>
+  <si>
+    <t>8 Bit Multiplexer</t>
+  </si>
+  <si>
+    <t>HCT/HC</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/product/CD74HC4051</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ds/symlink/cd74hc4051.pdf?ts=1756999873621&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fproduct%252FCD74HC4051%253Futm_source%253Dgoogle%2526utm_medium%253Dcpc%2526utm_campaign%253Dasc-int-null-44700045336317248_prodfolderdynamic-cpc-pf-google-ww_en_int%2526utm_content%253Dprodfolddynamic%2526ds_k%253DDYNAMIC+SEARCH+ADS%2526DCM%253Dyes%2526gclsrc%253Daw.ds%2526gad_source%253D1%2526gad_campaignid%253D6467547521%2526gbraid%253D0AAAAAC068F3a8MjSo-II08keMxpZnntWD%2526gclid%253DEAIaIQobChMIkOTEx7a_jwMVeab9BR3I6wSmEAAYASAAEgJ1yPD_BwE</t>
+  </si>
+  <si>
+    <t>74x821</t>
+  </si>
+  <si>
+    <t>10Bit Buffer</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/product/de-de/SN74ABT821A</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ds/symlink/sn74abt821a.pdf?ts=1757008739474&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fproduct%252Fde-de%252FSN74ABT821A</t>
+  </si>
+  <si>
+    <t>for Shift reg</t>
+  </si>
+  <si>
+    <t>need Inverter for clk</t>
   </si>
 </sst>
 </file>
@@ -279,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -302,10 +356,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -637,1085 +695,1184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA67386-7B54-425F-86A0-E9D5FF3EDFA0}">
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="H10" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="F18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D21" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" t="s">
+      <c r="G22" s="1"/>
+      <c r="H22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
+      <c r="D23" s="4"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="1"/>
+      <c r="C26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B35" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A40" s="6" t="s">
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B42" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="4"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="4"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="4"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="4"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="4"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="4"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="4"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="4"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="4"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="4"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="4"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="4"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="4"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="4"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="4"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="4"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="4"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="4"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="4"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="4"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="4"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="4"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="4"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="4"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="4"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="4"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="4"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="4"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="4"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="4"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="4"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="4"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="4"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="4"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="4"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="4"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="4"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="4"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="4"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="4"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="4"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
+      <c r="D86" s="4"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
+      <c r="D87" s="4"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" xr:uid="{4C632AA1-6F55-423B-8697-B86F870D7F1B}"/>
-    <hyperlink ref="C12" r:id="rId2" xr:uid="{E6F47877-79D3-493E-A16B-6B7238B0BE31}"/>
-    <hyperlink ref="C42" r:id="rId3" xr:uid="{F47C6505-8196-4511-AE67-D52965EEDE23}"/>
-    <hyperlink ref="C13" r:id="rId4" xr:uid="{E27B66FC-5778-48E1-899B-BB5BB5FBA7E6}"/>
-    <hyperlink ref="C15" r:id="rId5" xr:uid="{C64839DE-A1BA-4157-9A52-801A27FF2915}"/>
-    <hyperlink ref="C17" r:id="rId6" xr:uid="{0AC6EBF0-51FD-4395-A365-D5689BC26987}"/>
-    <hyperlink ref="C14" r:id="rId7" xr:uid="{65D7E027-705B-4D91-975D-686C2647EAC4}"/>
+    <hyperlink ref="D11" r:id="rId1" xr:uid="{4C632AA1-6F55-423B-8697-B86F870D7F1B}"/>
+    <hyperlink ref="D12" r:id="rId2" xr:uid="{E6F47877-79D3-493E-A16B-6B7238B0BE31}"/>
+    <hyperlink ref="D44" r:id="rId3" xr:uid="{F47C6505-8196-4511-AE67-D52965EEDE23}"/>
+    <hyperlink ref="D13" r:id="rId4" xr:uid="{E27B66FC-5778-48E1-899B-BB5BB5FBA7E6}"/>
+    <hyperlink ref="D17" r:id="rId5" xr:uid="{C64839DE-A1BA-4157-9A52-801A27FF2915}"/>
+    <hyperlink ref="D19" r:id="rId6" xr:uid="{0AC6EBF0-51FD-4395-A365-D5689BC26987}"/>
+    <hyperlink ref="D14" r:id="rId7" xr:uid="{65D7E027-705B-4D91-975D-686C2647EAC4}"/>
+    <hyperlink ref="D15" r:id="rId8" xr:uid="{7F6AF889-A9E9-47C4-A2A7-6DBA4D7C81E1}"/>
+    <hyperlink ref="D16" r:id="rId9" xr:uid="{40F7B5F9-2814-4C9C-95D9-0C5DEECA56FC}"/>
+    <hyperlink ref="H16" r:id="rId10" display="https://www.ti.com/lit/ds/symlink/cd74hc4051.pdf?ts=1756999873621&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fproduct%252FCD74HC4051%253Futm_source%253Dgoogle%2526utm_medium%253Dcpc%2526utm_campaign%253Dasc-int-null-44700045336317248_prodfolderdynamic-cpc-pf-google-ww_en_int%2526utm_content%253Dprodfolddynamic%2526ds_k%253DDYNAMIC+SEARCH+ADS%2526DCM%253Dyes%2526gclsrc%253Daw.ds%2526gad_source%253D1%2526gad_campaignid%253D6467547521%2526gbraid%253D0AAAAAC068F3a8MjSo-II08keMxpZnntWD%2526gclid%253DEAIaIQobChMIkOTEx7a_jwMVeab9BR3I6wSmEAAYASAAEgJ1yPD_BwE" xr:uid="{92B506B0-0451-4714-9532-B7AD241A3486}"/>
+    <hyperlink ref="H15" r:id="rId11" xr:uid="{CA54F83D-C19B-421F-B1B5-352D51B9919E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/8Bit Computer ver2.0/excel/chips availability.xlsx
+++ b/8Bit Computer ver2.0/excel/chips availability.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Desktop\Computer_HTL\8Bit Computer ver2.0\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FEE8F2-6F74-4F82-88CE-E26CF212DFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C0A380-566A-4C6F-A1F7-57312A84E70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9CC7EE1-7E8B-4FEA-8BE1-446B4A860683}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="105">
   <si>
     <t>Boolean Logic</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Not available</t>
   </si>
   <si>
-    <t>8.295 EUR</t>
-  </si>
-  <si>
     <t>2 Half Adders</t>
   </si>
   <si>
@@ -198,9 +195,6 @@
     <t>Datasheet</t>
   </si>
   <si>
-    <t>11USD</t>
-  </si>
-  <si>
     <t>74x323</t>
   </si>
   <si>
@@ -340,6 +334,21 @@
   </si>
   <si>
     <t>LS/HCS</t>
+  </si>
+  <si>
+    <t>Kicad state</t>
+  </si>
+  <si>
+    <t>S/F</t>
+  </si>
+  <si>
+    <t>8.295 EUR/ 1EUR</t>
+  </si>
+  <si>
+    <t>ALS/AC</t>
+  </si>
+  <si>
+    <t>11USD/0.7USD</t>
   </si>
 </sst>
 </file>
@@ -389,7 +398,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,6 +420,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,7 +452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -480,12 +495,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -493,6 +502,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -830,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA67386-7B54-425F-86A0-E9D5FF3EDFA0}">
-  <dimension ref="A1:N109"/>
+  <dimension ref="A1:O109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,35 +867,36 @@
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" customWidth="1"/>
     <col min="11" max="11" width="23.85546875" customWidth="1"/>
     <col min="12" max="12" width="28.140625" customWidth="1"/>
     <col min="13" max="13" width="16.5703125" customWidth="1"/>
     <col min="14" max="14" width="14.85546875" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="C1" s="16" t="s">
+    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="C1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>1</v>
@@ -880,16 +905,16 @@
         <v>9</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>8</v>
@@ -902,25 +927,28 @@
       </c>
       <c r="L2" s="15"/>
       <c r="M2" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
@@ -929,254 +957,254 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="18" t="s">
-        <v>60</v>
+      <c r="B4" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K4" s="1"/>
       <c r="M4" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
-        <v>60</v>
+      <c r="B5" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K5" s="1"/>
       <c r="M5" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="18" t="s">
-        <v>60</v>
+      <c r="B6" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K6" s="1"/>
       <c r="M6" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="18" t="s">
-        <v>60</v>
+      <c r="B7" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K7" s="1"/>
       <c r="M7" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="18" t="s">
-        <v>60</v>
+      <c r="B8" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>84</v>
+        <v>94</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>82</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K8" s="1"/>
       <c r="M8" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>93</v>
+      <c r="B9" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K9" s="1"/>
       <c r="M9" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="18" t="s">
-        <v>60</v>
+      <c r="B10" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K10" s="1"/>
       <c r="M10" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1190,7 +1218,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1204,26 +1232,26 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>1</v>
@@ -1232,13 +1260,15 @@
         <v>9</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F14" s="14"/>
-      <c r="G14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="11"/>
+      <c r="G14" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="I14" s="11" t="s">
         <v>8</v>
       </c>
@@ -1249,23 +1279,28 @@
         <v>20</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="10" t="s">
@@ -1281,21 +1316,21 @@
       <c r="K15" s="7"/>
       <c r="L15" s="6"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="10" t="s">
@@ -1311,21 +1346,21 @@
       <c r="K16" s="7"/>
       <c r="L16" s="6"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="10" t="s">
@@ -1341,83 +1376,96 @@
       <c r="K17" s="7"/>
       <c r="L17" s="6"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="19" t="s">
-        <v>60</v>
+      <c r="B18" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="G18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>83</v>
+      </c>
       <c r="I18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18" s="1"/>
       <c r="M18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="N18" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>83</v>
+      </c>
       <c r="I19" s="1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="K19" s="1"/>
       <c r="M19" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="19" t="s">
-        <v>59</v>
+        <v>85</v>
+      </c>
+      <c r="N19" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="5" t="s">
@@ -1426,27 +1474,27 @@
       <c r="H20" s="5"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K20" s="1"/>
       <c r="M20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="10" t="s">
@@ -1462,21 +1510,21 @@
       <c r="K21" s="7"/>
       <c r="L21" s="6"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
@@ -1492,49 +1540,54 @@
       <c r="K22" s="7"/>
       <c r="L22" s="6"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="19" t="s">
-        <v>60</v>
+      <c r="B23" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>83</v>
+      </c>
       <c r="I23" s="1" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="K23" s="1"/>
       <c r="M23" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="N23" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="O23" s="18"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -1551,27 +1604,27 @@
       <c r="K24" s="7"/>
       <c r="L24" s="6"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>14</v>
@@ -1579,21 +1632,21 @@
       <c r="K25" s="7"/>
       <c r="L25" s="6"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -1604,24 +1657,24 @@
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M26" s="7"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -1631,25 +1684,25 @@
         <v>14</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="19" t="s">
-        <v>61</v>
+      <c r="B28" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="5" t="s">
@@ -1661,10 +1714,10 @@
       </c>
       <c r="K28" s="1"/>
       <c r="M28" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1676,7 +1729,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1686,7 +1739,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1698,7 +1751,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1724,22 +1777,22 @@
     </row>
     <row r="34" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>1</v>
@@ -1763,25 +1816,25 @@
         <v>20</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="5" t="s">
@@ -1792,22 +1845,22 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="M36" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="5" t="s">
@@ -1818,7 +1871,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="M37" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -1858,17 +1911,17 @@
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
       <c r="M41" s="1"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -1897,7 +1950,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>12</v>
@@ -2657,15 +2710,15 @@
     <hyperlink ref="G43" r:id="rId3" xr:uid="{F47C6505-8196-4511-AE67-D52965EEDE23}"/>
     <hyperlink ref="G17" r:id="rId4" xr:uid="{E27B66FC-5778-48E1-899B-BB5BB5FBA7E6}"/>
     <hyperlink ref="G21" r:id="rId5" xr:uid="{C64839DE-A1BA-4157-9A52-801A27FF2915}"/>
-    <hyperlink ref="G19" r:id="rId6" xr:uid="{7F6AF889-A9E9-47C4-A2A7-6DBA4D7C81E1}"/>
-    <hyperlink ref="M19" r:id="rId7" xr:uid="{CA54F83D-C19B-421F-B1B5-352D51B9919E}"/>
+    <hyperlink ref="G19" r:id="rId6" display="Website" xr:uid="{7F6AF889-A9E9-47C4-A2A7-6DBA4D7C81E1}"/>
+    <hyperlink ref="M19" r:id="rId7" display="Datasheet" xr:uid="{CA54F83D-C19B-421F-B1B5-352D51B9919E}"/>
     <hyperlink ref="M20" r:id="rId8" xr:uid="{33C9152C-4A79-4B03-A18F-588825C5B6B3}"/>
     <hyperlink ref="M28" r:id="rId9" xr:uid="{0065FA4C-6809-4998-8687-BDB26D400A98}"/>
-    <hyperlink ref="M18" r:id="rId10" xr:uid="{26BF3B04-3EC6-47E2-B049-A1546D3BC973}"/>
-    <hyperlink ref="M23" r:id="rId11" xr:uid="{C5903ACA-BDB4-47BF-8B56-FF9FBBB36A72}"/>
-    <hyperlink ref="G18" r:id="rId12" xr:uid="{F7D68913-EB8F-4945-852A-487A82242546}"/>
+    <hyperlink ref="M18" r:id="rId10" display="Datasheet" xr:uid="{26BF3B04-3EC6-47E2-B049-A1546D3BC973}"/>
+    <hyperlink ref="M23" r:id="rId11" display="Datasheet" xr:uid="{C5903ACA-BDB4-47BF-8B56-FF9FBBB36A72}"/>
+    <hyperlink ref="G18" r:id="rId12" display="Website" xr:uid="{F7D68913-EB8F-4945-852A-487A82242546}"/>
     <hyperlink ref="G20" r:id="rId13" xr:uid="{5663C4BC-2E27-45A8-A9FD-082BBCA9E9F6}"/>
-    <hyperlink ref="G23" r:id="rId14" xr:uid="{792E18D9-027D-4AE8-BA75-FC59B1B2CB73}"/>
+    <hyperlink ref="G23" r:id="rId14" display="Website" xr:uid="{792E18D9-027D-4AE8-BA75-FC59B1B2CB73}"/>
     <hyperlink ref="G28" r:id="rId15" xr:uid="{CF9B7135-5770-4CBA-8BB9-3EFCF0F054CE}"/>
     <hyperlink ref="G36" r:id="rId16" xr:uid="{D6537DC4-6751-4237-9FA6-53AFEFE2BA73}"/>
     <hyperlink ref="M37" r:id="rId17" xr:uid="{67C9887A-66CC-41B8-9FDB-D1C4BA617492}"/>
@@ -2699,8 +2752,14 @@
     <hyperlink ref="N7" r:id="rId45" xr:uid="{7230B460-BF16-4B25-9AD0-999DBA80097A}"/>
     <hyperlink ref="H4" r:id="rId46" xr:uid="{31976906-146E-4057-89C1-F00E10F2C442}"/>
     <hyperlink ref="N4" r:id="rId47" xr:uid="{677AD2D2-0C13-4EA4-A5A9-72E0106594DE}"/>
+    <hyperlink ref="H18" r:id="rId48" xr:uid="{EE53776F-D0D2-4515-B316-8D0A9661C7D5}"/>
+    <hyperlink ref="N18" r:id="rId49" xr:uid="{2938CD97-3CFB-4828-B234-DDD6FA51651E}"/>
+    <hyperlink ref="H23" r:id="rId50" xr:uid="{C041C052-5B7F-4797-90DB-07A5A9BD8086}"/>
+    <hyperlink ref="N23" r:id="rId51" xr:uid="{B784EE51-DF03-4479-ABFD-FAE317652025}"/>
+    <hyperlink ref="N19" r:id="rId52" xr:uid="{A63E6F16-81FE-46B5-A1B1-B4BC1F6573F2}"/>
+    <hyperlink ref="H19" r:id="rId53" xr:uid="{220C83A2-FFD8-4402-83E7-F8389CE5032E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId48"/>
+  <pageSetup orientation="portrait" r:id="rId54"/>
 </worksheet>
 </file>
--- a/8Bit Computer ver2.0/excel/chips availability.xlsx
+++ b/8Bit Computer ver2.0/excel/chips availability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Desktop\Computer_HTL\8Bit Computer ver2.0\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C0A380-566A-4C6F-A1F7-57312A84E70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6B3399-F159-4256-96BD-D40517214BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9CC7EE1-7E8B-4FEA-8BE1-446B4A860683}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="106">
   <si>
     <t>Boolean Logic</t>
   </si>
@@ -309,9 +309,6 @@
     <t>HC/HCS</t>
   </si>
   <si>
-    <t>use for 8in or</t>
-  </si>
-  <si>
     <t>Need</t>
   </si>
   <si>
@@ -349,6 +346,12 @@
   </si>
   <si>
     <t>11USD/0.7USD</t>
+  </si>
+  <si>
+    <t>use as 4Bit+3B+2B+1B</t>
+  </si>
+  <si>
+    <t>use as 8in or</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -504,19 +507,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -857,7 +857,7 @@
   <dimension ref="A1:O109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,23 +877,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>62</v>
@@ -905,10 +905,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>82</v>
@@ -932,14 +932,14 @@
       <c r="N2" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="O2" s="21" t="s">
-        <v>100</v>
+      <c r="O2" s="12" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>34</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K4" s="1"/>
       <c r="M4" s="5" t="s">
@@ -1042,7 +1042,7 @@
         <v>87</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>82</v>
@@ -1077,7 +1077,7 @@
         <v>87</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>82</v>
@@ -1112,7 +1112,7 @@
         <v>87</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>82</v>
@@ -1134,10 +1134,10 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>88</v>
@@ -1149,7 +1149,7 @@
         <v>89</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>82</v>
@@ -1170,12 +1170,14 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
       <c r="B10" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
@@ -1234,17 +1236,17 @@
     </row>
     <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
@@ -1284,8 +1286,8 @@
       <c r="N14" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="O14" s="21" t="s">
-        <v>100</v>
+      <c r="O14" s="12" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1398,7 +1400,7 @@
       <c r="G18" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="19" t="s">
         <v>83</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -1411,7 +1413,7 @@
       <c r="M18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="N18" s="22" t="s">
+      <c r="N18" s="19" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1433,20 +1435,20 @@
       <c r="G19" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="19" t="s">
         <v>83</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K19" s="1"/>
       <c r="M19" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="N19" s="23" t="s">
+      <c r="N19" s="20" t="s">
         <v>86</v>
       </c>
       <c r="O19" s="1"/>
@@ -1545,7 +1547,7 @@
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="17" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>40</v>
@@ -1560,20 +1562,20 @@
       <c r="G23" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="19" t="s">
         <v>83</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K23" s="1"/>
       <c r="M23" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="N23" s="22" t="s">
+      <c r="N23" s="19" t="s">
         <v>86</v>
       </c>
       <c r="O23" s="18"/>
@@ -1777,17 +1779,17 @@
     </row>
     <row r="34" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
@@ -1911,17 +1913,17 @@
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
       <c r="M41" s="1"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">

--- a/8Bit Computer ver2.0/excel/chips availability.xlsx
+++ b/8Bit Computer ver2.0/excel/chips availability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Desktop\Computer_HTL\8Bit Computer ver2.0\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6B3399-F159-4256-96BD-D40517214BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D66E96-E2D0-4865-B608-0B9494B897DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9CC7EE1-7E8B-4FEA-8BE1-446B4A860683}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="120">
   <si>
     <t>Boolean Logic</t>
   </si>
@@ -228,9 +228,6 @@
     <t>unknown</t>
   </si>
   <si>
-    <t>IS62C1024AL</t>
-  </si>
-  <si>
     <t>Version</t>
   </si>
   <si>
@@ -352,6 +349,51 @@
   </si>
   <si>
     <t>use as 8in or</t>
+  </si>
+  <si>
+    <t>Read speed</t>
+  </si>
+  <si>
+    <t>150ns</t>
+  </si>
+  <si>
+    <t>NORFlash</t>
+  </si>
+  <si>
+    <t>SST39xFxxxx</t>
+  </si>
+  <si>
+    <t>1-8Mb</t>
+  </si>
+  <si>
+    <t>55ns</t>
+  </si>
+  <si>
+    <t>IS62C1024</t>
+  </si>
+  <si>
+    <t>35ns/45ns</t>
+  </si>
+  <si>
+    <t>use for 8in or</t>
+  </si>
+  <si>
+    <t>1xAdress, 1xData, 1xCommands</t>
+  </si>
+  <si>
+    <t>~2USD</t>
+  </si>
+  <si>
+    <t>0.20 USD</t>
+  </si>
+  <si>
+    <t>0.10 USD</t>
+  </si>
+  <si>
+    <t>8Bit ti</t>
+  </si>
+  <si>
+    <t>8Bit nex</t>
   </si>
 </sst>
 </file>
@@ -455,7 +497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -519,6 +561,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -535,6 +580,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>588741</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A27DBE9C-0174-288F-B022-461F54EA99BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200151" y="9258300"/>
+          <a:ext cx="2150840" cy="1857375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -854,33 +948,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA67386-7B54-425F-86A0-E9D5FF3EDFA0}">
-  <dimension ref="A1:O109"/>
+  <dimension ref="B1:P109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="23.85546875" customWidth="1"/>
-    <col min="12" max="12" width="28.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" customWidth="1"/>
+    <col min="13" max="13" width="28.140625" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="C1" s="21" t="s">
+    <row r="1" spans="2:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="D1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="22"/>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
@@ -888,358 +981,372 @@
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
-      <c r="M1" s="1"/>
+      <c r="L1" s="22"/>
       <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>91</v>
-      </c>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="15"/>
+      <c r="N2" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="N2" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="P2" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="3"/>
+      <c r="F3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="1"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="16" t="s">
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="N4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="N5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="N6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="N7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="N8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="N9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="G10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="J10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="M4" s="5" t="s">
+      <c r="L10" s="1"/>
+      <c r="N10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="M5" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="M6" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="M7" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="M8" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>3</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="M9" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="M10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="C11" s="1"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="1"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="3"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="L11" s="1"/>
       <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="1"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="L12" s="1"/>
       <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="C13" s="21" t="s">
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="2:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+      <c r="D13" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="22"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
@@ -1247,542 +1354,542 @@
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
-      <c r="M13" s="1"/>
+      <c r="L13" s="22"/>
       <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="11" t="s">
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="E14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="F14" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="12" t="s">
+      <c r="G15" s="7"/>
+      <c r="H15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="7"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="7"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="7"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="14" t="s">
+      <c r="J18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="N18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O18" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="N14" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="7"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="7"/>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="7"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="17" t="s">
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="D19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="19" t="s">
         <v>82</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18" s="1"/>
-      <c r="M18" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="N18" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K19" s="1"/>
-      <c r="M19" s="5" t="s">
+      <c r="K19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="N19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O19" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="N19" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
         <v>1</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="C20" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="N20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="5" t="s">
+      <c r="G21" s="7"/>
+      <c r="H21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K20" s="1"/>
-      <c r="M20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="9" t="s">
+      <c r="I21" s="10"/>
+      <c r="J21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="7"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="7"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="E22" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="7"/>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="K22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="7"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="19" t="s">
         <v>82</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K23" s="1"/>
-      <c r="M23" s="5" t="s">
+      <c r="K23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="N23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O23" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="N23" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="O23" s="18"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="9" t="s">
+      <c r="P23" s="18"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="7"/>
+      <c r="H24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="I24" s="7"/>
       <c r="J24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="7"/>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="9" t="s">
+      <c r="K24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="7"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="7"/>
+      <c r="H25" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="7"/>
+      <c r="J25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="7"/>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="9" t="s">
+      <c r="L25" s="7"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="7"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="E26" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="7" t="s">
+      <c r="I26" s="7"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="6" t="s">
+      <c r="L26" s="7"/>
+      <c r="M26" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="M26" s="7"/>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="9" t="s">
+      <c r="N26" s="7"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="E27" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="7"/>
+      <c r="K27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="7"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="17" t="s">
+      <c r="M27" s="6"/>
+      <c r="N27" s="7"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="5"/>
-      <c r="J28" s="1" t="s">
+      <c r="I28" s="5"/>
+      <c r="K28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K28" s="1"/>
-      <c r="M28" s="5" t="s">
+      <c r="L28" s="1"/>
+      <c r="N28" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="C29" s="1"/>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="3"/>
+      <c r="G29" s="1"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="3"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="G30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="3"/>
+      <c r="G31" s="1"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="1"/>
+      <c r="I31" s="3"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="3"/>
+      <c r="G32" s="1"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="3"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="3"/>
+      <c r="G33" s="1"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="1"/>
+      <c r="I33" s="3"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A34" s="1"/>
-      <c r="C34" s="21" t="s">
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="B34" s="1"/>
+      <c r="D34" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="22"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
@@ -1790,106 +1897,133 @@
       <c r="I34" s="22"/>
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="11" t="s">
+      <c r="L34" s="22"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="D35" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="E35" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="11"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="11"/>
+      <c r="H35" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11" t="s">
+      <c r="I35" s="11"/>
+      <c r="J35" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="K35" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K35" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" s="12" t="s">
+      <c r="L35" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M35" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="M35" s="11" t="s">
+      <c r="N35" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="1" t="s">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="5" t="s">
+      <c r="F36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="5"/>
-      <c r="I36" s="1"/>
+      <c r="I36" s="5"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="M36" s="5" t="s">
+      <c r="L36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N36" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="13" t="s">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="D37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="1"/>
+      <c r="H37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H37" s="5"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="K37" s="1"/>
-      <c r="M37" s="5" t="s">
+      <c r="L37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N37" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>3</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="H38" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="J38" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="K38" s="1"/>
-      <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C39" s="1"/>
+      <c r="L38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M38" t="s">
+        <v>114</v>
+      </c>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1898,10 +2032,10 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C40" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -1910,13 +2044,13 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="M40" s="1"/>
-    </row>
-    <row r="41" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="C41" s="21" t="s">
+      <c r="L40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="D41" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="22"/>
       <c r="E41" s="22"/>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
@@ -1924,530 +2058,530 @@
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>
       <c r="K41" s="22"/>
-      <c r="M41" s="1"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C42" s="2" t="s">
+      <c r="L41" s="22"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D42" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="2" t="s">
+      <c r="G42" s="2"/>
+      <c r="H42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2" t="s">
+      <c r="I42" s="2"/>
+      <c r="J42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="K42" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="L42" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M42" s="1"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C43" s="1" t="s">
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="1"/>
+      <c r="H43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H43" s="4"/>
-      <c r="I43" s="1" t="s">
+      <c r="I43" s="4"/>
+      <c r="J43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="K43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K43" s="1"/>
-      <c r="M43" s="1"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C44" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="3"/>
+      <c r="G44" s="1"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="1"/>
+      <c r="I44" s="3"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="M44" s="1"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C45" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="3"/>
+      <c r="G45" s="1"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="1"/>
+      <c r="I45" s="3"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C46" s="1"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="3"/>
+      <c r="G46" s="1"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="1"/>
+      <c r="I46" s="3"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C47" s="1"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="3"/>
+      <c r="G47" s="1"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="1"/>
+      <c r="I47" s="3"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C48" s="1"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="3"/>
+      <c r="G48" s="1"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="1"/>
+      <c r="I48" s="3"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="1"/>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="3"/>
+      <c r="G49" s="1"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="1"/>
+      <c r="I49" s="3"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C50" s="1"/>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="3"/>
+      <c r="G50" s="1"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="1"/>
+      <c r="I50" s="3"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C51" s="1"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="3"/>
+      <c r="G51" s="1"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="1"/>
+      <c r="I51" s="3"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C52" s="1"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="3"/>
+      <c r="G52" s="1"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="1"/>
+      <c r="I52" s="3"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C53" s="1"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="3"/>
+      <c r="G53" s="1"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="1"/>
+      <c r="I53" s="3"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C54" s="1"/>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="3"/>
+      <c r="G54" s="1"/>
       <c r="H54" s="3"/>
-      <c r="I54" s="1"/>
+      <c r="I54" s="3"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C55" s="1"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="3"/>
+      <c r="G55" s="1"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="1"/>
+      <c r="I55" s="3"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C56" s="1"/>
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="3"/>
+      <c r="G56" s="1"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="1"/>
+      <c r="I56" s="3"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="1"/>
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="3"/>
+      <c r="G57" s="1"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="1"/>
+      <c r="I57" s="3"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C58" s="1"/>
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="3"/>
+      <c r="G58" s="1"/>
       <c r="H58" s="3"/>
-      <c r="I58" s="1"/>
+      <c r="I58" s="3"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C59" s="1"/>
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="3"/>
+      <c r="G59" s="1"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="1"/>
+      <c r="I59" s="3"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C60" s="1"/>
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="3"/>
+      <c r="G60" s="1"/>
       <c r="H60" s="3"/>
-      <c r="I60" s="1"/>
+      <c r="I60" s="3"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C61" s="1"/>
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="3"/>
+      <c r="G61" s="1"/>
       <c r="H61" s="3"/>
-      <c r="I61" s="1"/>
+      <c r="I61" s="3"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C62" s="1"/>
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="3"/>
+      <c r="G62" s="1"/>
       <c r="H62" s="3"/>
-      <c r="I62" s="1"/>
+      <c r="I62" s="3"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C63" s="1"/>
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="3"/>
+      <c r="G63" s="1"/>
       <c r="H63" s="3"/>
-      <c r="I63" s="1"/>
+      <c r="I63" s="3"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C64" s="1"/>
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="3"/>
+      <c r="G64" s="1"/>
       <c r="H64" s="3"/>
-      <c r="I64" s="1"/>
+      <c r="I64" s="3"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
-    </row>
-    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C65" s="1"/>
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="G65" s="3"/>
+      <c r="G65" s="1"/>
       <c r="H65" s="3"/>
-      <c r="I65" s="1"/>
+      <c r="I65" s="3"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
-    </row>
-    <row r="66" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C66" s="1"/>
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="3"/>
+      <c r="G66" s="1"/>
       <c r="H66" s="3"/>
-      <c r="I66" s="1"/>
+      <c r="I66" s="3"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
-    </row>
-    <row r="67" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C67" s="1"/>
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="3"/>
+      <c r="G67" s="1"/>
       <c r="H67" s="3"/>
-      <c r="I67" s="1"/>
+      <c r="I67" s="3"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
-    </row>
-    <row r="68" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C68" s="1"/>
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="3"/>
+      <c r="G68" s="1"/>
       <c r="H68" s="3"/>
-      <c r="I68" s="1"/>
+      <c r="I68" s="3"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
-    </row>
-    <row r="69" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C69" s="1"/>
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="3"/>
+      <c r="G69" s="1"/>
       <c r="H69" s="3"/>
-      <c r="I69" s="1"/>
+      <c r="I69" s="3"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
-    </row>
-    <row r="70" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C70" s="1"/>
+      <c r="L69" s="1"/>
+    </row>
+    <row r="70" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="3"/>
+      <c r="G70" s="1"/>
       <c r="H70" s="3"/>
-      <c r="I70" s="1"/>
+      <c r="I70" s="3"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
-    </row>
-    <row r="71" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C71" s="1"/>
+      <c r="L70" s="1"/>
+    </row>
+    <row r="71" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="3"/>
+      <c r="G71" s="1"/>
       <c r="H71" s="3"/>
-      <c r="I71" s="1"/>
+      <c r="I71" s="3"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
-    </row>
-    <row r="72" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C72" s="1"/>
+      <c r="L71" s="1"/>
+    </row>
+    <row r="72" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="3"/>
+      <c r="G72" s="1"/>
       <c r="H72" s="3"/>
-      <c r="I72" s="1"/>
+      <c r="I72" s="3"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
-    </row>
-    <row r="73" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C73" s="1"/>
+      <c r="L72" s="1"/>
+    </row>
+    <row r="73" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="3"/>
+      <c r="G73" s="1"/>
       <c r="H73" s="3"/>
-      <c r="I73" s="1"/>
+      <c r="I73" s="3"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
-    </row>
-    <row r="74" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C74" s="1"/>
+      <c r="L73" s="1"/>
+    </row>
+    <row r="74" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="3"/>
+      <c r="G74" s="1"/>
       <c r="H74" s="3"/>
-      <c r="I74" s="1"/>
+      <c r="I74" s="3"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
-    </row>
-    <row r="75" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C75" s="1"/>
+      <c r="L74" s="1"/>
+    </row>
+    <row r="75" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="3"/>
+      <c r="G75" s="1"/>
       <c r="H75" s="3"/>
-      <c r="I75" s="1"/>
+      <c r="I75" s="3"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
-    </row>
-    <row r="76" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C76" s="1"/>
+      <c r="L75" s="1"/>
+    </row>
+    <row r="76" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-      <c r="G76" s="3"/>
+      <c r="G76" s="1"/>
       <c r="H76" s="3"/>
-      <c r="I76" s="1"/>
+      <c r="I76" s="3"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
-    </row>
-    <row r="77" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C77" s="1"/>
+      <c r="L76" s="1"/>
+    </row>
+    <row r="77" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="3"/>
+      <c r="G77" s="1"/>
       <c r="H77" s="3"/>
-      <c r="I77" s="1"/>
+      <c r="I77" s="3"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
-    </row>
-    <row r="78" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C78" s="1"/>
+      <c r="L77" s="1"/>
+    </row>
+    <row r="78" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-      <c r="G78" s="3"/>
+      <c r="G78" s="1"/>
       <c r="H78" s="3"/>
-      <c r="I78" s="1"/>
+      <c r="I78" s="3"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
-    </row>
-    <row r="79" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C79" s="1"/>
+      <c r="L78" s="1"/>
+    </row>
+    <row r="79" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-      <c r="G79" s="3"/>
+      <c r="G79" s="1"/>
       <c r="H79" s="3"/>
-      <c r="I79" s="1"/>
+      <c r="I79" s="3"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
-    </row>
-    <row r="80" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C80" s="1"/>
+      <c r="L79" s="1"/>
+    </row>
+    <row r="80" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="3"/>
+      <c r="G80" s="1"/>
       <c r="H80" s="3"/>
-      <c r="I80" s="1"/>
+      <c r="I80" s="3"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C81" s="1"/>
+      <c r="L80" s="1"/>
+    </row>
+    <row r="81" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="3"/>
+      <c r="G81" s="1"/>
       <c r="H81" s="3"/>
-      <c r="I81" s="1"/>
+      <c r="I81" s="3"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C82" s="1"/>
+      <c r="L81" s="1"/>
+    </row>
+    <row r="82" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="3"/>
+      <c r="G82" s="1"/>
       <c r="H82" s="3"/>
-      <c r="I82" s="1"/>
+      <c r="I82" s="3"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C83" s="1"/>
+      <c r="L82" s="1"/>
+    </row>
+    <row r="83" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-      <c r="G83" s="3"/>
+      <c r="G83" s="1"/>
       <c r="H83" s="3"/>
-      <c r="I83" s="1"/>
+      <c r="I83" s="3"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C84" s="1"/>
+      <c r="L83" s="1"/>
+    </row>
+    <row r="84" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="3"/>
+      <c r="G84" s="1"/>
       <c r="H84" s="3"/>
-      <c r="I84" s="1"/>
+      <c r="I84" s="3"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C85" s="1"/>
+      <c r="L84" s="1"/>
+    </row>
+    <row r="85" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-      <c r="G85" s="3"/>
+      <c r="G85" s="1"/>
       <c r="H85" s="3"/>
-      <c r="I85" s="1"/>
+      <c r="I85" s="3"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C86" s="1"/>
+      <c r="L85" s="1"/>
+    </row>
+    <row r="86" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="3"/>
+      <c r="G86" s="1"/>
       <c r="H86" s="3"/>
-      <c r="I86" s="1"/>
+      <c r="I86" s="3"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C87" s="1"/>
+      <c r="L86" s="1"/>
+    </row>
+    <row r="87" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -2456,9 +2590,9 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C88" s="1"/>
+      <c r="L87" s="1"/>
+    </row>
+    <row r="88" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -2467,9 +2601,9 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C89" s="1"/>
+      <c r="L88" s="1"/>
+    </row>
+    <row r="89" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -2478,9 +2612,9 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C90" s="1"/>
+      <c r="L89" s="1"/>
+    </row>
+    <row r="90" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -2489,9 +2623,9 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C91" s="1"/>
+      <c r="L90" s="1"/>
+    </row>
+    <row r="91" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -2500,9 +2634,9 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C92" s="1"/>
+      <c r="L91" s="1"/>
+    </row>
+    <row r="92" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2511,9 +2645,9 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C93" s="1"/>
+      <c r="L92" s="1"/>
+    </row>
+    <row r="93" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -2522,9 +2656,9 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C94" s="1"/>
+      <c r="L93" s="1"/>
+    </row>
+    <row r="94" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2533,9 +2667,9 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C95" s="1"/>
+      <c r="L94" s="1"/>
+    </row>
+    <row r="95" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2544,9 +2678,9 @@
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C96" s="1"/>
+      <c r="L95" s="1"/>
+    </row>
+    <row r="96" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2555,9 +2689,9 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C97" s="1"/>
+      <c r="L96" s="1"/>
+    </row>
+    <row r="97" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -2566,9 +2700,9 @@
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C98" s="1"/>
+      <c r="L97" s="1"/>
+    </row>
+    <row r="98" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -2577,9 +2711,9 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C99" s="1"/>
+      <c r="L98" s="1"/>
+    </row>
+    <row r="99" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -2588,9 +2722,9 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C100" s="1"/>
+      <c r="L99" s="1"/>
+    </row>
+    <row r="100" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -2599,9 +2733,9 @@
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C101" s="1"/>
+      <c r="L100" s="1"/>
+    </row>
+    <row r="101" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -2610,9 +2744,9 @@
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C102" s="1"/>
+      <c r="L101" s="1"/>
+    </row>
+    <row r="102" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -2621,9 +2755,9 @@
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
-    </row>
-    <row r="103" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C103" s="1"/>
+      <c r="L102" s="1"/>
+    </row>
+    <row r="103" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -2632,9 +2766,9 @@
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
-    </row>
-    <row r="104" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C104" s="1"/>
+      <c r="L103" s="1"/>
+    </row>
+    <row r="104" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -2643,9 +2777,9 @@
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
-    </row>
-    <row r="105" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C105" s="1"/>
+      <c r="L104" s="1"/>
+    </row>
+    <row r="105" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -2654,9 +2788,9 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
-    </row>
-    <row r="106" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C106" s="1"/>
+      <c r="L105" s="1"/>
+    </row>
+    <row r="106" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -2665,9 +2799,9 @@
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
-    </row>
-    <row r="107" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C107" s="1"/>
+      <c r="L106" s="1"/>
+    </row>
+    <row r="107" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -2676,9 +2810,9 @@
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
-    </row>
-    <row r="108" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C108" s="1"/>
+      <c r="L107" s="1"/>
+    </row>
+    <row r="108" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -2687,9 +2821,9 @@
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
-    </row>
-    <row r="109" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C109" s="1"/>
+      <c r="L108" s="1"/>
+    </row>
+    <row r="109" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -2698,70 +2832,73 @@
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C34:K34"/>
-    <mergeCell ref="C41:K41"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="D34:L34"/>
+    <mergeCell ref="D41:L41"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="D1:L1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G15" r:id="rId1" xr:uid="{4C632AA1-6F55-423B-8697-B86F870D7F1B}"/>
-    <hyperlink ref="G16" r:id="rId2" xr:uid="{E6F47877-79D3-493E-A16B-6B7238B0BE31}"/>
-    <hyperlink ref="G43" r:id="rId3" xr:uid="{F47C6505-8196-4511-AE67-D52965EEDE23}"/>
-    <hyperlink ref="G17" r:id="rId4" xr:uid="{E27B66FC-5778-48E1-899B-BB5BB5FBA7E6}"/>
-    <hyperlink ref="G21" r:id="rId5" xr:uid="{C64839DE-A1BA-4157-9A52-801A27FF2915}"/>
-    <hyperlink ref="G19" r:id="rId6" display="Website" xr:uid="{7F6AF889-A9E9-47C4-A2A7-6DBA4D7C81E1}"/>
-    <hyperlink ref="M19" r:id="rId7" display="Datasheet" xr:uid="{CA54F83D-C19B-421F-B1B5-352D51B9919E}"/>
-    <hyperlink ref="M20" r:id="rId8" xr:uid="{33C9152C-4A79-4B03-A18F-588825C5B6B3}"/>
-    <hyperlink ref="M28" r:id="rId9" xr:uid="{0065FA4C-6809-4998-8687-BDB26D400A98}"/>
-    <hyperlink ref="M18" r:id="rId10" display="Datasheet" xr:uid="{26BF3B04-3EC6-47E2-B049-A1546D3BC973}"/>
-    <hyperlink ref="M23" r:id="rId11" display="Datasheet" xr:uid="{C5903ACA-BDB4-47BF-8B56-FF9FBBB36A72}"/>
-    <hyperlink ref="G18" r:id="rId12" display="Website" xr:uid="{F7D68913-EB8F-4945-852A-487A82242546}"/>
-    <hyperlink ref="G20" r:id="rId13" xr:uid="{5663C4BC-2E27-45A8-A9FD-082BBCA9E9F6}"/>
-    <hyperlink ref="G23" r:id="rId14" display="Website" xr:uid="{792E18D9-027D-4AE8-BA75-FC59B1B2CB73}"/>
-    <hyperlink ref="G28" r:id="rId15" xr:uid="{CF9B7135-5770-4CBA-8BB9-3EFCF0F054CE}"/>
-    <hyperlink ref="G36" r:id="rId16" xr:uid="{D6537DC4-6751-4237-9FA6-53AFEFE2BA73}"/>
-    <hyperlink ref="M37" r:id="rId17" xr:uid="{67C9887A-66CC-41B8-9FDB-D1C4BA617492}"/>
-    <hyperlink ref="M36" r:id="rId18" xr:uid="{3FD9C373-E805-4CB8-8CC6-18D15CCA42DF}"/>
-    <hyperlink ref="G37" r:id="rId19" xr:uid="{4EDF24C3-B147-4992-8CEF-2C81201015B8}"/>
-    <hyperlink ref="G5" r:id="rId20" xr:uid="{F8A9DA4F-1E4B-4027-89AA-8A8337135A11}"/>
-    <hyperlink ref="H5" r:id="rId21" xr:uid="{5D5CF429-1E28-49D6-B19E-03C72E4A0EC4}"/>
-    <hyperlink ref="M5" r:id="rId22" xr:uid="{F5058B02-CCF1-462C-AF78-CFAD9C4A5367}"/>
-    <hyperlink ref="N5" r:id="rId23" xr:uid="{296E7BD2-086A-4AEA-AB95-17F25DB9DB3D}"/>
-    <hyperlink ref="G4" r:id="rId24" xr:uid="{AD2CB2AC-934B-40A8-87F0-2DD3411B0BA0}"/>
-    <hyperlink ref="M4" r:id="rId25" xr:uid="{FDED8A92-4E75-43BB-AE6A-D9441E21FBF4}"/>
-    <hyperlink ref="G7" r:id="rId26" xr:uid="{9194B6BF-80BE-4819-B9FA-021C206393AD}"/>
-    <hyperlink ref="M7" r:id="rId27" xr:uid="{B5D84B19-87F9-4644-B7E7-743B390E9CD3}"/>
-    <hyperlink ref="G9" r:id="rId28" xr:uid="{C63F2B9A-D7B5-4328-908A-EB047B05CFDA}"/>
-    <hyperlink ref="H9" r:id="rId29" xr:uid="{379146E8-AD4E-46D7-A785-14ED81742167}"/>
-    <hyperlink ref="M9" r:id="rId30" xr:uid="{51945AC8-6C4F-4C0E-BA6D-A1FCD6678ECE}"/>
-    <hyperlink ref="N9" r:id="rId31" xr:uid="{1B35E97D-8D6C-41A4-83F8-CF1F867C31F3}"/>
-    <hyperlink ref="H10" r:id="rId32" xr:uid="{025AEAD3-FDD7-4701-B885-935FF1A1F40E}"/>
-    <hyperlink ref="N10" r:id="rId33" xr:uid="{A832D513-1545-41D7-B60B-258596075BFC}"/>
-    <hyperlink ref="G10" r:id="rId34" xr:uid="{A6C400CA-7E64-4B67-A5CF-B818FF2CED47}"/>
-    <hyperlink ref="M10" r:id="rId35" xr:uid="{D62D9E50-2AEC-4BCB-8CEA-50FFE490AD1A}"/>
-    <hyperlink ref="G8" r:id="rId36" xr:uid="{788BEF8F-DE4C-4FDE-A050-A333002ACF93}"/>
-    <hyperlink ref="H8" r:id="rId37" xr:uid="{87140149-409F-4791-9549-8128EF4B8BBB}"/>
-    <hyperlink ref="M8" r:id="rId38" xr:uid="{85A66E1C-8FFD-404F-AB02-3B2DC717ABCB}"/>
-    <hyperlink ref="N8" r:id="rId39" xr:uid="{F6CCDB53-AF06-41BB-B369-592725349098}"/>
-    <hyperlink ref="G6" r:id="rId40" xr:uid="{0B057FC7-5B6C-4B51-8259-E98B5396182B}"/>
-    <hyperlink ref="M6" r:id="rId41" xr:uid="{5DE163B5-CB79-4653-B429-7D96467A8E43}"/>
-    <hyperlink ref="H6" r:id="rId42" xr:uid="{E8FFE40B-C58A-49AD-A9B1-168D1DA02231}"/>
-    <hyperlink ref="N6" r:id="rId43" xr:uid="{2B0393D1-9C98-4B09-843F-3E2A610A923F}"/>
-    <hyperlink ref="H7" r:id="rId44" xr:uid="{E9A9CB27-84F7-4029-AB18-22D57940980B}"/>
-    <hyperlink ref="N7" r:id="rId45" xr:uid="{7230B460-BF16-4B25-9AD0-999DBA80097A}"/>
-    <hyperlink ref="H4" r:id="rId46" xr:uid="{31976906-146E-4057-89C1-F00E10F2C442}"/>
-    <hyperlink ref="N4" r:id="rId47" xr:uid="{677AD2D2-0C13-4EA4-A5A9-72E0106594DE}"/>
-    <hyperlink ref="H18" r:id="rId48" xr:uid="{EE53776F-D0D2-4515-B316-8D0A9661C7D5}"/>
-    <hyperlink ref="N18" r:id="rId49" xr:uid="{2938CD97-3CFB-4828-B234-DDD6FA51651E}"/>
-    <hyperlink ref="H23" r:id="rId50" xr:uid="{C041C052-5B7F-4797-90DB-07A5A9BD8086}"/>
-    <hyperlink ref="N23" r:id="rId51" xr:uid="{B784EE51-DF03-4479-ABFD-FAE317652025}"/>
-    <hyperlink ref="N19" r:id="rId52" xr:uid="{A63E6F16-81FE-46B5-A1B1-B4BC1F6573F2}"/>
-    <hyperlink ref="H19" r:id="rId53" xr:uid="{220C83A2-FFD8-4402-83E7-F8389CE5032E}"/>
+    <hyperlink ref="H15" r:id="rId1" xr:uid="{4C632AA1-6F55-423B-8697-B86F870D7F1B}"/>
+    <hyperlink ref="H16" r:id="rId2" xr:uid="{E6F47877-79D3-493E-A16B-6B7238B0BE31}"/>
+    <hyperlink ref="H43" r:id="rId3" xr:uid="{F47C6505-8196-4511-AE67-D52965EEDE23}"/>
+    <hyperlink ref="H17" r:id="rId4" xr:uid="{E27B66FC-5778-48E1-899B-BB5BB5FBA7E6}"/>
+    <hyperlink ref="H21" r:id="rId5" xr:uid="{C64839DE-A1BA-4157-9A52-801A27FF2915}"/>
+    <hyperlink ref="H19" r:id="rId6" display="Website" xr:uid="{7F6AF889-A9E9-47C4-A2A7-6DBA4D7C81E1}"/>
+    <hyperlink ref="N19" r:id="rId7" display="Datasheet" xr:uid="{CA54F83D-C19B-421F-B1B5-352D51B9919E}"/>
+    <hyperlink ref="N20" r:id="rId8" xr:uid="{33C9152C-4A79-4B03-A18F-588825C5B6B3}"/>
+    <hyperlink ref="N28" r:id="rId9" xr:uid="{0065FA4C-6809-4998-8687-BDB26D400A98}"/>
+    <hyperlink ref="N18" r:id="rId10" display="Datasheet" xr:uid="{26BF3B04-3EC6-47E2-B049-A1546D3BC973}"/>
+    <hyperlink ref="N23" r:id="rId11" display="Datasheet" xr:uid="{C5903ACA-BDB4-47BF-8B56-FF9FBBB36A72}"/>
+    <hyperlink ref="H18" r:id="rId12" display="Website" xr:uid="{F7D68913-EB8F-4945-852A-487A82242546}"/>
+    <hyperlink ref="H20" r:id="rId13" xr:uid="{5663C4BC-2E27-45A8-A9FD-082BBCA9E9F6}"/>
+    <hyperlink ref="H23" r:id="rId14" display="Website" xr:uid="{792E18D9-027D-4AE8-BA75-FC59B1B2CB73}"/>
+    <hyperlink ref="H28" r:id="rId15" xr:uid="{CF9B7135-5770-4CBA-8BB9-3EFCF0F054CE}"/>
+    <hyperlink ref="H36" r:id="rId16" xr:uid="{D6537DC4-6751-4237-9FA6-53AFEFE2BA73}"/>
+    <hyperlink ref="N37" r:id="rId17" xr:uid="{67C9887A-66CC-41B8-9FDB-D1C4BA617492}"/>
+    <hyperlink ref="N36" r:id="rId18" xr:uid="{3FD9C373-E805-4CB8-8CC6-18D15CCA42DF}"/>
+    <hyperlink ref="H37" r:id="rId19" xr:uid="{4EDF24C3-B147-4992-8CEF-2C81201015B8}"/>
+    <hyperlink ref="H5" r:id="rId20" xr:uid="{F8A9DA4F-1E4B-4027-89AA-8A8337135A11}"/>
+    <hyperlink ref="I5" r:id="rId21" xr:uid="{5D5CF429-1E28-49D6-B19E-03C72E4A0EC4}"/>
+    <hyperlink ref="N5" r:id="rId22" xr:uid="{F5058B02-CCF1-462C-AF78-CFAD9C4A5367}"/>
+    <hyperlink ref="O5" r:id="rId23" xr:uid="{296E7BD2-086A-4AEA-AB95-17F25DB9DB3D}"/>
+    <hyperlink ref="H4" r:id="rId24" xr:uid="{AD2CB2AC-934B-40A8-87F0-2DD3411B0BA0}"/>
+    <hyperlink ref="N4" r:id="rId25" xr:uid="{FDED8A92-4E75-43BB-AE6A-D9441E21FBF4}"/>
+    <hyperlink ref="H7" r:id="rId26" xr:uid="{9194B6BF-80BE-4819-B9FA-021C206393AD}"/>
+    <hyperlink ref="N7" r:id="rId27" xr:uid="{B5D84B19-87F9-4644-B7E7-743B390E9CD3}"/>
+    <hyperlink ref="H9" r:id="rId28" xr:uid="{C63F2B9A-D7B5-4328-908A-EB047B05CFDA}"/>
+    <hyperlink ref="I9" r:id="rId29" xr:uid="{379146E8-AD4E-46D7-A785-14ED81742167}"/>
+    <hyperlink ref="N9" r:id="rId30" xr:uid="{51945AC8-6C4F-4C0E-BA6D-A1FCD6678ECE}"/>
+    <hyperlink ref="O9" r:id="rId31" xr:uid="{1B35E97D-8D6C-41A4-83F8-CF1F867C31F3}"/>
+    <hyperlink ref="I10" r:id="rId32" xr:uid="{025AEAD3-FDD7-4701-B885-935FF1A1F40E}"/>
+    <hyperlink ref="O10" r:id="rId33" xr:uid="{A832D513-1545-41D7-B60B-258596075BFC}"/>
+    <hyperlink ref="H10" r:id="rId34" xr:uid="{A6C400CA-7E64-4B67-A5CF-B818FF2CED47}"/>
+    <hyperlink ref="N10" r:id="rId35" xr:uid="{D62D9E50-2AEC-4BCB-8CEA-50FFE490AD1A}"/>
+    <hyperlink ref="H8" r:id="rId36" xr:uid="{788BEF8F-DE4C-4FDE-A050-A333002ACF93}"/>
+    <hyperlink ref="I8" r:id="rId37" xr:uid="{87140149-409F-4791-9549-8128EF4B8BBB}"/>
+    <hyperlink ref="N8" r:id="rId38" xr:uid="{85A66E1C-8FFD-404F-AB02-3B2DC717ABCB}"/>
+    <hyperlink ref="O8" r:id="rId39" xr:uid="{F6CCDB53-AF06-41BB-B369-592725349098}"/>
+    <hyperlink ref="H6" r:id="rId40" xr:uid="{0B057FC7-5B6C-4B51-8259-E98B5396182B}"/>
+    <hyperlink ref="N6" r:id="rId41" xr:uid="{5DE163B5-CB79-4653-B429-7D96467A8E43}"/>
+    <hyperlink ref="I6" r:id="rId42" xr:uid="{E8FFE40B-C58A-49AD-A9B1-168D1DA02231}"/>
+    <hyperlink ref="O6" r:id="rId43" xr:uid="{2B0393D1-9C98-4B09-843F-3E2A610A923F}"/>
+    <hyperlink ref="I7" r:id="rId44" xr:uid="{E9A9CB27-84F7-4029-AB18-22D57940980B}"/>
+    <hyperlink ref="O7" r:id="rId45" xr:uid="{7230B460-BF16-4B25-9AD0-999DBA80097A}"/>
+    <hyperlink ref="I4" r:id="rId46" xr:uid="{31976906-146E-4057-89C1-F00E10F2C442}"/>
+    <hyperlink ref="O4" r:id="rId47" xr:uid="{677AD2D2-0C13-4EA4-A5A9-72E0106594DE}"/>
+    <hyperlink ref="I18" r:id="rId48" xr:uid="{EE53776F-D0D2-4515-B316-8D0A9661C7D5}"/>
+    <hyperlink ref="O18" r:id="rId49" xr:uid="{2938CD97-3CFB-4828-B234-DDD6FA51651E}"/>
+    <hyperlink ref="I23" r:id="rId50" xr:uid="{C041C052-5B7F-4797-90DB-07A5A9BD8086}"/>
+    <hyperlink ref="O23" r:id="rId51" xr:uid="{B784EE51-DF03-4479-ABFD-FAE317652025}"/>
+    <hyperlink ref="O19" r:id="rId52" xr:uid="{A63E6F16-81FE-46B5-A1B1-B4BC1F6573F2}"/>
+    <hyperlink ref="I19" r:id="rId53" xr:uid="{220C83A2-FFD8-4402-83E7-F8389CE5032E}"/>
+    <hyperlink ref="H38" r:id="rId54" xr:uid="{C62D8D79-F101-4180-ACFF-0702F492811A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId54"/>
+  <pageSetup orientation="portrait" r:id="rId55"/>
+  <drawing r:id="rId56"/>
 </worksheet>
 </file>
--- a/8Bit Computer ver2.0/excel/chips availability.xlsx
+++ b/8Bit Computer ver2.0/excel/chips availability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Desktop\Computer_HTL\8Bit Computer ver2.0\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D66E96-E2D0-4865-B608-0B9494B897DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95B480E-6883-4061-998F-9B2A5A5C97E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9CC7EE1-7E8B-4FEA-8BE1-446B4A860683}"/>
   </bookViews>
@@ -126,9 +126,6 @@
     <t>HC</t>
   </si>
   <si>
-    <t>0.47 EUR</t>
-  </si>
-  <si>
     <t>74x32</t>
   </si>
   <si>
@@ -384,16 +381,19 @@
     <t>~2USD</t>
   </si>
   <si>
-    <t>0.20 USD</t>
-  </si>
-  <si>
-    <t>0.10 USD</t>
-  </si>
-  <si>
     <t>8Bit ti</t>
   </si>
   <si>
     <t>8Bit nex</t>
+  </si>
+  <si>
+    <t>0.30 USD</t>
+  </si>
+  <si>
+    <t>Price~</t>
+  </si>
+  <si>
+    <t>0.5 EUR</t>
   </si>
 </sst>
 </file>
@@ -497,7 +497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -555,13 +555,16 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -951,7 +954,7 @@
   <dimension ref="B1:P109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,26 +974,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>1</v>
@@ -999,19 +1002,19 @@
         <v>9</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>94</v>
-      </c>
       <c r="H2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>82</v>
-      </c>
       <c r="J2" s="11" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>2</v>
@@ -1021,28 +1024,28 @@
       </c>
       <c r="M2" s="15"/>
       <c r="N2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="O2" s="12" t="s">
-        <v>85</v>
-      </c>
       <c r="P2" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="3"/>
@@ -1054,186 +1057,186 @@
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L4" s="1"/>
       <c r="N4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="L5" s="1"/>
       <c r="N5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="O5" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L6" s="1"/>
       <c r="N6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L7" s="1"/>
       <c r="N7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H8" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L8" s="1"/>
       <c r="N8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="O8" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
@@ -1241,38 +1244,38 @@
         <v>3</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="L9" s="1"/>
       <c r="N9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="O9" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
@@ -1280,38 +1283,38 @@
         <v>1</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>117</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L10" s="1"/>
       <c r="N10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="O10" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
@@ -1344,24 +1347,24 @@
     </row>
     <row r="13" spans="2:16" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>1</v>
@@ -1370,14 +1373,14 @@
         <v>9</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>8</v>
@@ -1389,28 +1392,28 @@
         <v>20</v>
       </c>
       <c r="N14" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="O14" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="O14" s="12" t="s">
-        <v>85</v>
-      </c>
       <c r="P14" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="10" t="s">
@@ -1431,16 +1434,16 @@
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="10" t="s">
@@ -1461,16 +1464,16 @@
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="10" t="s">
@@ -1491,73 +1494,73 @@
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L18" s="1"/>
       <c r="N18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="O18" s="19" t="s">
         <v>84</v>
-      </c>
-      <c r="O18" s="19" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="I19" s="19" t="s">
-        <v>82</v>
-      </c>
       <c r="J19" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L19" s="1"/>
       <c r="N19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="O19" s="20" t="s">
         <v>84</v>
-      </c>
-      <c r="O19" s="20" t="s">
-        <v>85</v>
       </c>
       <c r="P19" s="1"/>
     </row>
@@ -1566,16 +1569,16 @@
         <v>1</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="5" t="s">
@@ -1584,27 +1587,27 @@
       <c r="I20" s="5"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L20" s="1"/>
       <c r="N20" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="10" t="s">
@@ -1625,16 +1628,16 @@
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7" t="s">
@@ -1655,46 +1658,46 @@
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="I23" s="19" t="s">
-        <v>82</v>
-      </c>
       <c r="J23" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L23" s="1"/>
       <c r="N23" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="O23" s="19" t="s">
         <v>84</v>
-      </c>
-      <c r="O23" s="19" t="s">
-        <v>85</v>
       </c>
       <c r="P23" s="18"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>28</v>
@@ -1719,10 +1722,10 @@
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>28</v>
@@ -1730,11 +1733,11 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>14</v>
@@ -1747,16 +1750,16 @@
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -1767,7 +1770,7 @@
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N26" s="7"/>
       <c r="P26" s="1"/>
@@ -1775,16 +1778,16 @@
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -1794,7 +1797,7 @@
         <v>14</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="7"/>
@@ -1803,16 +1806,16 @@
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="5" t="s">
@@ -1824,7 +1827,7 @@
       </c>
       <c r="L28" s="1"/>
       <c r="N28" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
@@ -1887,22 +1890,22 @@
     </row>
     <row r="34" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>1</v>
@@ -1923,28 +1926,28 @@
         <v>2</v>
       </c>
       <c r="L35" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="5" t="s">
@@ -1954,25 +1957,25 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="5" t="s">
@@ -1980,31 +1983,31 @@
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>3</v>
       </c>
-      <c r="C38" s="23" t="s">
-        <v>58</v>
+      <c r="C38" s="21" t="s">
+        <v>57</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="5" t="s">
@@ -2012,14 +2015,14 @@
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N38" s="1"/>
     </row>
@@ -2048,17 +2051,17 @@
       <c r="N40" s="1"/>
     </row>
     <row r="41" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
@@ -2087,7 +2090,7 @@
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>12</v>

--- a/8Bit Computer ver2.0/excel/chips availability.xlsx
+++ b/8Bit Computer ver2.0/excel/chips availability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Desktop\Computer_HTL\8Bit Computer ver2.0\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95B480E-6883-4061-998F-9B2A5A5C97E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1016F039-D67B-4AB6-9110-F820B66A46B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9CC7EE1-7E8B-4FEA-8BE1-446B4A860683}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="129">
   <si>
     <t>Boolean Logic</t>
   </si>
@@ -282,9 +282,6 @@
     <t>Website2</t>
   </si>
   <si>
-    <t>AHC/LVC</t>
-  </si>
-  <si>
     <t>Datasheet1</t>
   </si>
   <si>
@@ -300,9 +297,6 @@
     <t>3x 3input</t>
   </si>
   <si>
-    <t>HC/HCS</t>
-  </si>
-  <si>
     <t>Need</t>
   </si>
   <si>
@@ -324,21 +318,12 @@
     <t>notused</t>
   </si>
   <si>
-    <t>LS/HCS</t>
-  </si>
-  <si>
     <t>Kicad state</t>
   </si>
   <si>
-    <t>S/F</t>
-  </si>
-  <si>
     <t>8.295 EUR/ 1EUR</t>
   </si>
   <si>
-    <t>ALS/AC</t>
-  </si>
-  <si>
     <t>11USD/0.7USD</t>
   </si>
   <si>
@@ -394,6 +379,108 @@
   </si>
   <si>
     <t>0.5 EUR</t>
+  </si>
+  <si>
+    <t>fall rise</t>
+  </si>
+  <si>
+    <r>
+      <t>AHC/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LVC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>HC/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HCS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LS/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HCS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALS/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>S/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F</t>
+    </r>
+  </si>
+  <si>
+    <t>Website3</t>
+  </si>
+  <si>
+    <t>Website4</t>
+  </si>
+  <si>
+    <t>Website5</t>
+  </si>
+  <si>
+    <t>Website6</t>
+  </si>
+  <si>
+    <t>Datasheet3</t>
+  </si>
+  <si>
+    <t>Datasheet4</t>
+  </si>
+  <si>
+    <t>Datasheet5</t>
+  </si>
+  <si>
+    <t>Datasheet6</t>
   </si>
 </sst>
 </file>
@@ -403,7 +490,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-1];[Red]\-#,##0.00\ [$€-1]"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,8 +529,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,6 +574,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -497,7 +603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -552,10 +658,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -564,7 +670,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -954,7 +1061,7 @@
   <dimension ref="B1:P109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,7 +1097,7 @@
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>61</v>
@@ -1002,10 +1109,10 @@
         <v>9</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>80</v>
@@ -1014,7 +1121,7 @@
         <v>81</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>2</v>
@@ -1024,19 +1131,19 @@
       </c>
       <c r="M2" s="15"/>
       <c r="N2" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="O2" s="12" t="s">
-        <v>84</v>
-      </c>
       <c r="P2" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>33</v>
@@ -1074,21 +1181,21 @@
       <c r="H4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>81</v>
+      <c r="I4" s="21" t="s">
+        <v>80</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="L4" s="1"/>
       <c r="N4" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
@@ -1111,21 +1218,21 @@
       <c r="H5" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="21" t="s">
         <v>81</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="L5" s="1"/>
       <c r="N5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
@@ -1140,29 +1247,29 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>81</v>
+      <c r="I6" s="21" t="s">
+        <v>121</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="L6" s="1"/>
       <c r="N6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -1177,29 +1284,29 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>81</v>
+      <c r="I7" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="L7" s="1"/>
       <c r="N7" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
@@ -1214,29 +1321,29 @@
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H8" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>81</v>
+      <c r="I8" s="21" t="s">
+        <v>123</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="L8" s="1"/>
       <c r="N8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
@@ -1244,38 +1351,38 @@
         <v>3</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>81</v>
+      <c r="I9" s="21" t="s">
+        <v>124</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="L9" s="1"/>
       <c r="N9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
@@ -1283,10 +1390,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>5</v>
@@ -1300,21 +1407,21 @@
       <c r="H10" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="21" t="s">
         <v>81</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="L10" s="1"/>
       <c r="N10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
@@ -1392,13 +1499,13 @@
         <v>20</v>
       </c>
       <c r="N14" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="O14" s="12" t="s">
-        <v>84</v>
-      </c>
       <c r="P14" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
@@ -1503,29 +1610,29 @@
         <v>67</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H18" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" s="21" t="s">
         <v>80</v>
       </c>
       <c r="I18" s="19" t="s">
         <v>81</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L18" s="1"/>
-      <c r="N18" s="5" t="s">
+      <c r="N18" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="O18" s="19" t="s">
         <v>83</v>
-      </c>
-      <c r="O18" s="19" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -1546,21 +1653,21 @@
       <c r="H19" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="19" t="s">
+      <c r="I19" s="21" t="s">
         <v>81</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="L19" s="1"/>
       <c r="N19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O19" s="25" t="s">
         <v>83</v>
-      </c>
-      <c r="O19" s="20" t="s">
-        <v>84</v>
       </c>
       <c r="P19" s="1"/>
     </row>
@@ -1590,6 +1697,9 @@
         <v>54</v>
       </c>
       <c r="L20" s="1"/>
+      <c r="M20" s="24" t="s">
+        <v>115</v>
+      </c>
       <c r="N20" s="5" t="s">
         <v>51</v>
       </c>
@@ -1658,7 +1768,7 @@
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>39</v>
@@ -1673,21 +1783,21 @@
       <c r="H23" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="I23" s="21" t="s">
         <v>81</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="L23" s="1"/>
       <c r="N23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O23" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="O23" s="19" t="s">
-        <v>84</v>
       </c>
       <c r="P23" s="18"/>
     </row>
@@ -1926,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="L35" s="11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M35" s="12" t="s">
         <v>59</v>
@@ -1957,7 +2067,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="N36" s="5" t="s">
         <v>51</v>
@@ -1969,7 +2079,7 @@
         <v>62</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>73</v>
@@ -1983,11 +2093,11 @@
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="N37" s="5" t="s">
         <v>51</v>
@@ -1997,17 +2107,17 @@
       <c r="B38" s="1">
         <v>3</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="20" t="s">
         <v>57</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="5" t="s">
@@ -2015,14 +2125,14 @@
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M38" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="N38" s="1"/>
     </row>
@@ -2844,6 +2954,7 @@
     <mergeCell ref="D13:L13"/>
     <mergeCell ref="D1:L1"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H15" r:id="rId1" xr:uid="{4C632AA1-6F55-423B-8697-B86F870D7F1B}"/>
     <hyperlink ref="H16" r:id="rId2" xr:uid="{E6F47877-79D3-493E-A16B-6B7238B0BE31}"/>
@@ -2873,35 +2984,29 @@
     <hyperlink ref="H7" r:id="rId26" xr:uid="{9194B6BF-80BE-4819-B9FA-021C206393AD}"/>
     <hyperlink ref="N7" r:id="rId27" xr:uid="{B5D84B19-87F9-4644-B7E7-743B390E9CD3}"/>
     <hyperlink ref="H9" r:id="rId28" xr:uid="{C63F2B9A-D7B5-4328-908A-EB047B05CFDA}"/>
-    <hyperlink ref="I9" r:id="rId29" xr:uid="{379146E8-AD4E-46D7-A785-14ED81742167}"/>
-    <hyperlink ref="N9" r:id="rId30" xr:uid="{51945AC8-6C4F-4C0E-BA6D-A1FCD6678ECE}"/>
-    <hyperlink ref="O9" r:id="rId31" xr:uid="{1B35E97D-8D6C-41A4-83F8-CF1F867C31F3}"/>
-    <hyperlink ref="I10" r:id="rId32" xr:uid="{025AEAD3-FDD7-4701-B885-935FF1A1F40E}"/>
-    <hyperlink ref="O10" r:id="rId33" xr:uid="{A832D513-1545-41D7-B60B-258596075BFC}"/>
-    <hyperlink ref="H10" r:id="rId34" xr:uid="{A6C400CA-7E64-4B67-A5CF-B818FF2CED47}"/>
-    <hyperlink ref="N10" r:id="rId35" xr:uid="{D62D9E50-2AEC-4BCB-8CEA-50FFE490AD1A}"/>
-    <hyperlink ref="H8" r:id="rId36" xr:uid="{788BEF8F-DE4C-4FDE-A050-A333002ACF93}"/>
-    <hyperlink ref="I8" r:id="rId37" xr:uid="{87140149-409F-4791-9549-8128EF4B8BBB}"/>
-    <hyperlink ref="N8" r:id="rId38" xr:uid="{85A66E1C-8FFD-404F-AB02-3B2DC717ABCB}"/>
-    <hyperlink ref="O8" r:id="rId39" xr:uid="{F6CCDB53-AF06-41BB-B369-592725349098}"/>
-    <hyperlink ref="H6" r:id="rId40" xr:uid="{0B057FC7-5B6C-4B51-8259-E98B5396182B}"/>
-    <hyperlink ref="N6" r:id="rId41" xr:uid="{5DE163B5-CB79-4653-B429-7D96467A8E43}"/>
-    <hyperlink ref="I6" r:id="rId42" xr:uid="{E8FFE40B-C58A-49AD-A9B1-168D1DA02231}"/>
-    <hyperlink ref="O6" r:id="rId43" xr:uid="{2B0393D1-9C98-4B09-843F-3E2A610A923F}"/>
-    <hyperlink ref="I7" r:id="rId44" xr:uid="{E9A9CB27-84F7-4029-AB18-22D57940980B}"/>
-    <hyperlink ref="O7" r:id="rId45" xr:uid="{7230B460-BF16-4B25-9AD0-999DBA80097A}"/>
-    <hyperlink ref="I4" r:id="rId46" xr:uid="{31976906-146E-4057-89C1-F00E10F2C442}"/>
-    <hyperlink ref="O4" r:id="rId47" xr:uid="{677AD2D2-0C13-4EA4-A5A9-72E0106594DE}"/>
-    <hyperlink ref="I18" r:id="rId48" xr:uid="{EE53776F-D0D2-4515-B316-8D0A9661C7D5}"/>
-    <hyperlink ref="O18" r:id="rId49" xr:uid="{2938CD97-3CFB-4828-B234-DDD6FA51651E}"/>
-    <hyperlink ref="I23" r:id="rId50" xr:uid="{C041C052-5B7F-4797-90DB-07A5A9BD8086}"/>
-    <hyperlink ref="O23" r:id="rId51" xr:uid="{B784EE51-DF03-4479-ABFD-FAE317652025}"/>
-    <hyperlink ref="O19" r:id="rId52" xr:uid="{A63E6F16-81FE-46B5-A1B1-B4BC1F6573F2}"/>
-    <hyperlink ref="I19" r:id="rId53" xr:uid="{220C83A2-FFD8-4402-83E7-F8389CE5032E}"/>
-    <hyperlink ref="H38" r:id="rId54" xr:uid="{C62D8D79-F101-4180-ACFF-0702F492811A}"/>
+    <hyperlink ref="N9" r:id="rId29" xr:uid="{51945AC8-6C4F-4C0E-BA6D-A1FCD6678ECE}"/>
+    <hyperlink ref="I10" r:id="rId30" xr:uid="{025AEAD3-FDD7-4701-B885-935FF1A1F40E}"/>
+    <hyperlink ref="O10" r:id="rId31" xr:uid="{A832D513-1545-41D7-B60B-258596075BFC}"/>
+    <hyperlink ref="H10" r:id="rId32" xr:uid="{A6C400CA-7E64-4B67-A5CF-B818FF2CED47}"/>
+    <hyperlink ref="N10" r:id="rId33" xr:uid="{D62D9E50-2AEC-4BCB-8CEA-50FFE490AD1A}"/>
+    <hyperlink ref="H8" r:id="rId34" xr:uid="{788BEF8F-DE4C-4FDE-A050-A333002ACF93}"/>
+    <hyperlink ref="N8" r:id="rId35" xr:uid="{85A66E1C-8FFD-404F-AB02-3B2DC717ABCB}"/>
+    <hyperlink ref="H6" r:id="rId36" xr:uid="{0B057FC7-5B6C-4B51-8259-E98B5396182B}"/>
+    <hyperlink ref="N6" r:id="rId37" xr:uid="{5DE163B5-CB79-4653-B429-7D96467A8E43}"/>
+    <hyperlink ref="I18" r:id="rId38" xr:uid="{EE53776F-D0D2-4515-B316-8D0A9661C7D5}"/>
+    <hyperlink ref="O18" r:id="rId39" xr:uid="{2938CD97-3CFB-4828-B234-DDD6FA51651E}"/>
+    <hyperlink ref="I23" r:id="rId40" xr:uid="{C041C052-5B7F-4797-90DB-07A5A9BD8086}"/>
+    <hyperlink ref="O23" r:id="rId41" xr:uid="{B784EE51-DF03-4479-ABFD-FAE317652025}"/>
+    <hyperlink ref="O19" r:id="rId42" xr:uid="{A63E6F16-81FE-46B5-A1B1-B4BC1F6573F2}"/>
+    <hyperlink ref="I19" r:id="rId43" xr:uid="{220C83A2-FFD8-4402-83E7-F8389CE5032E}"/>
+    <hyperlink ref="H38" r:id="rId44" xr:uid="{C62D8D79-F101-4180-ACFF-0702F492811A}"/>
+    <hyperlink ref="I6:I9" r:id="rId45" display="Website2" xr:uid="{EA5CBDA0-E333-4285-A5D8-5437E4975D69}"/>
+    <hyperlink ref="I4" r:id="rId46" display="Website2" xr:uid="{A8CC0897-3F87-437F-82EA-9FF90A50BF4D}"/>
+    <hyperlink ref="O6:O9" r:id="rId47" display="Datasheet2" xr:uid="{B1CF5836-BC0F-45A3-8467-C87551EFE09D}"/>
+    <hyperlink ref="O4" r:id="rId48" display="Datasheet2" xr:uid="{D2B3CB03-9F03-44BC-A1CF-E4C4FDCC23F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId55"/>
-  <drawing r:id="rId56"/>
+  <pageSetup orientation="portrait" r:id="rId49"/>
+  <drawing r:id="rId50"/>
 </worksheet>
 </file>
--- a/8Bit Computer ver2.0/excel/chips availability.xlsx
+++ b/8Bit Computer ver2.0/excel/chips availability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Desktop\Computer_HTL\8Bit Computer ver2.0\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1016F039-D67B-4AB6-9110-F820B66A46B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272FB263-774E-4708-96BD-676273305AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9CC7EE1-7E8B-4FEA-8BE1-446B4A860683}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="127">
   <si>
     <t>Boolean Logic</t>
   </si>
@@ -195,9 +195,6 @@
     <t>74x323</t>
   </si>
   <si>
-    <t>74x4051</t>
-  </si>
-  <si>
     <t>HCT/HC</t>
   </si>
   <si>
@@ -220,9 +217,6 @@
   </si>
   <si>
     <t>State</t>
-  </si>
-  <si>
-    <t>unknown</t>
   </si>
   <si>
     <t>Version</t>
@@ -459,28 +453,28 @@
     </r>
   </si>
   <si>
-    <t>Website3</t>
-  </si>
-  <si>
-    <t>Website4</t>
-  </si>
-  <si>
-    <t>Website5</t>
-  </si>
-  <si>
-    <t>Website6</t>
-  </si>
-  <si>
-    <t>Datasheet3</t>
-  </si>
-  <si>
-    <t>Datasheet4</t>
-  </si>
-  <si>
-    <t>Datasheet5</t>
-  </si>
-  <si>
-    <t>Datasheet6</t>
+    <t>CD74x4051</t>
+  </si>
+  <si>
+    <t>SN74x4051</t>
+  </si>
+  <si>
+    <t>MUX</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Octal Dlatch</t>
+  </si>
+  <si>
+    <t>SN74HCS273</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
 </sst>
 </file>
@@ -543,7 +537,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,12 +552,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -571,12 +559,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,7 +585,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -639,29 +621,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -670,8 +652,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -698,13 +694,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>588741</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1058,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA67386-7B54-425F-86A0-E9D5FF3EDFA0}">
-  <dimension ref="B1:P109"/>
+  <dimension ref="B1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,10 +1093,10 @@
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>1</v>
@@ -1109,19 +1105,19 @@
         <v>9</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>2</v>
@@ -1129,21 +1125,21 @@
       <c r="L2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="15"/>
+      <c r="M2" s="14"/>
       <c r="N2" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>33</v>
@@ -1152,7 +1148,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="3"/>
@@ -1163,82 +1159,82 @@
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="16" t="s">
-        <v>57</v>
+      <c r="C4" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>80</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L4" s="1"/>
       <c r="N4" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O4" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="16" t="s">
-        <v>57</v>
+      <c r="C5" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>79</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L5" s="1"/>
       <c r="N5" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O5" s="21" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-      <c r="C6" s="16" t="s">
-        <v>57</v>
+      <c r="C6" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>32</v>
@@ -1247,35 +1243,35 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>121</v>
+        <v>78</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>79</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L6" s="1"/>
       <c r="N6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>125</v>
+        <v>80</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="C7" s="16" t="s">
-        <v>57</v>
+      <c r="C7" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>30</v>
@@ -1284,35 +1280,35 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>122</v>
+        <v>78</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>79</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L7" s="1"/>
       <c r="N7" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>126</v>
+        <v>80</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="16" t="s">
-        <v>57</v>
+      <c r="C8" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>31</v>
@@ -1321,107 +1317,107 @@
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>123</v>
+        <v>87</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>79</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L8" s="1"/>
       <c r="N8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" s="21" t="s">
-        <v>127</v>
+        <v>80</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>98</v>
+        <v>6</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>124</v>
+        <v>78</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>79</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L9" s="1"/>
       <c r="N9" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O9" s="21" t="s">
-        <v>128</v>
+        <v>80</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>107</v>
+        <v>2</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>105</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>79</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L10" s="1"/>
       <c r="N10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" s="21" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
@@ -1471,7 +1467,7 @@
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>1</v>
@@ -1479,15 +1475,15 @@
       <c r="E14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="14"/>
+      <c r="F14" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="13"/>
       <c r="H14" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>8</v>
@@ -1498,14 +1494,14 @@
       <c r="L14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="14" t="s">
-        <v>82</v>
+      <c r="N14" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
@@ -1517,10 +1513,10 @@
         <v>34</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="10" t="s">
@@ -1547,10 +1543,10 @@
         <v>35</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="10" t="s">
@@ -1577,10 +1573,10 @@
         <v>37</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="10" t="s">
@@ -1600,45 +1596,45 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18" s="17" t="s">
-        <v>57</v>
+      <c r="C18" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>81</v>
+        <v>108</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L18" s="1"/>
-      <c r="N18" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="O18" s="19" t="s">
-        <v>83</v>
+      <c r="N18" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="C19" s="17" t="s">
-        <v>57</v>
+      <c r="C19" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>52</v>
@@ -1647,27 +1643,27 @@
         <v>21</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L19" s="1"/>
       <c r="N19" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O19" s="25" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="P19" s="1"/>
     </row>
@@ -1675,34 +1671,32 @@
       <c r="B20" s="1">
         <v>1</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>56</v>
+      <c r="C20" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="5"/>
+      <c r="I20" s="17"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1" t="s">
-        <v>54</v>
+      <c r="K20" s="25" t="s">
+        <v>122</v>
       </c>
       <c r="L20" s="1"/>
-      <c r="M20" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="N20" s="5" t="s">
+      <c r="N20" s="20" t="s">
         <v>51</v>
       </c>
+      <c r="O20" s="24"/>
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -1711,28 +1705,31 @@
         <v>50</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I21" s="10"/>
-      <c r="J21" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="J21" s="7"/>
       <c r="K21" s="7" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="L21" s="7"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="7"/>
+      <c r="M21" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O21" s="6"/>
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
@@ -1741,24 +1738,24 @@
         <v>50</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="H22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I22" s="7"/>
+      <c r="H22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="10"/>
       <c r="J22" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="6"/>
@@ -1767,67 +1764,69 @@
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
-      <c r="C23" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L23" s="1"/>
-      <c r="N23" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O23" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="P23" s="18"/>
+      <c r="C23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="7"/>
+      <c r="P23" s="1"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-      <c r="C24" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="7"/>
-      <c r="P24" s="1"/>
+      <c r="C24" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="N24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O24" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" s="17"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
@@ -1835,7 +1834,7 @@
         <v>50</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>28</v>
@@ -1843,14 +1842,14 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L25" s="7"/>
       <c r="M25" s="6"/>
@@ -1863,25 +1862,25 @@
         <v>50</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>64</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="H26" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="I26" s="7"/>
-      <c r="J26" s="6"/>
+      <c r="J26" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="K26" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="L26" s="7"/>
-      <c r="M26" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="M26" s="6"/>
       <c r="N26" s="7"/>
       <c r="P26" s="1"/>
     </row>
@@ -1891,66 +1890,84 @@
         <v>50</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
+      <c r="J27" s="6"/>
       <c r="K27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M27" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="N27" s="7"/>
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
-      <c r="C28" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="5" t="s">
+      <c r="C28" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M28" s="6"/>
+      <c r="N28" s="7"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>9</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="5"/>
-      <c r="K28" s="1" t="s">
+      <c r="I29" s="5"/>
+      <c r="K29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L28" s="1"/>
-      <c r="N28" s="5" t="s">
+      <c r="L29" s="1"/>
+      <c r="N29" s="29" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
@@ -1958,6 +1975,8 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1968,8 +1987,6 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -1998,237 +2015,255 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="B35" s="1"/>
+      <c r="D35" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="K35" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L35" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="M35" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="N35" s="11" t="s">
-        <v>51</v>
-      </c>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
-      <c r="C36" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="C36" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="5" t="s">
+      <c r="D36" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="N36" s="5" t="s">
+      <c r="I36" s="11"/>
+      <c r="J36" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N36" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
-      <c r="C37" s="13" t="s">
-        <v>62</v>
+      <c r="C37" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I37" s="5"/>
-      <c r="J37" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="N37" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="1">
-        <v>3</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>57</v>
+      <c r="B38" s="1"/>
+      <c r="C38" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I38" s="1"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M38" t="s">
-        <v>108</v>
-      </c>
-      <c r="N38" s="1"/>
+      <c r="N38" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="B39" s="1">
+        <v>3</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="H39" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="J39" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
+      <c r="L39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M39" t="s">
+        <v>106</v>
+      </c>
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="H40" s="26" t="s">
+        <v>7</v>
+      </c>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="J40" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="D41" s="22" t="s">
+      <c r="N40" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="D42" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D43" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2" t="s">
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2" t="s">
+      <c r="I43" s="2"/>
+      <c r="J43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="K43" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="L43" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D43" s="1" t="s">
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L43" s="1"/>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+      <c r="H44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="L44" s="1"/>
       <c r="N44" s="1"/>
     </row>
@@ -2242,6 +2277,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
+      <c r="N45" s="1"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D46" s="1"/>
@@ -2699,8 +2735,8 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
@@ -2947,10 +2983,21 @@
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
     </row>
+    <row r="110" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D34:L34"/>
-    <mergeCell ref="D41:L41"/>
+    <mergeCell ref="D35:L35"/>
+    <mergeCell ref="D42:L42"/>
     <mergeCell ref="D13:L13"/>
     <mergeCell ref="D1:L1"/>
   </mergeCells>
@@ -2958,55 +3005,65 @@
   <hyperlinks>
     <hyperlink ref="H15" r:id="rId1" xr:uid="{4C632AA1-6F55-423B-8697-B86F870D7F1B}"/>
     <hyperlink ref="H16" r:id="rId2" xr:uid="{E6F47877-79D3-493E-A16B-6B7238B0BE31}"/>
-    <hyperlink ref="H43" r:id="rId3" xr:uid="{F47C6505-8196-4511-AE67-D52965EEDE23}"/>
+    <hyperlink ref="H44" r:id="rId3" xr:uid="{F47C6505-8196-4511-AE67-D52965EEDE23}"/>
     <hyperlink ref="H17" r:id="rId4" xr:uid="{E27B66FC-5778-48E1-899B-BB5BB5FBA7E6}"/>
-    <hyperlink ref="H21" r:id="rId5" xr:uid="{C64839DE-A1BA-4157-9A52-801A27FF2915}"/>
+    <hyperlink ref="H22" r:id="rId5" xr:uid="{C64839DE-A1BA-4157-9A52-801A27FF2915}"/>
     <hyperlink ref="H19" r:id="rId6" display="Website" xr:uid="{7F6AF889-A9E9-47C4-A2A7-6DBA4D7C81E1}"/>
     <hyperlink ref="N19" r:id="rId7" display="Datasheet" xr:uid="{CA54F83D-C19B-421F-B1B5-352D51B9919E}"/>
-    <hyperlink ref="N20" r:id="rId8" xr:uid="{33C9152C-4A79-4B03-A18F-588825C5B6B3}"/>
-    <hyperlink ref="N28" r:id="rId9" xr:uid="{0065FA4C-6809-4998-8687-BDB26D400A98}"/>
+    <hyperlink ref="N21" r:id="rId8" xr:uid="{33C9152C-4A79-4B03-A18F-588825C5B6B3}"/>
+    <hyperlink ref="N29" r:id="rId9" xr:uid="{0065FA4C-6809-4998-8687-BDB26D400A98}"/>
     <hyperlink ref="N18" r:id="rId10" display="Datasheet" xr:uid="{26BF3B04-3EC6-47E2-B049-A1546D3BC973}"/>
-    <hyperlink ref="N23" r:id="rId11" display="Datasheet" xr:uid="{C5903ACA-BDB4-47BF-8B56-FF9FBBB36A72}"/>
+    <hyperlink ref="N24" r:id="rId11" display="Datasheet" xr:uid="{C5903ACA-BDB4-47BF-8B56-FF9FBBB36A72}"/>
     <hyperlink ref="H18" r:id="rId12" display="Website" xr:uid="{F7D68913-EB8F-4945-852A-487A82242546}"/>
-    <hyperlink ref="H20" r:id="rId13" xr:uid="{5663C4BC-2E27-45A8-A9FD-082BBCA9E9F6}"/>
-    <hyperlink ref="H23" r:id="rId14" display="Website" xr:uid="{792E18D9-027D-4AE8-BA75-FC59B1B2CB73}"/>
-    <hyperlink ref="H28" r:id="rId15" xr:uid="{CF9B7135-5770-4CBA-8BB9-3EFCF0F054CE}"/>
-    <hyperlink ref="H36" r:id="rId16" xr:uid="{D6537DC4-6751-4237-9FA6-53AFEFE2BA73}"/>
-    <hyperlink ref="N37" r:id="rId17" xr:uid="{67C9887A-66CC-41B8-9FDB-D1C4BA617492}"/>
-    <hyperlink ref="N36" r:id="rId18" xr:uid="{3FD9C373-E805-4CB8-8CC6-18D15CCA42DF}"/>
-    <hyperlink ref="H37" r:id="rId19" xr:uid="{4EDF24C3-B147-4992-8CEF-2C81201015B8}"/>
+    <hyperlink ref="H21" r:id="rId13" xr:uid="{5663C4BC-2E27-45A8-A9FD-082BBCA9E9F6}"/>
+    <hyperlink ref="H24" r:id="rId14" display="Website" xr:uid="{792E18D9-027D-4AE8-BA75-FC59B1B2CB73}"/>
+    <hyperlink ref="H29" r:id="rId15" xr:uid="{CF9B7135-5770-4CBA-8BB9-3EFCF0F054CE}"/>
+    <hyperlink ref="H37" r:id="rId16" xr:uid="{D6537DC4-6751-4237-9FA6-53AFEFE2BA73}"/>
+    <hyperlink ref="N38" r:id="rId17" xr:uid="{67C9887A-66CC-41B8-9FDB-D1C4BA617492}"/>
+    <hyperlink ref="N37" r:id="rId18" xr:uid="{3FD9C373-E805-4CB8-8CC6-18D15CCA42DF}"/>
+    <hyperlink ref="H38" r:id="rId19" xr:uid="{4EDF24C3-B147-4992-8CEF-2C81201015B8}"/>
     <hyperlink ref="H5" r:id="rId20" xr:uid="{F8A9DA4F-1E4B-4027-89AA-8A8337135A11}"/>
-    <hyperlink ref="I5" r:id="rId21" xr:uid="{5D5CF429-1E28-49D6-B19E-03C72E4A0EC4}"/>
-    <hyperlink ref="N5" r:id="rId22" xr:uid="{F5058B02-CCF1-462C-AF78-CFAD9C4A5367}"/>
-    <hyperlink ref="O5" r:id="rId23" xr:uid="{296E7BD2-086A-4AEA-AB95-17F25DB9DB3D}"/>
-    <hyperlink ref="H4" r:id="rId24" xr:uid="{AD2CB2AC-934B-40A8-87F0-2DD3411B0BA0}"/>
-    <hyperlink ref="N4" r:id="rId25" xr:uid="{FDED8A92-4E75-43BB-AE6A-D9441E21FBF4}"/>
-    <hyperlink ref="H7" r:id="rId26" xr:uid="{9194B6BF-80BE-4819-B9FA-021C206393AD}"/>
-    <hyperlink ref="N7" r:id="rId27" xr:uid="{B5D84B19-87F9-4644-B7E7-743B390E9CD3}"/>
-    <hyperlink ref="H9" r:id="rId28" xr:uid="{C63F2B9A-D7B5-4328-908A-EB047B05CFDA}"/>
-    <hyperlink ref="N9" r:id="rId29" xr:uid="{51945AC8-6C4F-4C0E-BA6D-A1FCD6678ECE}"/>
-    <hyperlink ref="I10" r:id="rId30" xr:uid="{025AEAD3-FDD7-4701-B885-935FF1A1F40E}"/>
-    <hyperlink ref="O10" r:id="rId31" xr:uid="{A832D513-1545-41D7-B60B-258596075BFC}"/>
-    <hyperlink ref="H10" r:id="rId32" xr:uid="{A6C400CA-7E64-4B67-A5CF-B818FF2CED47}"/>
-    <hyperlink ref="N10" r:id="rId33" xr:uid="{D62D9E50-2AEC-4BCB-8CEA-50FFE490AD1A}"/>
-    <hyperlink ref="H8" r:id="rId34" xr:uid="{788BEF8F-DE4C-4FDE-A050-A333002ACF93}"/>
-    <hyperlink ref="N8" r:id="rId35" xr:uid="{85A66E1C-8FFD-404F-AB02-3B2DC717ABCB}"/>
-    <hyperlink ref="H6" r:id="rId36" xr:uid="{0B057FC7-5B6C-4B51-8259-E98B5396182B}"/>
-    <hyperlink ref="N6" r:id="rId37" xr:uid="{5DE163B5-CB79-4653-B429-7D96467A8E43}"/>
-    <hyperlink ref="I18" r:id="rId38" xr:uid="{EE53776F-D0D2-4515-B316-8D0A9661C7D5}"/>
-    <hyperlink ref="O18" r:id="rId39" xr:uid="{2938CD97-3CFB-4828-B234-DDD6FA51651E}"/>
-    <hyperlink ref="I23" r:id="rId40" xr:uid="{C041C052-5B7F-4797-90DB-07A5A9BD8086}"/>
-    <hyperlink ref="O23" r:id="rId41" xr:uid="{B784EE51-DF03-4479-ABFD-FAE317652025}"/>
-    <hyperlink ref="O19" r:id="rId42" xr:uid="{A63E6F16-81FE-46B5-A1B1-B4BC1F6573F2}"/>
-    <hyperlink ref="I19" r:id="rId43" xr:uid="{220C83A2-FFD8-4402-83E7-F8389CE5032E}"/>
-    <hyperlink ref="H38" r:id="rId44" xr:uid="{C62D8D79-F101-4180-ACFF-0702F492811A}"/>
-    <hyperlink ref="I6:I9" r:id="rId45" display="Website2" xr:uid="{EA5CBDA0-E333-4285-A5D8-5437E4975D69}"/>
-    <hyperlink ref="I4" r:id="rId46" display="Website2" xr:uid="{A8CC0897-3F87-437F-82EA-9FF90A50BF4D}"/>
-    <hyperlink ref="O6:O9" r:id="rId47" display="Datasheet2" xr:uid="{B1CF5836-BC0F-45A3-8467-C87551EFE09D}"/>
-    <hyperlink ref="O4" r:id="rId48" display="Datasheet2" xr:uid="{D2B3CB03-9F03-44BC-A1CF-E4C4FDCC23F4}"/>
+    <hyperlink ref="N5" r:id="rId21" xr:uid="{F5058B02-CCF1-462C-AF78-CFAD9C4A5367}"/>
+    <hyperlink ref="H4" r:id="rId22" xr:uid="{AD2CB2AC-934B-40A8-87F0-2DD3411B0BA0}"/>
+    <hyperlink ref="N4" r:id="rId23" xr:uid="{FDED8A92-4E75-43BB-AE6A-D9441E21FBF4}"/>
+    <hyperlink ref="H7" r:id="rId24" xr:uid="{9194B6BF-80BE-4819-B9FA-021C206393AD}"/>
+    <hyperlink ref="N7" r:id="rId25" xr:uid="{B5D84B19-87F9-4644-B7E7-743B390E9CD3}"/>
+    <hyperlink ref="H9" r:id="rId26" xr:uid="{C63F2B9A-D7B5-4328-908A-EB047B05CFDA}"/>
+    <hyperlink ref="N9" r:id="rId27" xr:uid="{51945AC8-6C4F-4C0E-BA6D-A1FCD6678ECE}"/>
+    <hyperlink ref="H10" r:id="rId28" xr:uid="{A6C400CA-7E64-4B67-A5CF-B818FF2CED47}"/>
+    <hyperlink ref="N10" r:id="rId29" xr:uid="{D62D9E50-2AEC-4BCB-8CEA-50FFE490AD1A}"/>
+    <hyperlink ref="H8" r:id="rId30" xr:uid="{788BEF8F-DE4C-4FDE-A050-A333002ACF93}"/>
+    <hyperlink ref="N8" r:id="rId31" xr:uid="{85A66E1C-8FFD-404F-AB02-3B2DC717ABCB}"/>
+    <hyperlink ref="H6" r:id="rId32" xr:uid="{0B057FC7-5B6C-4B51-8259-E98B5396182B}"/>
+    <hyperlink ref="N6" r:id="rId33" xr:uid="{5DE163B5-CB79-4653-B429-7D96467A8E43}"/>
+    <hyperlink ref="I18" r:id="rId34" xr:uid="{EE53776F-D0D2-4515-B316-8D0A9661C7D5}"/>
+    <hyperlink ref="O18" r:id="rId35" xr:uid="{2938CD97-3CFB-4828-B234-DDD6FA51651E}"/>
+    <hyperlink ref="I24" r:id="rId36" xr:uid="{C041C052-5B7F-4797-90DB-07A5A9BD8086}"/>
+    <hyperlink ref="O24" r:id="rId37" xr:uid="{B784EE51-DF03-4479-ABFD-FAE317652025}"/>
+    <hyperlink ref="O19" r:id="rId38" xr:uid="{A63E6F16-81FE-46B5-A1B1-B4BC1F6573F2}"/>
+    <hyperlink ref="I19" r:id="rId39" xr:uid="{220C83A2-FFD8-4402-83E7-F8389CE5032E}"/>
+    <hyperlink ref="H39" r:id="rId40" xr:uid="{C62D8D79-F101-4180-ACFF-0702F492811A}"/>
+    <hyperlink ref="H20" r:id="rId41" display="Website2" xr:uid="{FC620188-EA0A-4DFC-9048-3D95A2D2DBFE}"/>
+    <hyperlink ref="N20" r:id="rId42" xr:uid="{F0F2535F-42C5-4864-82DD-36116DC794C9}"/>
+    <hyperlink ref="I5" r:id="rId43" xr:uid="{5D5CF429-1E28-49D6-B19E-03C72E4A0EC4}"/>
+    <hyperlink ref="I9" r:id="rId44" xr:uid="{379146E8-AD4E-46D7-A785-14ED81742167}"/>
+    <hyperlink ref="I10" r:id="rId45" xr:uid="{025AEAD3-FDD7-4701-B885-935FF1A1F40E}"/>
+    <hyperlink ref="I8" r:id="rId46" xr:uid="{87140149-409F-4791-9549-8128EF4B8BBB}"/>
+    <hyperlink ref="I6" r:id="rId47" xr:uid="{E8FFE40B-C58A-49AD-A9B1-168D1DA02231}"/>
+    <hyperlink ref="I7" r:id="rId48" xr:uid="{E9A9CB27-84F7-4029-AB18-22D57940980B}"/>
+    <hyperlink ref="I4" r:id="rId49" xr:uid="{31976906-146E-4057-89C1-F00E10F2C442}"/>
+    <hyperlink ref="O5" r:id="rId50" xr:uid="{296E7BD2-086A-4AEA-AB95-17F25DB9DB3D}"/>
+    <hyperlink ref="O9" r:id="rId51" xr:uid="{1B35E97D-8D6C-41A4-83F8-CF1F867C31F3}"/>
+    <hyperlink ref="O10" r:id="rId52" xr:uid="{A832D513-1545-41D7-B60B-258596075BFC}"/>
+    <hyperlink ref="O8" r:id="rId53" xr:uid="{F6CCDB53-AF06-41BB-B369-592725349098}"/>
+    <hyperlink ref="O6" r:id="rId54" xr:uid="{2B0393D1-9C98-4B09-843F-3E2A610A923F}"/>
+    <hyperlink ref="O7" r:id="rId55" xr:uid="{7230B460-BF16-4B25-9AD0-999DBA80097A}"/>
+    <hyperlink ref="O4" r:id="rId56" xr:uid="{677AD2D2-0C13-4EA4-A5A9-72E0106594DE}"/>
+    <hyperlink ref="N40" r:id="rId57" xr:uid="{40A478FC-8924-4710-A43E-370133585A08}"/>
+    <hyperlink ref="H40" r:id="rId58" xr:uid="{891765AC-B469-40EC-813C-5919893FF5BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId49"/>
-  <drawing r:id="rId50"/>
+  <pageSetup orientation="portrait" r:id="rId59"/>
+  <drawing r:id="rId60"/>
 </worksheet>
 </file>
--- a/8Bit Computer ver2.0/excel/chips availability.xlsx
+++ b/8Bit Computer ver2.0/excel/chips availability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Desktop\Computer_HTL\8Bit Computer ver2.0\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272FB263-774E-4708-96BD-676273305AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADFDA62-6198-436B-A835-0988707363CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9CC7EE1-7E8B-4FEA-8BE1-446B4A860683}"/>
+    <workbookView xWindow="-25320" yWindow="315" windowWidth="25440" windowHeight="15270" xr2:uid="{E9CC7EE1-7E8B-4FEA-8BE1-446B4A860683}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="129">
   <si>
     <t>Boolean Logic</t>
   </si>
@@ -475,6 +475,12 @@
   </si>
   <si>
     <t>0.5</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>BUY</t>
   </si>
 </sst>
 </file>
@@ -585,7 +591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -646,28 +652,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1054,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA67386-7B54-425F-86A0-E9D5FF3EDFA0}">
-  <dimension ref="B1:P110"/>
+  <dimension ref="B1:Q110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,28 +1070,29 @@
     <col min="10" max="10" width="16.5703125" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" customWidth="1"/>
     <col min="12" max="12" width="23.85546875" customWidth="1"/>
-    <col min="13" max="13" width="28.140625" customWidth="1"/>
+    <col min="13" max="13" width="28.42578125" customWidth="1"/>
     <col min="14" max="14" width="16.5703125" customWidth="1"/>
     <col min="15" max="15" width="14.85546875" customWidth="1"/>
     <col min="16" max="16" width="17.140625" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="D1" s="22" t="s">
+    <row r="1" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="D1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>85</v>
       </c>
@@ -1135,8 +1136,11 @@
       <c r="P2" s="12" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" t="s">
         <v>91</v>
@@ -1157,7 +1161,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="15" t="s">
         <v>56</v>
@@ -1177,7 +1181,7 @@
       <c r="H4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="20" t="s">
         <v>79</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -1190,11 +1194,14 @@
       <c r="N4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="O4" s="29" t="s">
+      <c r="O4" s="20" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="15" t="s">
         <v>56</v>
@@ -1214,7 +1221,7 @@
       <c r="H5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="20" t="s">
         <v>79</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -1227,11 +1234,14 @@
       <c r="N5" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="O5" s="29" t="s">
+      <c r="O5" s="20" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q5" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="15" t="s">
         <v>56</v>
@@ -1251,7 +1261,7 @@
       <c r="H6" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="20" t="s">
         <v>79</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -1264,11 +1274,14 @@
       <c r="N6" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="O6" s="29" t="s">
+      <c r="O6" s="20" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q6" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="15" t="s">
         <v>56</v>
@@ -1288,7 +1301,7 @@
       <c r="H7" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="20" t="s">
         <v>79</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -1301,11 +1314,14 @@
       <c r="N7" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="O7" s="29" t="s">
+      <c r="O7" s="20" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q7" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="15" t="s">
         <v>56</v>
@@ -1325,7 +1341,7 @@
       <c r="H8" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="20" t="s">
         <v>79</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -1338,11 +1354,14 @@
       <c r="N8" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="O8" s="29" t="s">
+      <c r="O8" s="20" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q8" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -1364,7 +1383,7 @@
       <c r="H9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="20" t="s">
         <v>79</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -1377,11 +1396,14 @@
       <c r="N9" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="O9" s="29" t="s">
+      <c r="O9" s="20" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q9" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>2</v>
       </c>
@@ -1403,7 +1425,7 @@
       <c r="H10" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="20" t="s">
         <v>79</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -1416,11 +1438,14 @@
       <c r="N10" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="O10" s="29" t="s">
+      <c r="O10" s="20" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q10" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1433,8 +1458,9 @@
       <c r="L11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1447,24 +1473,26 @@
       <c r="L12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="2:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="11" t="s">
         <v>60</v>
@@ -1503,8 +1531,9 @@
       <c r="P14" s="12" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="9" t="s">
         <v>50</v>
@@ -1533,8 +1562,9 @@
       <c r="M15" s="6"/>
       <c r="N15" s="7"/>
       <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="9" t="s">
         <v>50</v>
@@ -1563,8 +1593,9 @@
       <c r="M16" s="6"/>
       <c r="N16" s="7"/>
       <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="9" t="s">
         <v>50</v>
@@ -1593,8 +1624,9 @@
       <c r="M17" s="6"/>
       <c r="N17" s="7"/>
       <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="16" t="s">
         <v>56</v>
@@ -1630,8 +1662,11 @@
       <c r="O18" s="18" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q18" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="16" t="s">
         <v>56</v>
@@ -1666,8 +1701,9 @@
         <v>81</v>
       </c>
       <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q19" s="27"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>1</v>
       </c>
@@ -1689,17 +1725,20 @@
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="25" t="s">
+      <c r="K20" s="23" t="s">
         <v>122</v>
       </c>
       <c r="L20" s="1"/>
       <c r="N20" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="O20" s="24"/>
+      <c r="O20" s="22"/>
       <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q20" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="9" t="s">
         <v>50</v>
@@ -1731,8 +1770,9 @@
       </c>
       <c r="O21" s="6"/>
       <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="9" t="s">
         <v>50</v>
@@ -1761,8 +1801,9 @@
       <c r="M22" s="6"/>
       <c r="N22" s="7"/>
       <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="9" t="s">
         <v>50</v>
@@ -1791,8 +1832,9 @@
       <c r="M23" s="6"/>
       <c r="N23" s="7"/>
       <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="16" t="s">
         <v>95</v>
@@ -1827,8 +1869,11 @@
         <v>81</v>
       </c>
       <c r="P24" s="17"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q24" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="9" t="s">
         <v>50</v>
@@ -1855,8 +1900,9 @@
       <c r="M25" s="6"/>
       <c r="N25" s="7"/>
       <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="9" t="s">
         <v>50</v>
@@ -1883,8 +1929,9 @@
       <c r="M26" s="6"/>
       <c r="N26" s="7"/>
       <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="9" t="s">
         <v>50</v>
@@ -1911,8 +1958,9 @@
       </c>
       <c r="N27" s="7"/>
       <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="9" t="s">
         <v>50</v>
@@ -1939,8 +1987,9 @@
       <c r="M28" s="6"/>
       <c r="N28" s="7"/>
       <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>9</v>
       </c>
@@ -1957,7 +2006,7 @@
         <v>64</v>
       </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="29" t="s">
+      <c r="H29" s="20" t="s">
         <v>7</v>
       </c>
       <c r="I29" s="5"/>
@@ -1965,11 +2014,14 @@
         <v>24</v>
       </c>
       <c r="L29" s="1"/>
-      <c r="N29" s="29" t="s">
+      <c r="N29" s="20" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q29" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1980,8 +2032,9 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1990,8 +2043,9 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2002,8 +2056,9 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2014,8 +2069,9 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2026,22 +2082,24 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-    </row>
-    <row r="35" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="11" t="s">
         <v>60</v>
@@ -2073,8 +2131,9 @@
       <c r="N36" s="11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="9" t="s">
         <v>50</v>
@@ -2101,10 +2160,11 @@
       <c r="N37" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -2131,8 +2191,11 @@
       <c r="N38" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="Q38" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>3</v>
       </c>
@@ -2163,13 +2226,18 @@
       <c r="M39" t="s">
         <v>106</v>
       </c>
-      <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N39" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>3</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="19" t="s">
         <v>56</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -2182,7 +2250,7 @@
         <v>124</v>
       </c>
       <c r="G40" s="1"/>
-      <c r="H40" s="26" t="s">
+      <c r="H40" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I40" s="1"/>
@@ -2191,11 +2259,14 @@
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="N40" s="26" t="s">
+      <c r="N40" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="Q40" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2207,21 +2278,21 @@
       <c r="L41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="D42" s="22" t="s">
+    <row r="42" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="D42" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D43" s="2" t="s">
         <v>1</v>
       </c>
@@ -2245,7 +2316,7 @@
       </c>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D44" s="1" t="s">
         <v>42</v>
       </c>
@@ -2267,7 +2338,7 @@
       <c r="L44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2279,7 +2350,7 @@
       <c r="L45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2290,7 +2361,7 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2301,7 +2372,7 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -3061,9 +3132,24 @@
     <hyperlink ref="O4" r:id="rId56" xr:uid="{677AD2D2-0C13-4EA4-A5A9-72E0106594DE}"/>
     <hyperlink ref="N40" r:id="rId57" xr:uid="{40A478FC-8924-4710-A43E-370133585A08}"/>
     <hyperlink ref="H40" r:id="rId58" xr:uid="{891765AC-B469-40EC-813C-5919893FF5BB}"/>
+    <hyperlink ref="Q4" r:id="rId59" xr:uid="{CC3D9E5D-3A0A-43E9-A6FB-ECEAF3E87FBE}"/>
+    <hyperlink ref="Q5" r:id="rId60" xr:uid="{3BD4A876-5CA1-4921-BBE4-BB723B41D805}"/>
+    <hyperlink ref="Q6" r:id="rId61" xr:uid="{946CB908-8C19-435D-94BA-2ABC09894E34}"/>
+    <hyperlink ref="Q7" r:id="rId62" xr:uid="{6BD60232-A131-4859-9905-671D9DA80F78}"/>
+    <hyperlink ref="Q8" r:id="rId63" xr:uid="{2F170893-D4B2-43E4-AA17-B3BDB073BDFE}"/>
+    <hyperlink ref="Q9" r:id="rId64" xr:uid="{0C53A4D7-BD24-4D99-BD35-01B96FE5E6CD}"/>
+    <hyperlink ref="Q10" r:id="rId65" xr:uid="{6DDE68D0-0F25-4356-AE65-5E1262D5C2FD}"/>
+    <hyperlink ref="Q18" r:id="rId66" xr:uid="{10BC4986-0F69-4E48-AE3E-DB047B8561F9}"/>
+    <hyperlink ref="Q24" r:id="rId67" xr:uid="{84B06EEE-62E7-4DD2-B215-B850EFEEBDD5}"/>
+    <hyperlink ref="Q29" r:id="rId68" xr:uid="{DEE65F20-FA5B-4878-889D-BBA69B573B7C}"/>
+    <hyperlink ref="Q20" r:id="rId69" xr:uid="{B024DD3B-1306-4A33-BAB6-DA8CBCF66C81}"/>
+    <hyperlink ref="Q38" r:id="rId70" xr:uid="{BA23315B-529E-4707-9A39-6B3442B6ADFE}"/>
+    <hyperlink ref="Q39" r:id="rId71" xr:uid="{29B13572-2064-4DD1-8E7B-9421C4956652}"/>
+    <hyperlink ref="Q40" r:id="rId72" xr:uid="{35BAA14B-2F9F-4592-AF16-C940162A69F9}"/>
+    <hyperlink ref="N39" r:id="rId73" xr:uid="{63A1230A-6BC9-4382-A381-7EB5E3C505F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId59"/>
-  <drawing r:id="rId60"/>
+  <pageSetup orientation="portrait" r:id="rId74"/>
+  <drawing r:id="rId75"/>
 </worksheet>
 </file>
--- a/8Bit Computer ver2.0/excel/chips availability.xlsx
+++ b/8Bit Computer ver2.0/excel/chips availability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Desktop\Computer_HTL\8Bit Computer ver2.0\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADFDA62-6198-436B-A835-0988707363CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B49158C-4267-4389-B62F-982A10D4AB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="315" windowWidth="25440" windowHeight="15270" xr2:uid="{E9CC7EE1-7E8B-4FEA-8BE1-446B4A860683}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9CC7EE1-7E8B-4FEA-8BE1-446B4A860683}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="142">
   <si>
     <t>Boolean Logic</t>
   </si>
@@ -481,6 +481,45 @@
   </si>
   <si>
     <t>BUY</t>
+  </si>
+  <si>
+    <t>Dlatch</t>
+  </si>
+  <si>
+    <t>SN74HCS74</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>mby</t>
+  </si>
+  <si>
+    <t>SN74HCS574</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>TriState</t>
+  </si>
+  <si>
+    <t>SN74ABT16374A</t>
+  </si>
+  <si>
+    <t>16Bit</t>
+  </si>
+  <si>
+    <t>1.6EUR</t>
+  </si>
+  <si>
+    <t>use need Invert for clk</t>
+  </si>
+  <si>
+    <t>Looking for replacement</t>
+  </si>
+  <si>
+    <t>2x</t>
   </si>
 </sst>
 </file>
@@ -543,7 +582,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,6 +604,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,16 +703,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -694,13 +739,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>588741</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1054,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA67386-7B54-425F-86A0-E9D5FF3EDFA0}">
-  <dimension ref="B1:Q110"/>
+  <dimension ref="B1:Q114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,22 +1118,22 @@
     <col min="13" max="13" width="28.42578125" customWidth="1"/>
     <col min="14" max="14" width="16.5703125" customWidth="1"/>
     <col min="15" max="15" width="14.85546875" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" customWidth="1"/>
     <col min="17" max="17" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
@@ -1136,7 +1181,7 @@
       <c r="P2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="12" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1477,17 +1522,17 @@
     </row>
     <row r="13" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="Q13" s="1"/>
@@ -1669,7 +1714,7 @@
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="16" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>52</v>
@@ -1701,7 +1746,7 @@
         <v>81</v>
       </c>
       <c r="P19" s="1"/>
-      <c r="Q19" s="27"/>
+      <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
@@ -1988,51 +2033,6 @@
       <c r="N28" s="7"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="1">
-        <v>9</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" s="5"/>
-      <c r="K29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" s="1"/>
-      <c r="N29" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q29" s="20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
@@ -2086,17 +2086,17 @@
     </row>
     <row r="35" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
@@ -2237,8 +2237,8 @@
       <c r="B40">
         <v>3</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>56</v>
+      <c r="C40" s="24" t="s">
+        <v>50</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>125</v>
@@ -2267,123 +2267,213 @@
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="J41" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="D42" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="N42" s="1"/>
+      <c r="N41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C42" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="N42" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D43" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="B43" s="1">
         <v>9</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2" t="s">
+      <c r="C43" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H43" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N43" s="1"/>
+      <c r="I43" s="5"/>
+      <c r="K43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="1"/>
+      <c r="N43" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q43" s="17" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="C44" s="19" t="s">
+        <v>139</v>
+      </c>
       <c r="D44" s="1" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="N44" s="1"/>
+      <c r="N44" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+      <c r="C45" s="13"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="3"/>
+      <c r="H45" s="5"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="1"/>
+      <c r="J45" s="25"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
+      <c r="N45" s="5"/>
+      <c r="Q45" s="5"/>
+    </row>
+    <row r="46" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="D46" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="N46" s="1"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
+      <c r="D47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N47" s="1"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
+      <c r="H48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="L48" s="1"/>
-    </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2393,8 +2483,9 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-    </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -2405,7 +2496,7 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -2416,7 +2507,7 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2427,7 +2518,7 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -2438,7 +2529,7 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -2449,7 +2540,7 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -2460,7 +2551,7 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2471,7 +2562,7 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -2482,7 +2573,7 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -2493,7 +2584,7 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2504,7 +2595,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2515,7 +2606,7 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2526,7 +2617,7 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
     </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2537,7 +2628,7 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2548,7 +2639,7 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2817,8 +2908,8 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
@@ -2828,8 +2919,8 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
@@ -2839,8 +2930,8 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
@@ -2850,8 +2941,8 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
@@ -3065,10 +3156,54 @@
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
     </row>
+    <row r="111" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+    </row>
+    <row r="112" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+    </row>
+    <row r="113" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+    </row>
+    <row r="114" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D35:L35"/>
-    <mergeCell ref="D42:L42"/>
+    <mergeCell ref="D46:L46"/>
     <mergeCell ref="D13:L13"/>
     <mergeCell ref="D1:L1"/>
   </mergeCells>
@@ -3076,19 +3211,19 @@
   <hyperlinks>
     <hyperlink ref="H15" r:id="rId1" xr:uid="{4C632AA1-6F55-423B-8697-B86F870D7F1B}"/>
     <hyperlink ref="H16" r:id="rId2" xr:uid="{E6F47877-79D3-493E-A16B-6B7238B0BE31}"/>
-    <hyperlink ref="H44" r:id="rId3" xr:uid="{F47C6505-8196-4511-AE67-D52965EEDE23}"/>
+    <hyperlink ref="H48" r:id="rId3" xr:uid="{F47C6505-8196-4511-AE67-D52965EEDE23}"/>
     <hyperlink ref="H17" r:id="rId4" xr:uid="{E27B66FC-5778-48E1-899B-BB5BB5FBA7E6}"/>
     <hyperlink ref="H22" r:id="rId5" xr:uid="{C64839DE-A1BA-4157-9A52-801A27FF2915}"/>
     <hyperlink ref="H19" r:id="rId6" display="Website" xr:uid="{7F6AF889-A9E9-47C4-A2A7-6DBA4D7C81E1}"/>
     <hyperlink ref="N19" r:id="rId7" display="Datasheet" xr:uid="{CA54F83D-C19B-421F-B1B5-352D51B9919E}"/>
     <hyperlink ref="N21" r:id="rId8" xr:uid="{33C9152C-4A79-4B03-A18F-588825C5B6B3}"/>
-    <hyperlink ref="N29" r:id="rId9" xr:uid="{0065FA4C-6809-4998-8687-BDB26D400A98}"/>
+    <hyperlink ref="N43" r:id="rId9" xr:uid="{0065FA4C-6809-4998-8687-BDB26D400A98}"/>
     <hyperlink ref="N18" r:id="rId10" display="Datasheet" xr:uid="{26BF3B04-3EC6-47E2-B049-A1546D3BC973}"/>
     <hyperlink ref="N24" r:id="rId11" display="Datasheet" xr:uid="{C5903ACA-BDB4-47BF-8B56-FF9FBBB36A72}"/>
     <hyperlink ref="H18" r:id="rId12" display="Website" xr:uid="{F7D68913-EB8F-4945-852A-487A82242546}"/>
     <hyperlink ref="H21" r:id="rId13" xr:uid="{5663C4BC-2E27-45A8-A9FD-082BBCA9E9F6}"/>
     <hyperlink ref="H24" r:id="rId14" display="Website" xr:uid="{792E18D9-027D-4AE8-BA75-FC59B1B2CB73}"/>
-    <hyperlink ref="H29" r:id="rId15" xr:uid="{CF9B7135-5770-4CBA-8BB9-3EFCF0F054CE}"/>
+    <hyperlink ref="H43" r:id="rId15" xr:uid="{CF9B7135-5770-4CBA-8BB9-3EFCF0F054CE}"/>
     <hyperlink ref="H37" r:id="rId16" xr:uid="{D6537DC4-6751-4237-9FA6-53AFEFE2BA73}"/>
     <hyperlink ref="N38" r:id="rId17" xr:uid="{67C9887A-66CC-41B8-9FDB-D1C4BA617492}"/>
     <hyperlink ref="N37" r:id="rId18" xr:uid="{3FD9C373-E805-4CB8-8CC6-18D15CCA42DF}"/>
@@ -3141,15 +3276,24 @@
     <hyperlink ref="Q10" r:id="rId65" xr:uid="{6DDE68D0-0F25-4356-AE65-5E1262D5C2FD}"/>
     <hyperlink ref="Q18" r:id="rId66" xr:uid="{10BC4986-0F69-4E48-AE3E-DB047B8561F9}"/>
     <hyperlink ref="Q24" r:id="rId67" xr:uid="{84B06EEE-62E7-4DD2-B215-B850EFEEBDD5}"/>
-    <hyperlink ref="Q29" r:id="rId68" xr:uid="{DEE65F20-FA5B-4878-889D-BBA69B573B7C}"/>
+    <hyperlink ref="Q43" r:id="rId68" xr:uid="{DEE65F20-FA5B-4878-889D-BBA69B573B7C}"/>
     <hyperlink ref="Q20" r:id="rId69" xr:uid="{B024DD3B-1306-4A33-BAB6-DA8CBCF66C81}"/>
     <hyperlink ref="Q38" r:id="rId70" xr:uid="{BA23315B-529E-4707-9A39-6B3442B6ADFE}"/>
     <hyperlink ref="Q39" r:id="rId71" xr:uid="{29B13572-2064-4DD1-8E7B-9421C4956652}"/>
     <hyperlink ref="Q40" r:id="rId72" xr:uid="{35BAA14B-2F9F-4592-AF16-C940162A69F9}"/>
     <hyperlink ref="N39" r:id="rId73" xr:uid="{63A1230A-6BC9-4382-A381-7EB5E3C505F0}"/>
+    <hyperlink ref="Q42" r:id="rId74" xr:uid="{EBC6B08D-12B4-4976-9AC7-C2395F2D56E6}"/>
+    <hyperlink ref="N42" r:id="rId75" xr:uid="{2C06C958-3C24-46E7-B766-AD20430526C5}"/>
+    <hyperlink ref="H42" r:id="rId76" xr:uid="{DB6CD851-AFD1-4479-B0D4-453D0BFD7FA5}"/>
+    <hyperlink ref="H41" r:id="rId77" xr:uid="{EC464FC1-1A89-4154-9F52-A74B0BFEE481}"/>
+    <hyperlink ref="N41" r:id="rId78" xr:uid="{92B45BB2-CC01-4CB5-9E3E-7D2C4BE24F3E}"/>
+    <hyperlink ref="Q41" r:id="rId79" xr:uid="{60FF01C3-49F8-48A7-8F9E-481F332B29F7}"/>
+    <hyperlink ref="H44" r:id="rId80" xr:uid="{C919B7E8-F2A3-44C6-AAA3-C9AFF9838425}"/>
+    <hyperlink ref="N44" r:id="rId81" xr:uid="{75618C90-808E-40B6-8DA5-E93A774B00F4}"/>
+    <hyperlink ref="Q44" r:id="rId82" xr:uid="{D31F91A2-72C6-4E63-8486-ACC3D5798E3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId74"/>
-  <drawing r:id="rId75"/>
+  <pageSetup orientation="portrait" r:id="rId83"/>
+  <drawing r:id="rId84"/>
 </worksheet>
 </file>
--- a/8Bit Computer ver2.0/excel/chips availability.xlsx
+++ b/8Bit Computer ver2.0/excel/chips availability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Desktop\Computer_HTL\8Bit Computer ver2.0\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B49158C-4267-4389-B62F-982A10D4AB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD9A39C-A880-40AC-AAC3-BC643D6CC951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9CC7EE1-7E8B-4FEA-8BE1-446B4A860683}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="143">
   <si>
     <t>Boolean Logic</t>
   </si>
@@ -492,9 +492,6 @@
     <t>0.2</t>
   </si>
   <si>
-    <t>mby</t>
-  </si>
-  <si>
     <t>SN74HCS574</t>
   </si>
   <si>
@@ -520,6 +517,12 @@
   </si>
   <si>
     <t>2x</t>
+  </si>
+  <si>
+    <t>INCLUDED</t>
+  </si>
+  <si>
+    <t>WAITING FOR FOOTPRINT</t>
   </si>
 </sst>
 </file>
@@ -582,7 +585,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,6 +616,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -636,7 +645,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -709,12 +718,20 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1101,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA67386-7B54-425F-86A0-E9D5FF3EDFA0}">
   <dimension ref="B1:Q114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,22 +1135,22 @@
     <col min="13" max="13" width="28.42578125" customWidth="1"/>
     <col min="14" max="14" width="16.5703125" customWidth="1"/>
     <col min="15" max="15" width="14.85546875" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" customWidth="1"/>
     <col min="17" max="17" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
@@ -1242,6 +1259,9 @@
       <c r="O4" s="20" t="s">
         <v>81</v>
       </c>
+      <c r="P4" s="30" t="s">
+        <v>141</v>
+      </c>
       <c r="Q4" s="20" t="s">
         <v>128</v>
       </c>
@@ -1282,6 +1302,9 @@
       <c r="O5" s="20" t="s">
         <v>81</v>
       </c>
+      <c r="P5" s="30" t="s">
+        <v>141</v>
+      </c>
       <c r="Q5" s="20" t="s">
         <v>128</v>
       </c>
@@ -1322,6 +1345,9 @@
       <c r="O6" s="20" t="s">
         <v>81</v>
       </c>
+      <c r="P6" s="30" t="s">
+        <v>141</v>
+      </c>
       <c r="Q6" s="20" t="s">
         <v>128</v>
       </c>
@@ -1362,6 +1388,9 @@
       <c r="O7" s="20" t="s">
         <v>81</v>
       </c>
+      <c r="P7" s="30" t="s">
+        <v>141</v>
+      </c>
       <c r="Q7" s="20" t="s">
         <v>128</v>
       </c>
@@ -1402,6 +1431,9 @@
       <c r="O8" s="20" t="s">
         <v>81</v>
       </c>
+      <c r="P8" s="30" t="s">
+        <v>141</v>
+      </c>
       <c r="Q8" s="20" t="s">
         <v>128</v>
       </c>
@@ -1444,6 +1476,9 @@
       <c r="O9" s="20" t="s">
         <v>81</v>
       </c>
+      <c r="P9" s="30" t="s">
+        <v>141</v>
+      </c>
       <c r="Q9" s="20" t="s">
         <v>128</v>
       </c>
@@ -1485,6 +1520,9 @@
       </c>
       <c r="O10" s="20" t="s">
         <v>81</v>
+      </c>
+      <c r="P10" s="30" t="s">
+        <v>141</v>
       </c>
       <c r="Q10" s="20" t="s">
         <v>128</v>
@@ -1522,17 +1560,17 @@
     </row>
     <row r="13" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="Q13" s="1"/>
@@ -1707,14 +1745,17 @@
       <c r="O18" s="18" t="s">
         <v>81</v>
       </c>
+      <c r="P18" s="29" t="s">
+        <v>141</v>
+      </c>
       <c r="Q18" s="20" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="C19" s="16" t="s">
-        <v>140</v>
+      <c r="C19" s="26" t="s">
+        <v>139</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>52</v>
@@ -1745,7 +1786,9 @@
       <c r="O19" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="P19" s="1"/>
+      <c r="P19" s="29" t="s">
+        <v>141</v>
+      </c>
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -1778,7 +1821,9 @@
         <v>51</v>
       </c>
       <c r="O20" s="22"/>
-      <c r="P20" s="1"/>
+      <c r="P20" s="29" t="s">
+        <v>141</v>
+      </c>
       <c r="Q20" s="20" t="s">
         <v>128</v>
       </c>
@@ -1913,7 +1958,9 @@
       <c r="O24" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="P24" s="17"/>
+      <c r="P24" s="29" t="s">
+        <v>141</v>
+      </c>
       <c r="Q24" s="20" t="s">
         <v>128</v>
       </c>
@@ -2086,17 +2133,17 @@
     </row>
     <row r="35" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
@@ -2164,7 +2211,7 @@
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="19" t="s">
         <v>56</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -2191,6 +2238,9 @@
       <c r="N38" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="P38" s="29" t="s">
+        <v>141</v>
+      </c>
       <c r="Q38" s="5" t="s">
         <v>128</v>
       </c>
@@ -2228,6 +2278,9 @@
       </c>
       <c r="N39" s="5" t="s">
         <v>51</v>
+      </c>
+      <c r="P39" s="29" t="s">
+        <v>141</v>
       </c>
       <c r="Q39" s="5" t="s">
         <v>128</v>
@@ -2267,14 +2320,14 @@
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B41">
+      <c r="B41" s="1">
         <v>3</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>123</v>
@@ -2283,20 +2336,23 @@
         <v>124</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="N41" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="P41" s="31" t="s">
+        <v>142</v>
+      </c>
       <c r="Q41" s="5" t="s">
         <v>128</v>
       </c>
@@ -2312,7 +2368,7 @@
         <v>129</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="5" t="s">
@@ -2327,6 +2383,9 @@
       <c r="N42" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="P42" s="29" t="s">
+        <v>141</v>
+      </c>
       <c r="Q42" s="5" t="s">
         <v>128</v>
       </c>
@@ -2348,7 +2407,7 @@
         <v>64</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H43" s="17" t="s">
         <v>7</v>
@@ -2361,6 +2420,9 @@
       <c r="N43" s="17" t="s">
         <v>51</v>
       </c>
+      <c r="P43" s="29" t="s">
+        <v>141</v>
+      </c>
       <c r="Q43" s="17" t="s">
         <v>128</v>
       </c>
@@ -2368,31 +2430,34 @@
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="N44" s="5" t="s">
         <v>51</v>
+      </c>
+      <c r="P44" s="29" t="s">
+        <v>141</v>
       </c>
       <c r="Q44" s="5" t="s">
         <v>128</v>
@@ -2414,17 +2479,17 @@
       <c r="Q45" s="5"/>
     </row>
     <row r="46" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
       <c r="N46" s="1"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">

--- a/8Bit Computer ver2.0/excel/chips availability.xlsx
+++ b/8Bit Computer ver2.0/excel/chips availability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Desktop\Computer_HTL\8Bit Computer ver2.0\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD9A39C-A880-40AC-AAC3-BC643D6CC951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88482627-C86E-4720-B47B-B31B15514962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9CC7EE1-7E8B-4FEA-8BE1-446B4A860683}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="142">
   <si>
     <t>Boolean Logic</t>
   </si>
@@ -520,9 +520,6 @@
   </si>
   <si>
     <t>INCLUDED</t>
-  </si>
-  <si>
-    <t>WAITING FOR FOOTPRINT</t>
   </si>
 </sst>
 </file>
@@ -645,7 +642,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -721,17 +718,16 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1118,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA67386-7B54-425F-86A0-E9D5FF3EDFA0}">
   <dimension ref="B1:Q114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P47" sqref="P47"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,17 +1136,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
@@ -1259,7 +1255,7 @@
       <c r="O4" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="P4" s="28" t="s">
         <v>141</v>
       </c>
       <c r="Q4" s="20" t="s">
@@ -1302,7 +1298,7 @@
       <c r="O5" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="P5" s="30" t="s">
+      <c r="P5" s="28" t="s">
         <v>141</v>
       </c>
       <c r="Q5" s="20" t="s">
@@ -1345,7 +1341,7 @@
       <c r="O6" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="P6" s="30" t="s">
+      <c r="P6" s="28" t="s">
         <v>141</v>
       </c>
       <c r="Q6" s="20" t="s">
@@ -1388,7 +1384,7 @@
       <c r="O7" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="P7" s="30" t="s">
+      <c r="P7" s="28" t="s">
         <v>141</v>
       </c>
       <c r="Q7" s="20" t="s">
@@ -1431,7 +1427,7 @@
       <c r="O8" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="P8" s="30" t="s">
+      <c r="P8" s="28" t="s">
         <v>141</v>
       </c>
       <c r="Q8" s="20" t="s">
@@ -1476,7 +1472,7 @@
       <c r="O9" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="P9" s="30" t="s">
+      <c r="P9" s="28" t="s">
         <v>141</v>
       </c>
       <c r="Q9" s="20" t="s">
@@ -1521,7 +1517,7 @@
       <c r="O10" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="P10" s="30" t="s">
+      <c r="P10" s="28" t="s">
         <v>141</v>
       </c>
       <c r="Q10" s="20" t="s">
@@ -1560,17 +1556,17 @@
     </row>
     <row r="13" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="Q13" s="1"/>
@@ -1745,7 +1741,7 @@
       <c r="O18" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="P18" s="29" t="s">
+      <c r="P18" s="27" t="s">
         <v>141</v>
       </c>
       <c r="Q18" s="20" t="s">
@@ -1786,7 +1782,7 @@
       <c r="O19" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="P19" s="29" t="s">
+      <c r="P19" s="27" t="s">
         <v>141</v>
       </c>
       <c r="Q19" s="1"/>
@@ -1821,7 +1817,7 @@
         <v>51</v>
       </c>
       <c r="O20" s="22"/>
-      <c r="P20" s="29" t="s">
+      <c r="P20" s="27" t="s">
         <v>141</v>
       </c>
       <c r="Q20" s="20" t="s">
@@ -1958,7 +1954,7 @@
       <c r="O24" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="P24" s="29" t="s">
+      <c r="P24" s="27" t="s">
         <v>141</v>
       </c>
       <c r="Q24" s="20" t="s">
@@ -2133,17 +2129,17 @@
     </row>
     <row r="35" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
@@ -2238,7 +2234,7 @@
       <c r="N38" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P38" s="29" t="s">
+      <c r="P38" s="27" t="s">
         <v>141</v>
       </c>
       <c r="Q38" s="5" t="s">
@@ -2279,7 +2275,7 @@
       <c r="N39" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P39" s="29" t="s">
+      <c r="P39" s="27" t="s">
         <v>141</v>
       </c>
       <c r="Q39" s="5" t="s">
@@ -2350,8 +2346,8 @@
       <c r="N41" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P41" s="31" t="s">
-        <v>142</v>
+      <c r="P41" s="27" t="s">
+        <v>141</v>
       </c>
       <c r="Q41" s="5" t="s">
         <v>128</v>
@@ -2383,7 +2379,7 @@
       <c r="N42" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P42" s="29" t="s">
+      <c r="P42" s="27" t="s">
         <v>141</v>
       </c>
       <c r="Q42" s="5" t="s">
@@ -2420,7 +2416,7 @@
       <c r="N43" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="P43" s="29" t="s">
+      <c r="P43" s="27" t="s">
         <v>141</v>
       </c>
       <c r="Q43" s="17" t="s">
@@ -2456,7 +2452,7 @@
       <c r="N44" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P44" s="29" t="s">
+      <c r="P44" s="27" t="s">
         <v>141</v>
       </c>
       <c r="Q44" s="5" t="s">
@@ -2479,17 +2475,17 @@
       <c r="Q45" s="5"/>
     </row>
     <row r="46" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="D46" s="27" t="s">
+      <c r="D46" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
       <c r="N46" s="1"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">

--- a/8Bit Computer ver2.0/excel/chips availability.xlsx
+++ b/8Bit Computer ver2.0/excel/chips availability.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Desktop\Computer_HTL\8Bit Computer ver2.0\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88482627-C86E-4720-B47B-B31B15514962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249FBEAE-B905-421A-9E8F-AE79C89AD389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9CC7EE1-7E8B-4FEA-8BE1-446B4A860683}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="145">
   <si>
     <t>Boolean Logic</t>
   </si>
@@ -520,6 +520,15 @@
   </si>
   <si>
     <t>INCLUDED</t>
+  </si>
+  <si>
+    <t>CD74x194</t>
+  </si>
+  <si>
+    <t>NOT Included</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use need 2 for 8Bit </t>
   </si>
 </sst>
 </file>
@@ -582,7 +591,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -616,6 +625,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,9 +715,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -728,6 +740,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -752,13 +765,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>588741</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1112,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA67386-7B54-425F-86A0-E9D5FF3EDFA0}">
-  <dimension ref="B1:Q114"/>
+  <dimension ref="B1:Q115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,17 +1149,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
@@ -1255,7 +1268,7 @@
       <c r="O4" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="P4" s="28" t="s">
+      <c r="P4" s="27" t="s">
         <v>141</v>
       </c>
       <c r="Q4" s="20" t="s">
@@ -1298,7 +1311,7 @@
       <c r="O5" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="P5" s="28" t="s">
+      <c r="P5" s="27" t="s">
         <v>141</v>
       </c>
       <c r="Q5" s="20" t="s">
@@ -1341,7 +1354,7 @@
       <c r="O6" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="P6" s="28" t="s">
+      <c r="P6" s="27" t="s">
         <v>141</v>
       </c>
       <c r="Q6" s="20" t="s">
@@ -1384,7 +1397,7 @@
       <c r="O7" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="P7" s="28" t="s">
+      <c r="P7" s="27" t="s">
         <v>141</v>
       </c>
       <c r="Q7" s="20" t="s">
@@ -1427,7 +1440,7 @@
       <c r="O8" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="P8" s="28" t="s">
+      <c r="P8" s="27" t="s">
         <v>141</v>
       </c>
       <c r="Q8" s="20" t="s">
@@ -1472,7 +1485,7 @@
       <c r="O9" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="P9" s="28" t="s">
+      <c r="P9" s="27" t="s">
         <v>141</v>
       </c>
       <c r="Q9" s="20" t="s">
@@ -1517,7 +1530,7 @@
       <c r="O10" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="P10" s="28" t="s">
+      <c r="P10" s="27" t="s">
         <v>141</v>
       </c>
       <c r="Q10" s="20" t="s">
@@ -1556,17 +1569,17 @@
     </row>
     <row r="13" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="Q13" s="1"/>
@@ -1741,7 +1754,7 @@
       <c r="O18" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="P18" s="27" t="s">
+      <c r="P18" s="26" t="s">
         <v>141</v>
       </c>
       <c r="Q18" s="20" t="s">
@@ -1750,7 +1763,7 @@
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>139</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1766,7 +1779,7 @@
       <c r="H19" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="17" t="s">
         <v>79</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -1782,81 +1795,86 @@
       <c r="O19" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="P19" s="27" t="s">
+      <c r="P19" s="26" t="s">
         <v>141</v>
       </c>
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="20" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="I20" s="17"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="23" t="s">
-        <v>122</v>
+      <c r="J20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="L20" s="1"/>
       <c r="N20" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="O20" s="22"/>
-      <c r="P20" s="27" t="s">
-        <v>141</v>
+        <v>80</v>
+      </c>
+      <c r="O20" s="21"/>
+      <c r="P20" s="30" t="s">
+        <v>143</v>
       </c>
       <c r="Q20" s="20" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="10" t="s">
+      <c r="G21" s="1"/>
+      <c r="H21" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="N21" s="10" t="s">
+      <c r="I21" s="17"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="N21" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="O21" s="6"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q21" s="20" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
@@ -1864,28 +1882,31 @@
         <v>50</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I22" s="10"/>
-      <c r="J22" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="J22" s="7"/>
       <c r="K22" s="7" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="L22" s="7"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="7"/>
+      <c r="M22" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O22" s="6"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
@@ -1895,24 +1916,24 @@
         <v>50</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G23" s="7"/>
-      <c r="H23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="7"/>
+      <c r="H23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="10"/>
       <c r="J23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="6"/>
@@ -1922,73 +1943,75 @@
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-      <c r="C24" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="C24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L24" s="1"/>
-      <c r="N24" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="O24" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="P24" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q24" s="20" t="s">
-        <v>128</v>
-      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="7"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
-      <c r="C25" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="7"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
+      <c r="C25" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="N25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O25" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="P25" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q25" s="20" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
@@ -1996,7 +2019,7 @@
         <v>50</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>28</v>
@@ -2004,14 +2027,14 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="6"/>
@@ -2025,25 +2048,25 @@
         <v>50</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>62</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="H27" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="I27" s="7"/>
-      <c r="J27" s="6"/>
+      <c r="J27" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="K27" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="L27" s="7"/>
-      <c r="M27" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="M27" s="6"/>
       <c r="N27" s="7"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -2054,10 +2077,10 @@
         <v>50</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>62</v>
@@ -2065,28 +2088,46 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="J28" s="6"/>
       <c r="K28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M28" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="L28" s="7"/>
+      <c r="M28" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="N28" s="7"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="Q31" s="1"/>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M29" s="6"/>
+      <c r="N29" s="7"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
@@ -2094,8 +2135,6 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2127,155 +2166,127 @@
       <c r="L34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="B36" s="1"/>
+      <c r="D36" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="Q35" s="1"/>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="C36" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="M36" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="N36" s="11" t="s">
-        <v>51</v>
-      </c>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
       <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
-      <c r="C37" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="5" t="s">
+      <c r="C37" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I37" s="5"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N37" s="5" t="s">
+      <c r="I37" s="11"/>
+      <c r="J37" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N37" s="11" t="s">
         <v>51</v>
       </c>
       <c r="Q37" s="1"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
-      <c r="C38" s="19" t="s">
-        <v>56</v>
+      <c r="C38" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I38" s="5"/>
-      <c r="J38" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="N38" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P38" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q38" s="5" t="s">
-        <v>128</v>
-      </c>
+      <c r="Q38" s="1"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B39" s="1">
-        <v>3</v>
-      </c>
+      <c r="B39" s="1"/>
       <c r="C39" s="19" t="s">
         <v>56</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="1"/>
+      <c r="I39" s="5"/>
       <c r="J39" s="1" t="s">
         <v>107</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M39" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N39" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P39" s="27" t="s">
+      <c r="P39" s="26" t="s">
         <v>141</v>
       </c>
       <c r="Q39" s="5" t="s">
@@ -2283,20 +2294,20 @@
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B40">
+      <c r="B40" s="1">
         <v>3</v>
       </c>
-      <c r="C40" s="24" t="s">
-        <v>50</v>
+      <c r="C40" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="5" t="s">
@@ -2304,26 +2315,34 @@
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
+      <c r="L40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M40" t="s">
+        <v>106</v>
+      </c>
       <c r="N40" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="P40" s="26" t="s">
+        <v>141</v>
+      </c>
       <c r="Q40" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B41" s="1">
+      <c r="B41">
         <v>3</v>
       </c>
-      <c r="C41" s="19" t="s">
-        <v>56</v>
+      <c r="C41" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>123</v>
@@ -2331,55 +2350,55 @@
       <c r="F41" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="G41" s="1"/>
       <c r="H41" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="N41" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P41" s="27" t="s">
-        <v>141</v>
-      </c>
       <c r="Q41" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>3</v>
+      </c>
       <c r="C42" s="19" t="s">
         <v>56</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G42" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="H42" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="N42" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P42" s="27" t="s">
+      <c r="P42" s="26" t="s">
         <v>141</v>
       </c>
       <c r="Q42" s="5" t="s">
@@ -2387,162 +2406,183 @@
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B43" s="1">
+      <c r="C43" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="N43" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P43" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
         <v>9</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C44" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H43" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="5"/>
-      <c r="K43" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L43" s="1"/>
-      <c r="N43" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="P43" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q43" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
-      <c r="C44" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H44" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="K44" s="1"/>
+      <c r="I44" s="5"/>
+      <c r="K44" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="L44" s="1"/>
-      <c r="N44" s="5" t="s">
+      <c r="N44" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="P44" s="27" t="s">
+      <c r="P44" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="Q44" s="5" t="s">
+      <c r="Q44" s="17" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="5"/>
+      <c r="C45" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="I45" s="3"/>
-      <c r="J45" s="25"/>
+      <c r="J45" s="24" t="s">
+        <v>137</v>
+      </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="N45" s="5"/>
-      <c r="Q45" s="5"/>
-    </row>
-    <row r="46" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="D46" s="29" t="s">
+      <c r="N45" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P45" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="N46" s="5"/>
+      <c r="Q46" s="5"/>
+    </row>
+    <row r="47" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="D47" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D48" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2" t="s">
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2" t="s">
+      <c r="I48" s="2"/>
+      <c r="J48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="K48" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="L48" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D48" s="1" t="s">
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48" s="4"/>
-      <c r="J48" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L48" s="1"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
+      <c r="H49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="L49" s="1"/>
       <c r="N49" s="1"/>
     </row>
@@ -2556,6 +2596,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
+      <c r="N50" s="1"/>
     </row>
     <row r="51" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
@@ -3013,8 +3054,8 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
@@ -3261,10 +3302,21 @@
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
     </row>
+    <row r="115" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D35:L35"/>
-    <mergeCell ref="D46:L46"/>
+    <mergeCell ref="D36:L36"/>
+    <mergeCell ref="D47:L47"/>
     <mergeCell ref="D13:L13"/>
     <mergeCell ref="D1:L1"/>
   </mergeCells>
@@ -3272,23 +3324,23 @@
   <hyperlinks>
     <hyperlink ref="H15" r:id="rId1" xr:uid="{4C632AA1-6F55-423B-8697-B86F870D7F1B}"/>
     <hyperlink ref="H16" r:id="rId2" xr:uid="{E6F47877-79D3-493E-A16B-6B7238B0BE31}"/>
-    <hyperlink ref="H48" r:id="rId3" xr:uid="{F47C6505-8196-4511-AE67-D52965EEDE23}"/>
+    <hyperlink ref="H49" r:id="rId3" xr:uid="{F47C6505-8196-4511-AE67-D52965EEDE23}"/>
     <hyperlink ref="H17" r:id="rId4" xr:uid="{E27B66FC-5778-48E1-899B-BB5BB5FBA7E6}"/>
-    <hyperlink ref="H22" r:id="rId5" xr:uid="{C64839DE-A1BA-4157-9A52-801A27FF2915}"/>
+    <hyperlink ref="H23" r:id="rId5" xr:uid="{C64839DE-A1BA-4157-9A52-801A27FF2915}"/>
     <hyperlink ref="H19" r:id="rId6" display="Website" xr:uid="{7F6AF889-A9E9-47C4-A2A7-6DBA4D7C81E1}"/>
     <hyperlink ref="N19" r:id="rId7" display="Datasheet" xr:uid="{CA54F83D-C19B-421F-B1B5-352D51B9919E}"/>
-    <hyperlink ref="N21" r:id="rId8" xr:uid="{33C9152C-4A79-4B03-A18F-588825C5B6B3}"/>
-    <hyperlink ref="N43" r:id="rId9" xr:uid="{0065FA4C-6809-4998-8687-BDB26D400A98}"/>
+    <hyperlink ref="N22" r:id="rId8" xr:uid="{33C9152C-4A79-4B03-A18F-588825C5B6B3}"/>
+    <hyperlink ref="N44" r:id="rId9" xr:uid="{0065FA4C-6809-4998-8687-BDB26D400A98}"/>
     <hyperlink ref="N18" r:id="rId10" display="Datasheet" xr:uid="{26BF3B04-3EC6-47E2-B049-A1546D3BC973}"/>
-    <hyperlink ref="N24" r:id="rId11" display="Datasheet" xr:uid="{C5903ACA-BDB4-47BF-8B56-FF9FBBB36A72}"/>
+    <hyperlink ref="N25" r:id="rId11" display="Datasheet" xr:uid="{C5903ACA-BDB4-47BF-8B56-FF9FBBB36A72}"/>
     <hyperlink ref="H18" r:id="rId12" display="Website" xr:uid="{F7D68913-EB8F-4945-852A-487A82242546}"/>
-    <hyperlink ref="H21" r:id="rId13" xr:uid="{5663C4BC-2E27-45A8-A9FD-082BBCA9E9F6}"/>
-    <hyperlink ref="H24" r:id="rId14" display="Website" xr:uid="{792E18D9-027D-4AE8-BA75-FC59B1B2CB73}"/>
-    <hyperlink ref="H43" r:id="rId15" xr:uid="{CF9B7135-5770-4CBA-8BB9-3EFCF0F054CE}"/>
-    <hyperlink ref="H37" r:id="rId16" xr:uid="{D6537DC4-6751-4237-9FA6-53AFEFE2BA73}"/>
-    <hyperlink ref="N38" r:id="rId17" xr:uid="{67C9887A-66CC-41B8-9FDB-D1C4BA617492}"/>
-    <hyperlink ref="N37" r:id="rId18" xr:uid="{3FD9C373-E805-4CB8-8CC6-18D15CCA42DF}"/>
-    <hyperlink ref="H38" r:id="rId19" xr:uid="{4EDF24C3-B147-4992-8CEF-2C81201015B8}"/>
+    <hyperlink ref="H22" r:id="rId13" xr:uid="{5663C4BC-2E27-45A8-A9FD-082BBCA9E9F6}"/>
+    <hyperlink ref="H25" r:id="rId14" display="Website" xr:uid="{792E18D9-027D-4AE8-BA75-FC59B1B2CB73}"/>
+    <hyperlink ref="H44" r:id="rId15" xr:uid="{CF9B7135-5770-4CBA-8BB9-3EFCF0F054CE}"/>
+    <hyperlink ref="H38" r:id="rId16" xr:uid="{D6537DC4-6751-4237-9FA6-53AFEFE2BA73}"/>
+    <hyperlink ref="N39" r:id="rId17" xr:uid="{67C9887A-66CC-41B8-9FDB-D1C4BA617492}"/>
+    <hyperlink ref="N38" r:id="rId18" xr:uid="{3FD9C373-E805-4CB8-8CC6-18D15CCA42DF}"/>
+    <hyperlink ref="H39" r:id="rId19" xr:uid="{4EDF24C3-B147-4992-8CEF-2C81201015B8}"/>
     <hyperlink ref="H5" r:id="rId20" xr:uid="{F8A9DA4F-1E4B-4027-89AA-8A8337135A11}"/>
     <hyperlink ref="N5" r:id="rId21" xr:uid="{F5058B02-CCF1-462C-AF78-CFAD9C4A5367}"/>
     <hyperlink ref="H4" r:id="rId22" xr:uid="{AD2CB2AC-934B-40A8-87F0-2DD3411B0BA0}"/>
@@ -3305,13 +3357,13 @@
     <hyperlink ref="N6" r:id="rId33" xr:uid="{5DE163B5-CB79-4653-B429-7D96467A8E43}"/>
     <hyperlink ref="I18" r:id="rId34" xr:uid="{EE53776F-D0D2-4515-B316-8D0A9661C7D5}"/>
     <hyperlink ref="O18" r:id="rId35" xr:uid="{2938CD97-3CFB-4828-B234-DDD6FA51651E}"/>
-    <hyperlink ref="I24" r:id="rId36" xr:uid="{C041C052-5B7F-4797-90DB-07A5A9BD8086}"/>
-    <hyperlink ref="O24" r:id="rId37" xr:uid="{B784EE51-DF03-4479-ABFD-FAE317652025}"/>
+    <hyperlink ref="I25" r:id="rId36" xr:uid="{C041C052-5B7F-4797-90DB-07A5A9BD8086}"/>
+    <hyperlink ref="O25" r:id="rId37" xr:uid="{B784EE51-DF03-4479-ABFD-FAE317652025}"/>
     <hyperlink ref="O19" r:id="rId38" xr:uid="{A63E6F16-81FE-46B5-A1B1-B4BC1F6573F2}"/>
     <hyperlink ref="I19" r:id="rId39" xr:uid="{220C83A2-FFD8-4402-83E7-F8389CE5032E}"/>
-    <hyperlink ref="H39" r:id="rId40" xr:uid="{C62D8D79-F101-4180-ACFF-0702F492811A}"/>
-    <hyperlink ref="H20" r:id="rId41" display="Website2" xr:uid="{FC620188-EA0A-4DFC-9048-3D95A2D2DBFE}"/>
-    <hyperlink ref="N20" r:id="rId42" xr:uid="{F0F2535F-42C5-4864-82DD-36116DC794C9}"/>
+    <hyperlink ref="H40" r:id="rId40" xr:uid="{C62D8D79-F101-4180-ACFF-0702F492811A}"/>
+    <hyperlink ref="H21" r:id="rId41" display="Website2" xr:uid="{FC620188-EA0A-4DFC-9048-3D95A2D2DBFE}"/>
+    <hyperlink ref="N21" r:id="rId42" xr:uid="{F0F2535F-42C5-4864-82DD-36116DC794C9}"/>
     <hyperlink ref="I5" r:id="rId43" xr:uid="{5D5CF429-1E28-49D6-B19E-03C72E4A0EC4}"/>
     <hyperlink ref="I9" r:id="rId44" xr:uid="{379146E8-AD4E-46D7-A785-14ED81742167}"/>
     <hyperlink ref="I10" r:id="rId45" xr:uid="{025AEAD3-FDD7-4701-B885-935FF1A1F40E}"/>
@@ -3326,8 +3378,8 @@
     <hyperlink ref="O6" r:id="rId54" xr:uid="{2B0393D1-9C98-4B09-843F-3E2A610A923F}"/>
     <hyperlink ref="O7" r:id="rId55" xr:uid="{7230B460-BF16-4B25-9AD0-999DBA80097A}"/>
     <hyperlink ref="O4" r:id="rId56" xr:uid="{677AD2D2-0C13-4EA4-A5A9-72E0106594DE}"/>
-    <hyperlink ref="N40" r:id="rId57" xr:uid="{40A478FC-8924-4710-A43E-370133585A08}"/>
-    <hyperlink ref="H40" r:id="rId58" xr:uid="{891765AC-B469-40EC-813C-5919893FF5BB}"/>
+    <hyperlink ref="N41" r:id="rId57" xr:uid="{40A478FC-8924-4710-A43E-370133585A08}"/>
+    <hyperlink ref="H41" r:id="rId58" xr:uid="{891765AC-B469-40EC-813C-5919893FF5BB}"/>
     <hyperlink ref="Q4" r:id="rId59" xr:uid="{CC3D9E5D-3A0A-43E9-A6FB-ECEAF3E87FBE}"/>
     <hyperlink ref="Q5" r:id="rId60" xr:uid="{3BD4A876-5CA1-4921-BBE4-BB723B41D805}"/>
     <hyperlink ref="Q6" r:id="rId61" xr:uid="{946CB908-8C19-435D-94BA-2ABC09894E34}"/>
@@ -3336,25 +3388,28 @@
     <hyperlink ref="Q9" r:id="rId64" xr:uid="{0C53A4D7-BD24-4D99-BD35-01B96FE5E6CD}"/>
     <hyperlink ref="Q10" r:id="rId65" xr:uid="{6DDE68D0-0F25-4356-AE65-5E1262D5C2FD}"/>
     <hyperlink ref="Q18" r:id="rId66" xr:uid="{10BC4986-0F69-4E48-AE3E-DB047B8561F9}"/>
-    <hyperlink ref="Q24" r:id="rId67" xr:uid="{84B06EEE-62E7-4DD2-B215-B850EFEEBDD5}"/>
-    <hyperlink ref="Q43" r:id="rId68" xr:uid="{DEE65F20-FA5B-4878-889D-BBA69B573B7C}"/>
-    <hyperlink ref="Q20" r:id="rId69" xr:uid="{B024DD3B-1306-4A33-BAB6-DA8CBCF66C81}"/>
-    <hyperlink ref="Q38" r:id="rId70" xr:uid="{BA23315B-529E-4707-9A39-6B3442B6ADFE}"/>
-    <hyperlink ref="Q39" r:id="rId71" xr:uid="{29B13572-2064-4DD1-8E7B-9421C4956652}"/>
-    <hyperlink ref="Q40" r:id="rId72" xr:uid="{35BAA14B-2F9F-4592-AF16-C940162A69F9}"/>
-    <hyperlink ref="N39" r:id="rId73" xr:uid="{63A1230A-6BC9-4382-A381-7EB5E3C505F0}"/>
-    <hyperlink ref="Q42" r:id="rId74" xr:uid="{EBC6B08D-12B4-4976-9AC7-C2395F2D56E6}"/>
-    <hyperlink ref="N42" r:id="rId75" xr:uid="{2C06C958-3C24-46E7-B766-AD20430526C5}"/>
-    <hyperlink ref="H42" r:id="rId76" xr:uid="{DB6CD851-AFD1-4479-B0D4-453D0BFD7FA5}"/>
-    <hyperlink ref="H41" r:id="rId77" xr:uid="{EC464FC1-1A89-4154-9F52-A74B0BFEE481}"/>
-    <hyperlink ref="N41" r:id="rId78" xr:uid="{92B45BB2-CC01-4CB5-9E3E-7D2C4BE24F3E}"/>
-    <hyperlink ref="Q41" r:id="rId79" xr:uid="{60FF01C3-49F8-48A7-8F9E-481F332B29F7}"/>
-    <hyperlink ref="H44" r:id="rId80" xr:uid="{C919B7E8-F2A3-44C6-AAA3-C9AFF9838425}"/>
-    <hyperlink ref="N44" r:id="rId81" xr:uid="{75618C90-808E-40B6-8DA5-E93A774B00F4}"/>
-    <hyperlink ref="Q44" r:id="rId82" xr:uid="{D31F91A2-72C6-4E63-8486-ACC3D5798E3F}"/>
+    <hyperlink ref="Q25" r:id="rId67" xr:uid="{84B06EEE-62E7-4DD2-B215-B850EFEEBDD5}"/>
+    <hyperlink ref="Q44" r:id="rId68" xr:uid="{DEE65F20-FA5B-4878-889D-BBA69B573B7C}"/>
+    <hyperlink ref="Q21" r:id="rId69" xr:uid="{B024DD3B-1306-4A33-BAB6-DA8CBCF66C81}"/>
+    <hyperlink ref="Q39" r:id="rId70" xr:uid="{BA23315B-529E-4707-9A39-6B3442B6ADFE}"/>
+    <hyperlink ref="Q40" r:id="rId71" xr:uid="{29B13572-2064-4DD1-8E7B-9421C4956652}"/>
+    <hyperlink ref="Q41" r:id="rId72" xr:uid="{35BAA14B-2F9F-4592-AF16-C940162A69F9}"/>
+    <hyperlink ref="N40" r:id="rId73" xr:uid="{63A1230A-6BC9-4382-A381-7EB5E3C505F0}"/>
+    <hyperlink ref="Q43" r:id="rId74" xr:uid="{EBC6B08D-12B4-4976-9AC7-C2395F2D56E6}"/>
+    <hyperlink ref="N43" r:id="rId75" xr:uid="{2C06C958-3C24-46E7-B766-AD20430526C5}"/>
+    <hyperlink ref="H43" r:id="rId76" xr:uid="{DB6CD851-AFD1-4479-B0D4-453D0BFD7FA5}"/>
+    <hyperlink ref="H42" r:id="rId77" xr:uid="{EC464FC1-1A89-4154-9F52-A74B0BFEE481}"/>
+    <hyperlink ref="N42" r:id="rId78" xr:uid="{92B45BB2-CC01-4CB5-9E3E-7D2C4BE24F3E}"/>
+    <hyperlink ref="Q42" r:id="rId79" xr:uid="{60FF01C3-49F8-48A7-8F9E-481F332B29F7}"/>
+    <hyperlink ref="H45" r:id="rId80" xr:uid="{C919B7E8-F2A3-44C6-AAA3-C9AFF9838425}"/>
+    <hyperlink ref="N45" r:id="rId81" xr:uid="{75618C90-808E-40B6-8DA5-E93A774B00F4}"/>
+    <hyperlink ref="Q45" r:id="rId82" xr:uid="{D31F91A2-72C6-4E63-8486-ACC3D5798E3F}"/>
+    <hyperlink ref="H20" r:id="rId83" xr:uid="{B28AB376-A24C-4CE7-96AA-2CA3B384903C}"/>
+    <hyperlink ref="N20" r:id="rId84" xr:uid="{2462CC12-CD75-42B8-B52E-FC208A0C0D00}"/>
+    <hyperlink ref="Q20" r:id="rId85" xr:uid="{082B777D-F6C8-4B32-8EE7-5B1CC851EF9A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId83"/>
-  <drawing r:id="rId84"/>
+  <pageSetup orientation="portrait" r:id="rId86"/>
+  <drawing r:id="rId87"/>
 </worksheet>
 </file>
--- a/8Bit Computer ver2.0/excel/chips availability.xlsx
+++ b/8Bit Computer ver2.0/excel/chips availability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Desktop\Computer_HTL\8Bit Computer ver2.0\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249FBEAE-B905-421A-9E8F-AE79C89AD389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA51ADA-8675-4C72-B27B-F1B75C55F5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9CC7EE1-7E8B-4FEA-8BE1-446B4A860683}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="149">
   <si>
     <t>Boolean Logic</t>
   </si>
@@ -529,6 +529,18 @@
   </si>
   <si>
     <t xml:space="preserve">use need 2 for 8Bit </t>
+  </si>
+  <si>
+    <t>M29F800FT</t>
+  </si>
+  <si>
+    <t>8Mb</t>
+  </si>
+  <si>
+    <t>~4USD</t>
+  </si>
+  <si>
+    <t>Not Included</t>
   </si>
 </sst>
 </file>
@@ -734,13 +746,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -765,13 +777,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>588741</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1125,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA67386-7B54-425F-86A0-E9D5FF3EDFA0}">
-  <dimension ref="B1:Q115"/>
+  <dimension ref="B1:Q116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,17 +1161,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
@@ -1569,17 +1581,17 @@
     </row>
     <row r="13" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="Q13" s="1"/>
@@ -1832,7 +1844,7 @@
         <v>80</v>
       </c>
       <c r="O20" s="21"/>
-      <c r="P20" s="30" t="s">
+      <c r="P20" s="28" t="s">
         <v>143</v>
       </c>
       <c r="Q20" s="20" t="s">
@@ -2181,17 +2193,17 @@
     </row>
     <row r="36" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
       <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
@@ -2297,8 +2309,8 @@
       <c r="B40" s="1">
         <v>3</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>56</v>
+      <c r="C40" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>100</v>
@@ -2335,20 +2347,20 @@
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B41">
+      <c r="B41" s="1">
         <v>3</v>
       </c>
-      <c r="C41" s="23" t="s">
-        <v>50</v>
+      <c r="C41" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="5" t="s">
@@ -2356,26 +2368,34 @@
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
+      <c r="L41" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M41" t="s">
+        <v>106</v>
+      </c>
       <c r="N41" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="P41" s="28" t="s">
+        <v>148</v>
+      </c>
       <c r="Q41" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B42" s="1">
+      <c r="B42">
         <v>3</v>
       </c>
-      <c r="C42" s="19" t="s">
-        <v>56</v>
+      <c r="C42" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>123</v>
@@ -2383,48 +2403,48 @@
       <c r="F42" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="G42" s="1"/>
       <c r="H42" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="N42" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P42" s="26" t="s">
-        <v>141</v>
-      </c>
       <c r="Q42" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>3</v>
+      </c>
       <c r="C43" s="19" t="s">
         <v>56</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G43" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="H43" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2439,162 +2459,183 @@
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B44" s="1">
-        <v>9</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>57</v>
+      <c r="C44" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H44" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I44" s="5"/>
-      <c r="K44" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="N44" s="17" t="s">
+      <c r="N44" s="5" t="s">
         <v>51</v>
       </c>
       <c r="P44" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="Q44" s="17" t="s">
+      <c r="Q44" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-      <c r="C45" s="19" t="s">
-        <v>138</v>
+      <c r="B45" s="1">
+        <v>9</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="K45" s="1"/>
+      <c r="I45" s="5"/>
+      <c r="K45" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="L45" s="1"/>
-      <c r="N45" s="5" t="s">
+      <c r="N45" s="17" t="s">
         <v>51</v>
       </c>
       <c r="P45" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="Q45" s="5" t="s">
+      <c r="Q45" s="17" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="5"/>
+      <c r="C46" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="I46" s="3"/>
-      <c r="J46" s="24"/>
+      <c r="J46" s="24" t="s">
+        <v>137</v>
+      </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="N46" s="5"/>
-      <c r="Q46" s="5"/>
-    </row>
-    <row r="47" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="D47" s="28" t="s">
+      <c r="N46" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P46" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="N47" s="5"/>
+      <c r="Q47" s="5"/>
+    </row>
+    <row r="48" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="D48" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D49" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2" t="s">
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2" t="s">
+      <c r="I49" s="2"/>
+      <c r="J49" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="K49" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="L49" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D49" s="1" t="s">
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D50" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" s="4"/>
-      <c r="J49" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L49" s="1"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
+      <c r="H50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="L50" s="1"/>
       <c r="N50" s="1"/>
     </row>
@@ -2608,6 +2649,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
+      <c r="N51" s="1"/>
     </row>
     <row r="52" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
@@ -3065,8 +3107,8 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
@@ -3313,10 +3355,21 @@
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
     </row>
+    <row r="116" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D36:L36"/>
-    <mergeCell ref="D47:L47"/>
+    <mergeCell ref="D48:L48"/>
     <mergeCell ref="D13:L13"/>
     <mergeCell ref="D1:L1"/>
   </mergeCells>
@@ -3324,19 +3377,19 @@
   <hyperlinks>
     <hyperlink ref="H15" r:id="rId1" xr:uid="{4C632AA1-6F55-423B-8697-B86F870D7F1B}"/>
     <hyperlink ref="H16" r:id="rId2" xr:uid="{E6F47877-79D3-493E-A16B-6B7238B0BE31}"/>
-    <hyperlink ref="H49" r:id="rId3" xr:uid="{F47C6505-8196-4511-AE67-D52965EEDE23}"/>
+    <hyperlink ref="H50" r:id="rId3" xr:uid="{F47C6505-8196-4511-AE67-D52965EEDE23}"/>
     <hyperlink ref="H17" r:id="rId4" xr:uid="{E27B66FC-5778-48E1-899B-BB5BB5FBA7E6}"/>
     <hyperlink ref="H23" r:id="rId5" xr:uid="{C64839DE-A1BA-4157-9A52-801A27FF2915}"/>
     <hyperlink ref="H19" r:id="rId6" display="Website" xr:uid="{7F6AF889-A9E9-47C4-A2A7-6DBA4D7C81E1}"/>
     <hyperlink ref="N19" r:id="rId7" display="Datasheet" xr:uid="{CA54F83D-C19B-421F-B1B5-352D51B9919E}"/>
     <hyperlink ref="N22" r:id="rId8" xr:uid="{33C9152C-4A79-4B03-A18F-588825C5B6B3}"/>
-    <hyperlink ref="N44" r:id="rId9" xr:uid="{0065FA4C-6809-4998-8687-BDB26D400A98}"/>
+    <hyperlink ref="N45" r:id="rId9" xr:uid="{0065FA4C-6809-4998-8687-BDB26D400A98}"/>
     <hyperlink ref="N18" r:id="rId10" display="Datasheet" xr:uid="{26BF3B04-3EC6-47E2-B049-A1546D3BC973}"/>
     <hyperlink ref="N25" r:id="rId11" display="Datasheet" xr:uid="{C5903ACA-BDB4-47BF-8B56-FF9FBBB36A72}"/>
     <hyperlink ref="H18" r:id="rId12" display="Website" xr:uid="{F7D68913-EB8F-4945-852A-487A82242546}"/>
     <hyperlink ref="H22" r:id="rId13" xr:uid="{5663C4BC-2E27-45A8-A9FD-082BBCA9E9F6}"/>
     <hyperlink ref="H25" r:id="rId14" display="Website" xr:uid="{792E18D9-027D-4AE8-BA75-FC59B1B2CB73}"/>
-    <hyperlink ref="H44" r:id="rId15" xr:uid="{CF9B7135-5770-4CBA-8BB9-3EFCF0F054CE}"/>
+    <hyperlink ref="H45" r:id="rId15" xr:uid="{CF9B7135-5770-4CBA-8BB9-3EFCF0F054CE}"/>
     <hyperlink ref="H38" r:id="rId16" xr:uid="{D6537DC4-6751-4237-9FA6-53AFEFE2BA73}"/>
     <hyperlink ref="N39" r:id="rId17" xr:uid="{67C9887A-66CC-41B8-9FDB-D1C4BA617492}"/>
     <hyperlink ref="N38" r:id="rId18" xr:uid="{3FD9C373-E805-4CB8-8CC6-18D15CCA42DF}"/>
@@ -3378,8 +3431,8 @@
     <hyperlink ref="O6" r:id="rId54" xr:uid="{2B0393D1-9C98-4B09-843F-3E2A610A923F}"/>
     <hyperlink ref="O7" r:id="rId55" xr:uid="{7230B460-BF16-4B25-9AD0-999DBA80097A}"/>
     <hyperlink ref="O4" r:id="rId56" xr:uid="{677AD2D2-0C13-4EA4-A5A9-72E0106594DE}"/>
-    <hyperlink ref="N41" r:id="rId57" xr:uid="{40A478FC-8924-4710-A43E-370133585A08}"/>
-    <hyperlink ref="H41" r:id="rId58" xr:uid="{891765AC-B469-40EC-813C-5919893FF5BB}"/>
+    <hyperlink ref="N42" r:id="rId57" xr:uid="{40A478FC-8924-4710-A43E-370133585A08}"/>
+    <hyperlink ref="H42" r:id="rId58" xr:uid="{891765AC-B469-40EC-813C-5919893FF5BB}"/>
     <hyperlink ref="Q4" r:id="rId59" xr:uid="{CC3D9E5D-3A0A-43E9-A6FB-ECEAF3E87FBE}"/>
     <hyperlink ref="Q5" r:id="rId60" xr:uid="{3BD4A876-5CA1-4921-BBE4-BB723B41D805}"/>
     <hyperlink ref="Q6" r:id="rId61" xr:uid="{946CB908-8C19-435D-94BA-2ABC09894E34}"/>
@@ -3389,27 +3442,30 @@
     <hyperlink ref="Q10" r:id="rId65" xr:uid="{6DDE68D0-0F25-4356-AE65-5E1262D5C2FD}"/>
     <hyperlink ref="Q18" r:id="rId66" xr:uid="{10BC4986-0F69-4E48-AE3E-DB047B8561F9}"/>
     <hyperlink ref="Q25" r:id="rId67" xr:uid="{84B06EEE-62E7-4DD2-B215-B850EFEEBDD5}"/>
-    <hyperlink ref="Q44" r:id="rId68" xr:uid="{DEE65F20-FA5B-4878-889D-BBA69B573B7C}"/>
+    <hyperlink ref="Q45" r:id="rId68" xr:uid="{DEE65F20-FA5B-4878-889D-BBA69B573B7C}"/>
     <hyperlink ref="Q21" r:id="rId69" xr:uid="{B024DD3B-1306-4A33-BAB6-DA8CBCF66C81}"/>
     <hyperlink ref="Q39" r:id="rId70" xr:uid="{BA23315B-529E-4707-9A39-6B3442B6ADFE}"/>
     <hyperlink ref="Q40" r:id="rId71" xr:uid="{29B13572-2064-4DD1-8E7B-9421C4956652}"/>
-    <hyperlink ref="Q41" r:id="rId72" xr:uid="{35BAA14B-2F9F-4592-AF16-C940162A69F9}"/>
+    <hyperlink ref="Q42" r:id="rId72" xr:uid="{35BAA14B-2F9F-4592-AF16-C940162A69F9}"/>
     <hyperlink ref="N40" r:id="rId73" xr:uid="{63A1230A-6BC9-4382-A381-7EB5E3C505F0}"/>
-    <hyperlink ref="Q43" r:id="rId74" xr:uid="{EBC6B08D-12B4-4976-9AC7-C2395F2D56E6}"/>
-    <hyperlink ref="N43" r:id="rId75" xr:uid="{2C06C958-3C24-46E7-B766-AD20430526C5}"/>
-    <hyperlink ref="H43" r:id="rId76" xr:uid="{DB6CD851-AFD1-4479-B0D4-453D0BFD7FA5}"/>
-    <hyperlink ref="H42" r:id="rId77" xr:uid="{EC464FC1-1A89-4154-9F52-A74B0BFEE481}"/>
-    <hyperlink ref="N42" r:id="rId78" xr:uid="{92B45BB2-CC01-4CB5-9E3E-7D2C4BE24F3E}"/>
-    <hyperlink ref="Q42" r:id="rId79" xr:uid="{60FF01C3-49F8-48A7-8F9E-481F332B29F7}"/>
-    <hyperlink ref="H45" r:id="rId80" xr:uid="{C919B7E8-F2A3-44C6-AAA3-C9AFF9838425}"/>
-    <hyperlink ref="N45" r:id="rId81" xr:uid="{75618C90-808E-40B6-8DA5-E93A774B00F4}"/>
-    <hyperlink ref="Q45" r:id="rId82" xr:uid="{D31F91A2-72C6-4E63-8486-ACC3D5798E3F}"/>
+    <hyperlink ref="Q44" r:id="rId74" xr:uid="{EBC6B08D-12B4-4976-9AC7-C2395F2D56E6}"/>
+    <hyperlink ref="N44" r:id="rId75" xr:uid="{2C06C958-3C24-46E7-B766-AD20430526C5}"/>
+    <hyperlink ref="H44" r:id="rId76" xr:uid="{DB6CD851-AFD1-4479-B0D4-453D0BFD7FA5}"/>
+    <hyperlink ref="H43" r:id="rId77" xr:uid="{EC464FC1-1A89-4154-9F52-A74B0BFEE481}"/>
+    <hyperlink ref="N43" r:id="rId78" xr:uid="{92B45BB2-CC01-4CB5-9E3E-7D2C4BE24F3E}"/>
+    <hyperlink ref="Q43" r:id="rId79" xr:uid="{60FF01C3-49F8-48A7-8F9E-481F332B29F7}"/>
+    <hyperlink ref="H46" r:id="rId80" xr:uid="{C919B7E8-F2A3-44C6-AAA3-C9AFF9838425}"/>
+    <hyperlink ref="N46" r:id="rId81" xr:uid="{75618C90-808E-40B6-8DA5-E93A774B00F4}"/>
+    <hyperlink ref="Q46" r:id="rId82" xr:uid="{D31F91A2-72C6-4E63-8486-ACC3D5798E3F}"/>
     <hyperlink ref="H20" r:id="rId83" xr:uid="{B28AB376-A24C-4CE7-96AA-2CA3B384903C}"/>
     <hyperlink ref="N20" r:id="rId84" xr:uid="{2462CC12-CD75-42B8-B52E-FC208A0C0D00}"/>
     <hyperlink ref="Q20" r:id="rId85" xr:uid="{082B777D-F6C8-4B32-8EE7-5B1CC851EF9A}"/>
+    <hyperlink ref="N41" r:id="rId86" xr:uid="{ADDC0E5E-3350-43F7-970D-90AA6A715DC7}"/>
+    <hyperlink ref="Q41" r:id="rId87" xr:uid="{5F94472F-CA2B-4DB3-8ADB-7E4F7C6EB981}"/>
+    <hyperlink ref="H41" r:id="rId88" location="M29F800FT55N3E2" xr:uid="{799044EA-6D81-4EB5-87E5-41CE14255DBB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId86"/>
-  <drawing r:id="rId87"/>
+  <pageSetup orientation="portrait" r:id="rId89"/>
+  <drawing r:id="rId90"/>
 </worksheet>
 </file>
--- a/8Bit Computer ver2.0/excel/chips availability.xlsx
+++ b/8Bit Computer ver2.0/excel/chips availability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Desktop\Computer_HTL\8Bit Computer ver2.0\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA51ADA-8675-4C72-B27B-F1B75C55F5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DFF5FA-8DFD-4621-BD6A-5A51B7711603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9CC7EE1-7E8B-4FEA-8BE1-446B4A860683}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="157">
   <si>
     <t>Boolean Logic</t>
   </si>
@@ -541,6 +541,30 @@
   </si>
   <si>
     <t>Not Included</t>
+  </si>
+  <si>
+    <t>use for cmds</t>
+  </si>
+  <si>
+    <t>use for P&gt;Q</t>
+  </si>
+  <si>
+    <t>74HC682</t>
+  </si>
+  <si>
+    <t>HC PDIP</t>
+  </si>
+  <si>
+    <t>AS7C1024B-12TCN</t>
+  </si>
+  <si>
+    <t>12ns</t>
+  </si>
+  <si>
+    <t>use faster as IS</t>
+  </si>
+  <si>
+    <t>use slower as AS</t>
   </si>
 </sst>
 </file>
@@ -603,7 +627,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -646,6 +670,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -669,7 +699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -753,6 +783,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -777,13 +810,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>588741</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1137,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA67386-7B54-425F-86A0-E9D5FF3EDFA0}">
-  <dimension ref="B1:Q116"/>
+  <dimension ref="B1:Q118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1733,7 +1766,7 @@
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="16" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>41</v>
@@ -1774,153 +1807,156 @@
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="25" t="s">
-        <v>139</v>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>150</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="I19" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L19" s="1"/>
-      <c r="N19" s="5" t="s">
+      <c r="N19" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="O19" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="P19" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q19" s="1"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q19" s="20" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>144</v>
+      <c r="B20" s="1"/>
+      <c r="C20" s="25" t="s">
+        <v>139</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="20" t="s">
+      <c r="H20" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I20" s="17"/>
+      <c r="I20" s="17" t="s">
+        <v>79</v>
+      </c>
       <c r="J20" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K20" s="22" t="s">
-        <v>29</v>
+        <v>94</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="L20" s="1"/>
-      <c r="N20" s="20" t="s">
+      <c r="N20" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="O20" s="21"/>
-      <c r="P20" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q20" s="20" t="s">
-        <v>128</v>
-      </c>
+      <c r="O20" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="P20" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="20" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="I21" s="17"/>
-      <c r="J21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="K21" s="22" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="L21" s="1"/>
       <c r="N21" s="20" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="O21" s="21"/>
-      <c r="P21" s="26" t="s">
-        <v>141</v>
+      <c r="P21" s="28" t="s">
+        <v>143</v>
       </c>
       <c r="Q21" s="20" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="10" t="s">
+      <c r="G22" s="1"/>
+      <c r="H22" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="N22" s="10" t="s">
+      <c r="I22" s="17"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="N22" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="O22" s="6"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q22" s="20" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
@@ -1928,28 +1964,31 @@
         <v>50</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I23" s="10"/>
-      <c r="J23" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="J23" s="7"/>
       <c r="K23" s="7" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="L23" s="7"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="7"/>
+      <c r="M23" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O23" s="6"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
@@ -1959,24 +1998,24 @@
         <v>50</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G24" s="7"/>
-      <c r="H24" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" s="7"/>
+      <c r="H24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="10"/>
       <c r="J24" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="6"/>
@@ -1986,73 +2025,75 @@
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
-      <c r="C25" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="C25" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L25" s="1"/>
-      <c r="N25" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="O25" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="P25" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q25" s="20" t="s">
-        <v>128</v>
-      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="7"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="C26" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L26" s="7"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="7"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
+      <c r="C26" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="N26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O26" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="P26" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q26" s="20" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
@@ -2060,7 +2101,7 @@
         <v>50</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>28</v>
@@ -2068,14 +2109,14 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="7" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L27" s="7"/>
       <c r="M27" s="6"/>
@@ -2089,25 +2130,25 @@
         <v>50</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>62</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="H28" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="I28" s="7"/>
-      <c r="J28" s="6"/>
+      <c r="J28" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="K28" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="L28" s="7"/>
-      <c r="M28" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="M28" s="6"/>
       <c r="N28" s="7"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -2118,10 +2159,10 @@
         <v>50</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>62</v>
@@ -2129,28 +2170,46 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
+      <c r="J29" s="6"/>
       <c r="K29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M29" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="L29" s="7"/>
+      <c r="M29" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="N29" s="7"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="Q32" s="1"/>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M30" s="6"/>
+      <c r="N30" s="7"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
@@ -2158,8 +2217,6 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2191,217 +2248,184 @@
       <c r="L35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="B37" s="1"/>
+      <c r="D37" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="Q36" s="1"/>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-      <c r="C37" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="K37" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L37" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="M37" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="N37" s="11" t="s">
-        <v>51</v>
-      </c>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
       <c r="Q37" s="1"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
-      <c r="C38" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="5" t="s">
+      <c r="C38" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I38" s="5"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N38" s="5" t="s">
+      <c r="I38" s="11"/>
+      <c r="J38" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N38" s="11" t="s">
         <v>51</v>
       </c>
       <c r="Q38" s="1"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
-      <c r="C39" s="19" t="s">
-        <v>56</v>
+      <c r="C39" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I39" s="5"/>
-      <c r="J39" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="N39" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P39" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q39" s="5" t="s">
-        <v>128</v>
-      </c>
+      <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B40" s="1">
-        <v>3</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>50</v>
+      <c r="B40" s="1"/>
+      <c r="C40" s="19" t="s">
+        <v>155</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="1"/>
+      <c r="I40" s="5"/>
       <c r="J40" s="1" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="K40" s="1"/>
-      <c r="L40" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M40" t="s">
-        <v>106</v>
+      <c r="L40" s="31" t="s">
+        <v>154</v>
       </c>
       <c r="N40" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P40" s="26" t="s">
-        <v>141</v>
+      <c r="P40" s="28" t="s">
+        <v>148</v>
       </c>
       <c r="Q40" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B41" s="1">
-        <v>3</v>
-      </c>
+      <c r="B41" s="1"/>
       <c r="C41" s="19" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I41" s="1"/>
+      <c r="I41" s="5"/>
       <c r="J41" s="1" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="K41" s="1"/>
-      <c r="L41" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M41" t="s">
-        <v>106</v>
+      <c r="L41" s="31" t="s">
+        <v>104</v>
       </c>
       <c r="N41" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P41" s="28" t="s">
-        <v>148</v>
+      <c r="P41" s="26" t="s">
+        <v>141</v>
       </c>
       <c r="Q41" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B42">
+      <c r="B42" s="1">
         <v>3</v>
       </c>
       <c r="C42" s="23" t="s">
         <v>50</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="5" t="s">
@@ -2409,12 +2433,20 @@
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
+      <c r="L42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M42" t="s">
+        <v>106</v>
+      </c>
       <c r="N42" s="5" t="s">
         <v>51</v>
+      </c>
+      <c r="P42" s="26" t="s">
+        <v>141</v>
       </c>
       <c r="Q42" s="5" t="s">
         <v>128</v>
@@ -2428,48 +2460,54 @@
         <v>56</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>134</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G43" s="1"/>
       <c r="H43" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
+      <c r="L43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M43" t="s">
+        <v>106</v>
+      </c>
       <c r="N43" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P43" s="26" t="s">
-        <v>141</v>
+      <c r="P43" s="28" t="s">
+        <v>148</v>
       </c>
       <c r="Q43" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C44" s="19" t="s">
-        <v>56</v>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="5" t="s">
@@ -2477,80 +2515,75 @@
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="N44" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P44" s="26" t="s">
-        <v>141</v>
-      </c>
       <c r="Q44" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
-        <v>9</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>57</v>
+        <v>3</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H45" s="17" t="s">
+      <c r="H45" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I45" s="5"/>
-      <c r="K45" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="N45" s="17" t="s">
+      <c r="N45" s="5" t="s">
         <v>51</v>
       </c>
       <c r="P45" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="Q45" s="17" t="s">
+      <c r="Q45" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
       <c r="C46" s="19" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>134</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G46" s="1"/>
       <c r="H46" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="24" t="s">
-        <v>137</v>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2565,104 +2598,154 @@
       </c>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="1"/>
+      <c r="B47" s="1">
+        <v>9</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="5"/>
+      <c r="K47" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="L47" s="1"/>
-      <c r="N47" s="5"/>
-      <c r="Q47" s="5"/>
-    </row>
-    <row r="48" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="D48" s="29" t="s">
+      <c r="N47" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="P47" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q47" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+      <c r="C48" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="N48" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P48" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="N49" s="5"/>
+      <c r="Q49" s="5"/>
+    </row>
+    <row r="50" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="D50" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D49" s="2" t="s">
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D51" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2" t="s">
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2" t="s">
+      <c r="I51" s="2"/>
+      <c r="J51" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="K51" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="L51" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D50" s="1" t="s">
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D52" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I50" s="4"/>
-      <c r="J50" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L50" s="1"/>
-      <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
+      <c r="H52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="L52" s="1"/>
-    </row>
-    <row r="53" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -2672,8 +2755,9 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-    </row>
-    <row r="54" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -2684,7 +2768,7 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -2695,7 +2779,7 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2706,7 +2790,7 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -2717,7 +2801,7 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -2728,7 +2812,7 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2739,7 +2823,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2750,7 +2834,7 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2761,7 +2845,7 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
     </row>
-    <row r="62" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2772,7 +2856,7 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2783,7 +2867,7 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
     </row>
-    <row r="64" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -3118,8 +3202,8 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
@@ -3129,8 +3213,8 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
@@ -3366,10 +3450,32 @@
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
     </row>
+    <row r="117" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+    </row>
+    <row r="118" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D36:L36"/>
-    <mergeCell ref="D48:L48"/>
+    <mergeCell ref="D37:L37"/>
+    <mergeCell ref="D50:L50"/>
     <mergeCell ref="D13:L13"/>
     <mergeCell ref="D1:L1"/>
   </mergeCells>
@@ -3377,23 +3483,23 @@
   <hyperlinks>
     <hyperlink ref="H15" r:id="rId1" xr:uid="{4C632AA1-6F55-423B-8697-B86F870D7F1B}"/>
     <hyperlink ref="H16" r:id="rId2" xr:uid="{E6F47877-79D3-493E-A16B-6B7238B0BE31}"/>
-    <hyperlink ref="H50" r:id="rId3" xr:uid="{F47C6505-8196-4511-AE67-D52965EEDE23}"/>
+    <hyperlink ref="H52" r:id="rId3" xr:uid="{F47C6505-8196-4511-AE67-D52965EEDE23}"/>
     <hyperlink ref="H17" r:id="rId4" xr:uid="{E27B66FC-5778-48E1-899B-BB5BB5FBA7E6}"/>
-    <hyperlink ref="H23" r:id="rId5" xr:uid="{C64839DE-A1BA-4157-9A52-801A27FF2915}"/>
-    <hyperlink ref="H19" r:id="rId6" display="Website" xr:uid="{7F6AF889-A9E9-47C4-A2A7-6DBA4D7C81E1}"/>
-    <hyperlink ref="N19" r:id="rId7" display="Datasheet" xr:uid="{CA54F83D-C19B-421F-B1B5-352D51B9919E}"/>
-    <hyperlink ref="N22" r:id="rId8" xr:uid="{33C9152C-4A79-4B03-A18F-588825C5B6B3}"/>
-    <hyperlink ref="N45" r:id="rId9" xr:uid="{0065FA4C-6809-4998-8687-BDB26D400A98}"/>
+    <hyperlink ref="H24" r:id="rId5" xr:uid="{C64839DE-A1BA-4157-9A52-801A27FF2915}"/>
+    <hyperlink ref="H20" r:id="rId6" display="Website" xr:uid="{7F6AF889-A9E9-47C4-A2A7-6DBA4D7C81E1}"/>
+    <hyperlink ref="N20" r:id="rId7" display="Datasheet" xr:uid="{CA54F83D-C19B-421F-B1B5-352D51B9919E}"/>
+    <hyperlink ref="N23" r:id="rId8" xr:uid="{33C9152C-4A79-4B03-A18F-588825C5B6B3}"/>
+    <hyperlink ref="N47" r:id="rId9" xr:uid="{0065FA4C-6809-4998-8687-BDB26D400A98}"/>
     <hyperlink ref="N18" r:id="rId10" display="Datasheet" xr:uid="{26BF3B04-3EC6-47E2-B049-A1546D3BC973}"/>
-    <hyperlink ref="N25" r:id="rId11" display="Datasheet" xr:uid="{C5903ACA-BDB4-47BF-8B56-FF9FBBB36A72}"/>
+    <hyperlink ref="N26" r:id="rId11" display="Datasheet" xr:uid="{C5903ACA-BDB4-47BF-8B56-FF9FBBB36A72}"/>
     <hyperlink ref="H18" r:id="rId12" display="Website" xr:uid="{F7D68913-EB8F-4945-852A-487A82242546}"/>
-    <hyperlink ref="H22" r:id="rId13" xr:uid="{5663C4BC-2E27-45A8-A9FD-082BBCA9E9F6}"/>
-    <hyperlink ref="H25" r:id="rId14" display="Website" xr:uid="{792E18D9-027D-4AE8-BA75-FC59B1B2CB73}"/>
-    <hyperlink ref="H45" r:id="rId15" xr:uid="{CF9B7135-5770-4CBA-8BB9-3EFCF0F054CE}"/>
-    <hyperlink ref="H38" r:id="rId16" xr:uid="{D6537DC4-6751-4237-9FA6-53AFEFE2BA73}"/>
-    <hyperlink ref="N39" r:id="rId17" xr:uid="{67C9887A-66CC-41B8-9FDB-D1C4BA617492}"/>
-    <hyperlink ref="N38" r:id="rId18" xr:uid="{3FD9C373-E805-4CB8-8CC6-18D15CCA42DF}"/>
-    <hyperlink ref="H39" r:id="rId19" xr:uid="{4EDF24C3-B147-4992-8CEF-2C81201015B8}"/>
+    <hyperlink ref="H23" r:id="rId13" xr:uid="{5663C4BC-2E27-45A8-A9FD-082BBCA9E9F6}"/>
+    <hyperlink ref="H26" r:id="rId14" display="Website" xr:uid="{792E18D9-027D-4AE8-BA75-FC59B1B2CB73}"/>
+    <hyperlink ref="H47" r:id="rId15" xr:uid="{CF9B7135-5770-4CBA-8BB9-3EFCF0F054CE}"/>
+    <hyperlink ref="H39" r:id="rId16" xr:uid="{D6537DC4-6751-4237-9FA6-53AFEFE2BA73}"/>
+    <hyperlink ref="N41" r:id="rId17" xr:uid="{67C9887A-66CC-41B8-9FDB-D1C4BA617492}"/>
+    <hyperlink ref="N39" r:id="rId18" xr:uid="{3FD9C373-E805-4CB8-8CC6-18D15CCA42DF}"/>
+    <hyperlink ref="H41" r:id="rId19" xr:uid="{4EDF24C3-B147-4992-8CEF-2C81201015B8}"/>
     <hyperlink ref="H5" r:id="rId20" xr:uid="{F8A9DA4F-1E4B-4027-89AA-8A8337135A11}"/>
     <hyperlink ref="N5" r:id="rId21" xr:uid="{F5058B02-CCF1-462C-AF78-CFAD9C4A5367}"/>
     <hyperlink ref="H4" r:id="rId22" xr:uid="{AD2CB2AC-934B-40A8-87F0-2DD3411B0BA0}"/>
@@ -3410,13 +3516,13 @@
     <hyperlink ref="N6" r:id="rId33" xr:uid="{5DE163B5-CB79-4653-B429-7D96467A8E43}"/>
     <hyperlink ref="I18" r:id="rId34" xr:uid="{EE53776F-D0D2-4515-B316-8D0A9661C7D5}"/>
     <hyperlink ref="O18" r:id="rId35" xr:uid="{2938CD97-3CFB-4828-B234-DDD6FA51651E}"/>
-    <hyperlink ref="I25" r:id="rId36" xr:uid="{C041C052-5B7F-4797-90DB-07A5A9BD8086}"/>
-    <hyperlink ref="O25" r:id="rId37" xr:uid="{B784EE51-DF03-4479-ABFD-FAE317652025}"/>
-    <hyperlink ref="O19" r:id="rId38" xr:uid="{A63E6F16-81FE-46B5-A1B1-B4BC1F6573F2}"/>
-    <hyperlink ref="I19" r:id="rId39" xr:uid="{220C83A2-FFD8-4402-83E7-F8389CE5032E}"/>
-    <hyperlink ref="H40" r:id="rId40" xr:uid="{C62D8D79-F101-4180-ACFF-0702F492811A}"/>
-    <hyperlink ref="H21" r:id="rId41" display="Website2" xr:uid="{FC620188-EA0A-4DFC-9048-3D95A2D2DBFE}"/>
-    <hyperlink ref="N21" r:id="rId42" xr:uid="{F0F2535F-42C5-4864-82DD-36116DC794C9}"/>
+    <hyperlink ref="I26" r:id="rId36" xr:uid="{C041C052-5B7F-4797-90DB-07A5A9BD8086}"/>
+    <hyperlink ref="O26" r:id="rId37" xr:uid="{B784EE51-DF03-4479-ABFD-FAE317652025}"/>
+    <hyperlink ref="O20" r:id="rId38" xr:uid="{A63E6F16-81FE-46B5-A1B1-B4BC1F6573F2}"/>
+    <hyperlink ref="I20" r:id="rId39" xr:uid="{220C83A2-FFD8-4402-83E7-F8389CE5032E}"/>
+    <hyperlink ref="H42" r:id="rId40" xr:uid="{C62D8D79-F101-4180-ACFF-0702F492811A}"/>
+    <hyperlink ref="H22" r:id="rId41" display="Website2" xr:uid="{FC620188-EA0A-4DFC-9048-3D95A2D2DBFE}"/>
+    <hyperlink ref="N22" r:id="rId42" xr:uid="{F0F2535F-42C5-4864-82DD-36116DC794C9}"/>
     <hyperlink ref="I5" r:id="rId43" xr:uid="{5D5CF429-1E28-49D6-B19E-03C72E4A0EC4}"/>
     <hyperlink ref="I9" r:id="rId44" xr:uid="{379146E8-AD4E-46D7-A785-14ED81742167}"/>
     <hyperlink ref="I10" r:id="rId45" xr:uid="{025AEAD3-FDD7-4701-B885-935FF1A1F40E}"/>
@@ -3431,8 +3537,8 @@
     <hyperlink ref="O6" r:id="rId54" xr:uid="{2B0393D1-9C98-4B09-843F-3E2A610A923F}"/>
     <hyperlink ref="O7" r:id="rId55" xr:uid="{7230B460-BF16-4B25-9AD0-999DBA80097A}"/>
     <hyperlink ref="O4" r:id="rId56" xr:uid="{677AD2D2-0C13-4EA4-A5A9-72E0106594DE}"/>
-    <hyperlink ref="N42" r:id="rId57" xr:uid="{40A478FC-8924-4710-A43E-370133585A08}"/>
-    <hyperlink ref="H42" r:id="rId58" xr:uid="{891765AC-B469-40EC-813C-5919893FF5BB}"/>
+    <hyperlink ref="N44" r:id="rId57" xr:uid="{40A478FC-8924-4710-A43E-370133585A08}"/>
+    <hyperlink ref="H44" r:id="rId58" xr:uid="{891765AC-B469-40EC-813C-5919893FF5BB}"/>
     <hyperlink ref="Q4" r:id="rId59" xr:uid="{CC3D9E5D-3A0A-43E9-A6FB-ECEAF3E87FBE}"/>
     <hyperlink ref="Q5" r:id="rId60" xr:uid="{3BD4A876-5CA1-4921-BBE4-BB723B41D805}"/>
     <hyperlink ref="Q6" r:id="rId61" xr:uid="{946CB908-8C19-435D-94BA-2ABC09894E34}"/>
@@ -3441,31 +3547,37 @@
     <hyperlink ref="Q9" r:id="rId64" xr:uid="{0C53A4D7-BD24-4D99-BD35-01B96FE5E6CD}"/>
     <hyperlink ref="Q10" r:id="rId65" xr:uid="{6DDE68D0-0F25-4356-AE65-5E1262D5C2FD}"/>
     <hyperlink ref="Q18" r:id="rId66" xr:uid="{10BC4986-0F69-4E48-AE3E-DB047B8561F9}"/>
-    <hyperlink ref="Q25" r:id="rId67" xr:uid="{84B06EEE-62E7-4DD2-B215-B850EFEEBDD5}"/>
-    <hyperlink ref="Q45" r:id="rId68" xr:uid="{DEE65F20-FA5B-4878-889D-BBA69B573B7C}"/>
-    <hyperlink ref="Q21" r:id="rId69" xr:uid="{B024DD3B-1306-4A33-BAB6-DA8CBCF66C81}"/>
-    <hyperlink ref="Q39" r:id="rId70" xr:uid="{BA23315B-529E-4707-9A39-6B3442B6ADFE}"/>
-    <hyperlink ref="Q40" r:id="rId71" xr:uid="{29B13572-2064-4DD1-8E7B-9421C4956652}"/>
-    <hyperlink ref="Q42" r:id="rId72" xr:uid="{35BAA14B-2F9F-4592-AF16-C940162A69F9}"/>
-    <hyperlink ref="N40" r:id="rId73" xr:uid="{63A1230A-6BC9-4382-A381-7EB5E3C505F0}"/>
-    <hyperlink ref="Q44" r:id="rId74" xr:uid="{EBC6B08D-12B4-4976-9AC7-C2395F2D56E6}"/>
-    <hyperlink ref="N44" r:id="rId75" xr:uid="{2C06C958-3C24-46E7-B766-AD20430526C5}"/>
-    <hyperlink ref="H44" r:id="rId76" xr:uid="{DB6CD851-AFD1-4479-B0D4-453D0BFD7FA5}"/>
-    <hyperlink ref="H43" r:id="rId77" xr:uid="{EC464FC1-1A89-4154-9F52-A74B0BFEE481}"/>
-    <hyperlink ref="N43" r:id="rId78" xr:uid="{92B45BB2-CC01-4CB5-9E3E-7D2C4BE24F3E}"/>
-    <hyperlink ref="Q43" r:id="rId79" xr:uid="{60FF01C3-49F8-48A7-8F9E-481F332B29F7}"/>
-    <hyperlink ref="H46" r:id="rId80" xr:uid="{C919B7E8-F2A3-44C6-AAA3-C9AFF9838425}"/>
-    <hyperlink ref="N46" r:id="rId81" xr:uid="{75618C90-808E-40B6-8DA5-E93A774B00F4}"/>
-    <hyperlink ref="Q46" r:id="rId82" xr:uid="{D31F91A2-72C6-4E63-8486-ACC3D5798E3F}"/>
-    <hyperlink ref="H20" r:id="rId83" xr:uid="{B28AB376-A24C-4CE7-96AA-2CA3B384903C}"/>
-    <hyperlink ref="N20" r:id="rId84" xr:uid="{2462CC12-CD75-42B8-B52E-FC208A0C0D00}"/>
-    <hyperlink ref="Q20" r:id="rId85" xr:uid="{082B777D-F6C8-4B32-8EE7-5B1CC851EF9A}"/>
-    <hyperlink ref="N41" r:id="rId86" xr:uid="{ADDC0E5E-3350-43F7-970D-90AA6A715DC7}"/>
-    <hyperlink ref="Q41" r:id="rId87" xr:uid="{5F94472F-CA2B-4DB3-8ADB-7E4F7C6EB981}"/>
-    <hyperlink ref="H41" r:id="rId88" location="M29F800FT55N3E2" xr:uid="{799044EA-6D81-4EB5-87E5-41CE14255DBB}"/>
+    <hyperlink ref="Q26" r:id="rId67" xr:uid="{84B06EEE-62E7-4DD2-B215-B850EFEEBDD5}"/>
+    <hyperlink ref="Q47" r:id="rId68" xr:uid="{DEE65F20-FA5B-4878-889D-BBA69B573B7C}"/>
+    <hyperlink ref="Q22" r:id="rId69" xr:uid="{B024DD3B-1306-4A33-BAB6-DA8CBCF66C81}"/>
+    <hyperlink ref="Q41" r:id="rId70" xr:uid="{BA23315B-529E-4707-9A39-6B3442B6ADFE}"/>
+    <hyperlink ref="Q42" r:id="rId71" xr:uid="{29B13572-2064-4DD1-8E7B-9421C4956652}"/>
+    <hyperlink ref="Q44" r:id="rId72" xr:uid="{35BAA14B-2F9F-4592-AF16-C940162A69F9}"/>
+    <hyperlink ref="N42" r:id="rId73" xr:uid="{63A1230A-6BC9-4382-A381-7EB5E3C505F0}"/>
+    <hyperlink ref="Q46" r:id="rId74" xr:uid="{EBC6B08D-12B4-4976-9AC7-C2395F2D56E6}"/>
+    <hyperlink ref="N46" r:id="rId75" xr:uid="{2C06C958-3C24-46E7-B766-AD20430526C5}"/>
+    <hyperlink ref="H46" r:id="rId76" xr:uid="{DB6CD851-AFD1-4479-B0D4-453D0BFD7FA5}"/>
+    <hyperlink ref="H45" r:id="rId77" xr:uid="{EC464FC1-1A89-4154-9F52-A74B0BFEE481}"/>
+    <hyperlink ref="N45" r:id="rId78" xr:uid="{92B45BB2-CC01-4CB5-9E3E-7D2C4BE24F3E}"/>
+    <hyperlink ref="Q45" r:id="rId79" xr:uid="{60FF01C3-49F8-48A7-8F9E-481F332B29F7}"/>
+    <hyperlink ref="H48" r:id="rId80" xr:uid="{C919B7E8-F2A3-44C6-AAA3-C9AFF9838425}"/>
+    <hyperlink ref="N48" r:id="rId81" xr:uid="{75618C90-808E-40B6-8DA5-E93A774B00F4}"/>
+    <hyperlink ref="Q48" r:id="rId82" xr:uid="{D31F91A2-72C6-4E63-8486-ACC3D5798E3F}"/>
+    <hyperlink ref="H21" r:id="rId83" xr:uid="{B28AB376-A24C-4CE7-96AA-2CA3B384903C}"/>
+    <hyperlink ref="N21" r:id="rId84" xr:uid="{2462CC12-CD75-42B8-B52E-FC208A0C0D00}"/>
+    <hyperlink ref="Q21" r:id="rId85" xr:uid="{082B777D-F6C8-4B32-8EE7-5B1CC851EF9A}"/>
+    <hyperlink ref="N43" r:id="rId86" xr:uid="{ADDC0E5E-3350-43F7-970D-90AA6A715DC7}"/>
+    <hyperlink ref="Q43" r:id="rId87" xr:uid="{5F94472F-CA2B-4DB3-8ADB-7E4F7C6EB981}"/>
+    <hyperlink ref="H43" r:id="rId88" location="M29F800FT55N3E2" xr:uid="{799044EA-6D81-4EB5-87E5-41CE14255DBB}"/>
+    <hyperlink ref="H19" r:id="rId89" xr:uid="{B19B548D-587F-4116-A7DB-B2A506DECA30}"/>
+    <hyperlink ref="N19" r:id="rId90" xr:uid="{744CEDEB-72A5-4048-A91C-2A88578DFA95}"/>
+    <hyperlink ref="Q19" r:id="rId91" xr:uid="{479F0893-90B0-4314-9B1D-B67BEEFD8536}"/>
+    <hyperlink ref="H40" r:id="rId92" xr:uid="{AD80FF21-6722-4F90-B04A-2D31DA05E751}"/>
+    <hyperlink ref="N40" r:id="rId93" xr:uid="{D559E430-FAF4-4EE1-8379-890AB8B90EB8}"/>
+    <hyperlink ref="Q40" r:id="rId94" xr:uid="{F6CC58AF-41D1-464C-82A3-1D02E66BCDA1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId89"/>
-  <drawing r:id="rId90"/>
+  <pageSetup orientation="portrait" r:id="rId95"/>
+  <drawing r:id="rId96"/>
 </worksheet>
 </file>
--- a/8Bit Computer ver2.0/excel/chips availability.xlsx
+++ b/8Bit Computer ver2.0/excel/chips availability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Desktop\Computer_HTL\8Bit Computer ver2.0\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DFF5FA-8DFD-4621-BD6A-5A51B7711603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57802DD-7D48-49BA-9B8F-8428C42ED371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9CC7EE1-7E8B-4FEA-8BE1-446B4A860683}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="163">
   <si>
     <t>Boolean Logic</t>
   </si>
@@ -199,9 +199,6 @@
   </si>
   <si>
     <t>74x821</t>
-  </si>
-  <si>
-    <t>for Shift reg</t>
   </si>
   <si>
     <t>use</t>
@@ -409,21 +406,6 @@
   </si>
   <si>
     <r>
-      <t>LS/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HCS</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>ALS/</t>
     </r>
     <r>
@@ -513,9 +495,6 @@
     <t>use need Invert for clk</t>
   </si>
   <si>
-    <t>Looking for replacement</t>
-  </si>
-  <si>
     <t>2x</t>
   </si>
   <si>
@@ -528,9 +507,6 @@
     <t>NOT Included</t>
   </si>
   <si>
-    <t xml:space="preserve">use need 2 for 8Bit </t>
-  </si>
-  <si>
     <t>M29F800FT</t>
   </si>
   <si>
@@ -564,7 +540,55 @@
     <t>use faster as IS</t>
   </si>
   <si>
-    <t>use slower as AS</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AHC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/HCS</t>
+    </r>
+  </si>
+  <si>
+    <t>for clk</t>
+  </si>
+  <si>
+    <t>74x1G08</t>
+  </si>
+  <si>
+    <t>0.30USD</t>
+  </si>
+  <si>
+    <t>LVC</t>
+  </si>
+  <si>
+    <t>74x163</t>
+  </si>
+  <si>
+    <t>Program Counter</t>
+  </si>
+  <si>
+    <t>use 4xfor 16Bit</t>
+  </si>
+  <si>
+    <t>FCT</t>
+  </si>
+  <si>
+    <t>sub 10ns</t>
+  </si>
+  <si>
+    <t>1.3USD</t>
   </si>
 </sst>
 </file>
@@ -574,7 +598,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-1];[Red]\-#,##0.00\ [$€-1]"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,6 +646,20 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0264BE"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -699,7 +737,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -769,21 +807,33 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -793,6 +843,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0264BE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1172,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA67386-7B54-425F-86A0-E9D5FF3EDFA0}">
   <dimension ref="B1:Q118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,10 +1265,10 @@
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>1</v>
@@ -1222,19 +1277,19 @@
         <v>9</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>89</v>
-      </c>
       <c r="H2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>79</v>
-      </c>
       <c r="J2" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>2</v>
@@ -1244,22 +1299,22 @@
       </c>
       <c r="M2" s="14"/>
       <c r="N2" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="O2" s="12" t="s">
-        <v>81</v>
-      </c>
       <c r="P2" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>33</v>
@@ -1268,7 +1323,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="3"/>
@@ -1280,93 +1335,93 @@
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="J4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="N4" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="O4" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="P4" s="27" t="s">
-        <v>141</v>
+      <c r="P4" s="33" t="s">
+        <v>138</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="20" t="s">
-        <v>79</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>113</v>
       </c>
       <c r="L5" s="1"/>
       <c r="N5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="O5" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="P5" s="27" t="s">
-        <v>141</v>
+      <c r="P5" s="26" t="s">
+        <v>138</v>
       </c>
       <c r="Q5" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>32</v>
@@ -1375,41 +1430,41 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="J6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="N6" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="N6" s="5" t="s">
+      <c r="O6" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="O6" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="P6" s="27" t="s">
-        <v>141</v>
+      <c r="P6" s="33" t="s">
+        <v>138</v>
       </c>
       <c r="Q6" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>30</v>
@@ -1418,41 +1473,41 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="J7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="N7" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="N7" s="5" t="s">
+      <c r="O7" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="O7" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="P7" s="27" t="s">
-        <v>141</v>
+      <c r="P7" s="33" t="s">
+        <v>138</v>
       </c>
       <c r="Q7" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>31</v>
@@ -1461,35 +1516,35 @@
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="J8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="N8" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="N8" s="5" t="s">
+      <c r="O8" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="O8" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" s="27" t="s">
-        <v>141</v>
+      <c r="P8" s="33" t="s">
+        <v>138</v>
       </c>
       <c r="Q8" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
@@ -1497,44 +1552,44 @@
         <v>6</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="20" t="s">
-        <v>79</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>114</v>
       </c>
       <c r="L9" s="1"/>
       <c r="N9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O9" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="O9" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="P9" s="27" t="s">
-        <v>141</v>
+      <c r="P9" s="26" t="s">
+        <v>138</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
@@ -1542,60 +1597,82 @@
         <v>2</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>79</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>113</v>
       </c>
       <c r="L10" s="1"/>
       <c r="N10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O10" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="O10" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="P10" s="27" t="s">
-        <v>141</v>
+      <c r="P10" s="26" t="s">
+        <v>138</v>
       </c>
       <c r="Q10" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="C11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>156</v>
+      </c>
       <c r="L11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="N11" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="O11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="P11" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="20" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
@@ -1632,7 +1709,7 @@
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>1</v>
@@ -1641,14 +1718,14 @@
         <v>9</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>79</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>8</v>
@@ -1660,13 +1737,13 @@
         <v>20</v>
       </c>
       <c r="N14" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="O14" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="O14" s="12" t="s">
-        <v>81</v>
-      </c>
       <c r="P14" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="1"/>
     </row>
@@ -1679,10 +1756,10 @@
         <v>34</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="10" t="s">
@@ -1710,10 +1787,10 @@
         <v>35</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="10" t="s">
@@ -1741,10 +1818,10 @@
         <v>37</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="10" t="s">
@@ -1766,44 +1843,44 @@
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="16" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H18" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="I18" s="18" t="s">
-        <v>79</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L18" s="1"/>
       <c r="N18" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="O18" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="O18" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="P18" s="26" t="s">
-        <v>141</v>
+      <c r="P18" s="25" t="s">
+        <v>138</v>
       </c>
       <c r="Q18" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
@@ -1811,42 +1888,42 @@
         <v>1</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L19" s="1"/>
       <c r="N19" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O19" s="18"/>
-      <c r="P19" s="28" t="s">
-        <v>143</v>
+      <c r="P19" s="27" t="s">
+        <v>140</v>
       </c>
       <c r="Q19" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
-      <c r="C20" s="25" t="s">
-        <v>139</v>
+      <c r="C20" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>52</v>
@@ -1855,70 +1932,68 @@
         <v>21</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I20" s="17" t="s">
-        <v>79</v>
-      </c>
       <c r="J20" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L20" s="1"/>
       <c r="N20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O20" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="O20" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="P20" s="26" t="s">
-        <v>141</v>
+      <c r="P20" s="25" t="s">
+        <v>138</v>
       </c>
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>144</v>
+      <c r="B21" s="1"/>
+      <c r="C21" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K21" s="22" t="s">
         <v>29</v>
       </c>
       <c r="L21" s="1"/>
       <c r="N21" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O21" s="21"/>
-      <c r="P21" s="28" t="s">
-        <v>143</v>
+      <c r="P21" s="27" t="s">
+        <v>140</v>
       </c>
       <c r="Q21" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
@@ -1926,16 +2001,16 @@
         <v>1</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="20" t="s">
@@ -1944,18 +2019,18 @@
       <c r="I22" s="17"/>
       <c r="J22" s="1"/>
       <c r="K22" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L22" s="1"/>
       <c r="N22" s="20" t="s">
         <v>51</v>
       </c>
       <c r="O22" s="21"/>
-      <c r="P22" s="26" t="s">
-        <v>141</v>
+      <c r="P22" s="25" t="s">
+        <v>138</v>
       </c>
       <c r="Q22" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
@@ -1964,13 +2039,13 @@
         <v>50</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="10" t="s">
@@ -1983,7 +2058,7 @@
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N23" s="10" t="s">
         <v>51</v>
@@ -2004,7 +2079,7 @@
         <v>21</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="10" t="s">
@@ -2032,10 +2107,10 @@
         <v>38</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7" t="s">
@@ -2057,42 +2132,42 @@
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="I26" s="20" t="s">
-        <v>79</v>
-      </c>
       <c r="J26" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L26" s="1"/>
       <c r="N26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O26" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="O26" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="P26" s="26" t="s">
-        <v>141</v>
+      <c r="P26" s="25" t="s">
+        <v>138</v>
       </c>
       <c r="Q26" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
@@ -2162,10 +2237,10 @@
         <v>46</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -2191,10 +2266,10 @@
         <v>48</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -2210,6 +2285,41 @@
       <c r="N30" s="7"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C31" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J31" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="K31" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="L31" t="s">
+        <v>161</v>
+      </c>
+      <c r="N31" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="P31" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q31" s="20" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
@@ -2279,7 +2389,7 @@
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>1</v>
@@ -2300,10 +2410,10 @@
         <v>2</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N38" s="11" t="s">
         <v>51</v>
@@ -2316,13 +2426,13 @@
         <v>50</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="5" t="s">
@@ -2332,7 +2442,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N39" s="5" t="s">
         <v>51</v>
@@ -2342,16 +2452,16 @@
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="5" t="s">
@@ -2359,35 +2469,35 @@
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K40" s="1"/>
-      <c r="L40" s="31" t="s">
-        <v>154</v>
+      <c r="L40" s="28" t="s">
+        <v>150</v>
       </c>
       <c r="N40" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P40" s="28" t="s">
-        <v>148</v>
+      <c r="P40" s="27" t="s">
+        <v>144</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
-      <c r="C41" s="19" t="s">
-        <v>156</v>
+      <c r="C41" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="5" t="s">
@@ -2395,20 +2505,20 @@
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K41" s="1"/>
-      <c r="L41" s="31" t="s">
-        <v>104</v>
+      <c r="L41" s="28" t="s">
+        <v>103</v>
       </c>
       <c r="N41" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P41" s="26" t="s">
-        <v>141</v>
+      <c r="P41" s="25" t="s">
+        <v>138</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
@@ -2419,13 +2529,13 @@
         <v>50</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="5" t="s">
@@ -2433,23 +2543,23 @@
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N42" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P42" s="26" t="s">
-        <v>141</v>
+      <c r="P42" s="25" t="s">
+        <v>138</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.25">
@@ -2457,16 +2567,16 @@
         <v>3</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="5" t="s">
@@ -2474,23 +2584,23 @@
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N43" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P43" s="28" t="s">
-        <v>148</v>
+      <c r="P43" s="27" t="s">
+        <v>144</v>
       </c>
       <c r="Q43" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
@@ -2501,13 +2611,13 @@
         <v>50</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="5" t="s">
@@ -2515,7 +2625,7 @@
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2523,7 +2633,7 @@
         <v>51</v>
       </c>
       <c r="Q44" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
@@ -2531,51 +2641,51 @@
         <v>3</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="N45" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P45" s="26" t="s">
-        <v>141</v>
+      <c r="P45" s="25" t="s">
+        <v>138</v>
       </c>
       <c r="Q45" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C46" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="5" t="s">
@@ -2583,18 +2693,18 @@
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="N46" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P46" s="26" t="s">
-        <v>141</v>
+      <c r="P46" s="25" t="s">
+        <v>138</v>
       </c>
       <c r="Q46" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
@@ -2602,19 +2712,19 @@
         <v>9</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H47" s="17" t="s">
         <v>7</v>
@@ -2627,47 +2737,47 @@
       <c r="N47" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="P47" s="26" t="s">
-        <v>141</v>
+      <c r="P47" s="25" t="s">
+        <v>138</v>
       </c>
       <c r="Q47" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="N48" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P48" s="26" t="s">
-        <v>141</v>
+      <c r="P48" s="25" t="s">
+        <v>138</v>
       </c>
       <c r="Q48" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.25">
@@ -3575,9 +3685,15 @@
     <hyperlink ref="H40" r:id="rId92" xr:uid="{AD80FF21-6722-4F90-B04A-2D31DA05E751}"/>
     <hyperlink ref="N40" r:id="rId93" xr:uid="{D559E430-FAF4-4EE1-8379-890AB8B90EB8}"/>
     <hyperlink ref="Q40" r:id="rId94" xr:uid="{F6CC58AF-41D1-464C-82A3-1D02E66BCDA1}"/>
+    <hyperlink ref="H11" r:id="rId95" xr:uid="{CE72A743-F1DB-4D14-8AD0-EE390C285974}"/>
+    <hyperlink ref="N11" r:id="rId96" xr:uid="{C54F2BFB-8DD6-4F25-A830-35475191DC46}"/>
+    <hyperlink ref="Q11" r:id="rId97" xr:uid="{B9AAF792-69CB-4E97-A1A5-DF3AD9CDA261}"/>
+    <hyperlink ref="H31" r:id="rId98" xr:uid="{A32FF633-6FAE-4F14-9219-BF1B3A31C39E}"/>
+    <hyperlink ref="N31" r:id="rId99" xr:uid="{C2B3435C-B6C9-4623-96B3-A15699412865}"/>
+    <hyperlink ref="Q31" r:id="rId100" xr:uid="{CA7EDBD9-E87F-465B-92B2-E611A1E8A2F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId95"/>
-  <drawing r:id="rId96"/>
+  <pageSetup orientation="portrait" r:id="rId101"/>
+  <drawing r:id="rId102"/>
 </worksheet>
 </file>
--- a/8Bit Computer ver2.0/excel/chips availability.xlsx
+++ b/8Bit Computer ver2.0/excel/chips availability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Desktop\Computer_HTL\8Bit Computer ver2.0\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57802DD-7D48-49BA-9B8F-8428C42ED371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A09B5A-02A5-4906-9828-CECA3FF6890C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9CC7EE1-7E8B-4FEA-8BE1-446B4A860683}"/>
+    <workbookView xWindow="-25320" yWindow="315" windowWidth="25440" windowHeight="15270" xr2:uid="{E9CC7EE1-7E8B-4FEA-8BE1-446B4A860683}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="168">
   <si>
     <t>Boolean Logic</t>
   </si>
@@ -406,21 +406,6 @@
   </si>
   <si>
     <r>
-      <t>ALS/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AC</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>S/</t>
     </r>
     <r>
@@ -468,18 +453,6 @@
     <t>Dlatch</t>
   </si>
   <si>
-    <t>SN74HCS74</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>SN74HCS574</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
     <t>TriState</t>
   </si>
   <si>
@@ -504,9 +477,6 @@
     <t>CD74x194</t>
   </si>
   <si>
-    <t>NOT Included</t>
-  </si>
-  <si>
     <t>M29F800FT</t>
   </si>
   <si>
@@ -514,9 +484,6 @@
   </si>
   <si>
     <t>~4USD</t>
-  </si>
-  <si>
-    <t>Not Included</t>
   </si>
   <si>
     <t>use for cmds</t>
@@ -589,6 +556,77 @@
   </si>
   <si>
     <t>1.3USD</t>
+  </si>
+  <si>
+    <t>Requested 10.10</t>
+  </si>
+  <si>
+    <t>SN74x574</t>
+  </si>
+  <si>
+    <t>0.4/0.9</t>
+  </si>
+  <si>
+    <t>16.7/6.6ns</t>
+  </si>
+  <si>
+    <t>BUY1</t>
+  </si>
+  <si>
+    <t>BUY2</t>
+  </si>
+  <si>
+    <t>Register/Buffer</t>
+  </si>
+  <si>
+    <t>SN74x74</t>
+  </si>
+  <si>
+    <r>
+      <t>HCS/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ABT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>HCS/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AHC</t>
+    </r>
+  </si>
+  <si>
+    <t>0.2/0.3</t>
+  </si>
+  <si>
+    <r>
+      <t>ALS/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AC</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -704,13 +742,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,7 +775,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -811,8 +849,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -821,21 +864,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1225,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA67386-7B54-425F-86A0-E9D5FF3EDFA0}">
-  <dimension ref="B1:Q118"/>
+  <dimension ref="B1:R118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,17 +1279,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
@@ -1308,7 +1338,7 @@
         <v>91</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
@@ -1349,7 +1379,7 @@
       <c r="G4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="29" t="s">
         <v>77</v>
       </c>
       <c r="I4" s="17" t="s">
@@ -1358,8 +1388,8 @@
       <c r="J4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K4" s="31" t="s">
-        <v>152</v>
+      <c r="K4" s="28" t="s">
+        <v>145</v>
       </c>
       <c r="L4" s="1"/>
       <c r="N4" s="20" t="s">
@@ -1368,11 +1398,11 @@
       <c r="O4" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="P4" s="33" t="s">
-        <v>138</v>
+      <c r="P4" s="26" t="s">
+        <v>133</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
@@ -1401,7 +1431,7 @@
       <c r="J5" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="28" t="s">
         <v>113</v>
       </c>
       <c r="L5" s="1"/>
@@ -1412,10 +1442,10 @@
         <v>80</v>
       </c>
       <c r="P5" s="26" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q5" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
@@ -1444,8 +1474,8 @@
       <c r="J6" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K6" s="31" t="s">
-        <v>152</v>
+      <c r="K6" s="28" t="s">
+        <v>145</v>
       </c>
       <c r="L6" s="1"/>
       <c r="N6" s="20" t="s">
@@ -1454,11 +1484,11 @@
       <c r="O6" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="P6" s="33" t="s">
-        <v>138</v>
+      <c r="P6" s="26" t="s">
+        <v>133</v>
       </c>
       <c r="Q6" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
@@ -1487,8 +1517,8 @@
       <c r="J7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K7" s="31" t="s">
-        <v>152</v>
+      <c r="K7" s="28" t="s">
+        <v>145</v>
       </c>
       <c r="L7" s="1"/>
       <c r="N7" s="20" t="s">
@@ -1497,11 +1527,11 @@
       <c r="O7" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="P7" s="33" t="s">
-        <v>138</v>
+      <c r="P7" s="26" t="s">
+        <v>133</v>
       </c>
       <c r="Q7" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
@@ -1530,8 +1560,8 @@
       <c r="J8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K8" s="31" t="s">
-        <v>152</v>
+      <c r="K8" s="28" t="s">
+        <v>145</v>
       </c>
       <c r="L8" s="1"/>
       <c r="N8" s="20" t="s">
@@ -1540,11 +1570,11 @@
       <c r="O8" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="P8" s="33" t="s">
-        <v>138</v>
+      <c r="P8" s="26" t="s">
+        <v>133</v>
       </c>
       <c r="Q8" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
@@ -1575,7 +1605,7 @@
       <c r="J9" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K9" s="31" t="s">
+      <c r="K9" s="28" t="s">
         <v>114</v>
       </c>
       <c r="L9" s="1"/>
@@ -1586,10 +1616,10 @@
         <v>80</v>
       </c>
       <c r="P9" s="26" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
@@ -1620,7 +1650,7 @@
       <c r="J10" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="K10" s="28" t="s">
         <v>113</v>
       </c>
       <c r="L10" s="1"/>
@@ -1631,10 +1661,10 @@
         <v>80</v>
       </c>
       <c r="P10" s="26" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q10" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
@@ -1643,7 +1673,7 @@
         <v>55</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
@@ -1657,21 +1687,21 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="L11" s="1"/>
       <c r="N11" s="20" t="s">
         <v>79</v>
       </c>
       <c r="O11" s="1"/>
-      <c r="P11" s="33" t="s">
-        <v>3</v>
+      <c r="P11" s="26" t="s">
+        <v>133</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
@@ -1691,17 +1721,17 @@
     </row>
     <row r="13" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="Q13" s="1"/>
@@ -1843,7 +1873,7 @@
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="16" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>41</v>
@@ -1877,10 +1907,10 @@
         <v>80</v>
       </c>
       <c r="P18" s="25" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
@@ -1888,10 +1918,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>64</v>
@@ -1906,18 +1936,18 @@
       <c r="I19" s="18"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="L19" s="1"/>
       <c r="N19" s="20" t="s">
         <v>79</v>
       </c>
       <c r="O19" s="18"/>
-      <c r="P19" s="27" t="s">
-        <v>140</v>
+      <c r="P19" s="25" t="s">
+        <v>133</v>
       </c>
       <c r="Q19" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -1945,7 +1975,7 @@
         <v>93</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="L20" s="1"/>
       <c r="N20" s="5" t="s">
@@ -1955,7 +1985,7 @@
         <v>80</v>
       </c>
       <c r="P20" s="25" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="1"/>
     </row>
@@ -1965,7 +1995,7 @@
         <v>50</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>21</v>
@@ -1979,7 +2009,7 @@
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K21" s="22" t="s">
         <v>29</v>
@@ -1989,25 +2019,21 @@
         <v>79</v>
       </c>
       <c r="O21" s="21"/>
-      <c r="P21" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q21" s="20" t="s">
-        <v>126</v>
-      </c>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="17"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>1</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>61</v>
@@ -2019,7 +2045,7 @@
       <c r="I22" s="17"/>
       <c r="J22" s="1"/>
       <c r="K22" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L22" s="1"/>
       <c r="N22" s="20" t="s">
@@ -2027,10 +2053,10 @@
       </c>
       <c r="O22" s="21"/>
       <c r="P22" s="25" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
@@ -2039,7 +2065,7 @@
         <v>50</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>12</v>
@@ -2154,7 +2180,7 @@
         <v>92</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L26" s="1"/>
       <c r="N26" s="5" t="s">
@@ -2164,10 +2190,10 @@
         <v>80</v>
       </c>
       <c r="P26" s="25" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q26" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
@@ -2288,40 +2314,40 @@
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C31" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="F31" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H31" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="J31" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="K31" s="35" t="s">
-        <v>160</v>
+      <c r="J31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K31" s="22" t="s">
+        <v>153</v>
       </c>
       <c r="L31" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="N31" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="P31" s="27" t="s">
-        <v>144</v>
+      <c r="P31" s="25" t="s">
+        <v>133</v>
       </c>
       <c r="Q31" s="20" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2332,7 +2358,7 @@
       <c r="L33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2345,7 +2371,7 @@
       <c r="L34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -2358,7 +2384,7 @@
       <c r="L35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -2371,22 +2397,22 @@
       <c r="L36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:18" ht="21" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="11" t="s">
         <v>59</v>
@@ -2420,7 +2446,7 @@
       </c>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="9" t="s">
         <v>50</v>
@@ -2449,13 +2475,13 @@
       </c>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="19" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>70</v>
@@ -2469,23 +2495,23 @@
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="27" t="s">
         <v>143</v>
-      </c>
-      <c r="K40" s="1"/>
-      <c r="L40" s="28" t="s">
-        <v>150</v>
       </c>
       <c r="N40" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P40" s="27" t="s">
-        <v>144</v>
+      <c r="P40" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="23" t="s">
         <v>50</v>
@@ -2508,20 +2534,20 @@
         <v>106</v>
       </c>
       <c r="K41" s="1"/>
-      <c r="L41" s="28" t="s">
+      <c r="L41" s="27" t="s">
         <v>103</v>
       </c>
       <c r="N41" s="5" t="s">
         <v>51</v>
       </c>
       <c r="P41" s="25" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>3</v>
       </c>
@@ -2556,13 +2582,13 @@
         <v>51</v>
       </c>
       <c r="P42" s="25" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>3</v>
       </c>
@@ -2570,13 +2596,13 @@
         <v>55</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="5" t="s">
@@ -2584,7 +2610,7 @@
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1" t="s">
@@ -2596,14 +2622,14 @@
       <c r="N43" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P43" s="27" t="s">
-        <v>144</v>
+      <c r="P43" s="25" t="s">
+        <v>133</v>
       </c>
       <c r="Q43" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>3</v>
       </c>
@@ -2611,13 +2637,13 @@
         <v>50</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="5" t="s">
@@ -2625,7 +2651,7 @@
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2633,10 +2659,10 @@
         <v>51</v>
       </c>
       <c r="Q44" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>3</v>
       </c>
@@ -2644,70 +2670,92 @@
         <v>55</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="G45" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I45" s="1"/>
+      <c r="I45" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="J45" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
+        <v>158</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="N45" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="O45" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="P45" s="25" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q45" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C46" s="19" t="s">
         <v>55</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I46" s="1"/>
+      <c r="I46" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="J46" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K46" s="1"/>
+        <v>166</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="L46" s="1"/>
       <c r="N46" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="O46" s="21" t="s">
+        <v>80</v>
+      </c>
       <c r="P46" s="25" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q46" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>9</v>
       </c>
@@ -2724,7 +2772,7 @@
         <v>63</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H47" s="17" t="s">
         <v>7</v>
@@ -2738,35 +2786,35 @@
         <v>51</v>
       </c>
       <c r="P47" s="25" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q47" s="17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="19" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="24" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2774,10 +2822,10 @@
         <v>51</v>
       </c>
       <c r="P48" s="25" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q48" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.25">
@@ -2796,17 +2844,17 @@
       <c r="Q49" s="5"/>
     </row>
     <row r="50" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="D50" s="29" t="s">
+      <c r="D50" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
       <c r="N50" s="1"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.25">
@@ -3669,31 +3717,36 @@
     <hyperlink ref="H46" r:id="rId76" xr:uid="{DB6CD851-AFD1-4479-B0D4-453D0BFD7FA5}"/>
     <hyperlink ref="H45" r:id="rId77" xr:uid="{EC464FC1-1A89-4154-9F52-A74B0BFEE481}"/>
     <hyperlink ref="N45" r:id="rId78" xr:uid="{92B45BB2-CC01-4CB5-9E3E-7D2C4BE24F3E}"/>
-    <hyperlink ref="Q45" r:id="rId79" xr:uid="{60FF01C3-49F8-48A7-8F9E-481F332B29F7}"/>
+    <hyperlink ref="Q45" r:id="rId79" display="BUY" xr:uid="{60FF01C3-49F8-48A7-8F9E-481F332B29F7}"/>
     <hyperlink ref="H48" r:id="rId80" xr:uid="{C919B7E8-F2A3-44C6-AAA3-C9AFF9838425}"/>
     <hyperlink ref="N48" r:id="rId81" xr:uid="{75618C90-808E-40B6-8DA5-E93A774B00F4}"/>
     <hyperlink ref="Q48" r:id="rId82" xr:uid="{D31F91A2-72C6-4E63-8486-ACC3D5798E3F}"/>
     <hyperlink ref="H21" r:id="rId83" xr:uid="{B28AB376-A24C-4CE7-96AA-2CA3B384903C}"/>
     <hyperlink ref="N21" r:id="rId84" xr:uid="{2462CC12-CD75-42B8-B52E-FC208A0C0D00}"/>
-    <hyperlink ref="Q21" r:id="rId85" xr:uid="{082B777D-F6C8-4B32-8EE7-5B1CC851EF9A}"/>
-    <hyperlink ref="N43" r:id="rId86" xr:uid="{ADDC0E5E-3350-43F7-970D-90AA6A715DC7}"/>
-    <hyperlink ref="Q43" r:id="rId87" xr:uid="{5F94472F-CA2B-4DB3-8ADB-7E4F7C6EB981}"/>
-    <hyperlink ref="H43" r:id="rId88" location="M29F800FT55N3E2" xr:uid="{799044EA-6D81-4EB5-87E5-41CE14255DBB}"/>
-    <hyperlink ref="H19" r:id="rId89" xr:uid="{B19B548D-587F-4116-A7DB-B2A506DECA30}"/>
-    <hyperlink ref="N19" r:id="rId90" xr:uid="{744CEDEB-72A5-4048-A91C-2A88578DFA95}"/>
-    <hyperlink ref="Q19" r:id="rId91" xr:uid="{479F0893-90B0-4314-9B1D-B67BEEFD8536}"/>
-    <hyperlink ref="H40" r:id="rId92" xr:uid="{AD80FF21-6722-4F90-B04A-2D31DA05E751}"/>
-    <hyperlink ref="N40" r:id="rId93" xr:uid="{D559E430-FAF4-4EE1-8379-890AB8B90EB8}"/>
-    <hyperlink ref="Q40" r:id="rId94" xr:uid="{F6CC58AF-41D1-464C-82A3-1D02E66BCDA1}"/>
-    <hyperlink ref="H11" r:id="rId95" xr:uid="{CE72A743-F1DB-4D14-8AD0-EE390C285974}"/>
-    <hyperlink ref="N11" r:id="rId96" xr:uid="{C54F2BFB-8DD6-4F25-A830-35475191DC46}"/>
-    <hyperlink ref="Q11" r:id="rId97" xr:uid="{B9AAF792-69CB-4E97-A1A5-DF3AD9CDA261}"/>
-    <hyperlink ref="H31" r:id="rId98" xr:uid="{A32FF633-6FAE-4F14-9219-BF1B3A31C39E}"/>
-    <hyperlink ref="N31" r:id="rId99" xr:uid="{C2B3435C-B6C9-4623-96B3-A15699412865}"/>
-    <hyperlink ref="Q31" r:id="rId100" xr:uid="{CA7EDBD9-E87F-465B-92B2-E611A1E8A2F3}"/>
+    <hyperlink ref="N43" r:id="rId85" xr:uid="{ADDC0E5E-3350-43F7-970D-90AA6A715DC7}"/>
+    <hyperlink ref="Q43" r:id="rId86" xr:uid="{5F94472F-CA2B-4DB3-8ADB-7E4F7C6EB981}"/>
+    <hyperlink ref="H43" r:id="rId87" location="M29F800FT55N3E2" xr:uid="{799044EA-6D81-4EB5-87E5-41CE14255DBB}"/>
+    <hyperlink ref="H19" r:id="rId88" xr:uid="{B19B548D-587F-4116-A7DB-B2A506DECA30}"/>
+    <hyperlink ref="N19" r:id="rId89" xr:uid="{744CEDEB-72A5-4048-A91C-2A88578DFA95}"/>
+    <hyperlink ref="Q19" r:id="rId90" xr:uid="{479F0893-90B0-4314-9B1D-B67BEEFD8536}"/>
+    <hyperlink ref="H40" r:id="rId91" xr:uid="{AD80FF21-6722-4F90-B04A-2D31DA05E751}"/>
+    <hyperlink ref="N40" r:id="rId92" xr:uid="{D559E430-FAF4-4EE1-8379-890AB8B90EB8}"/>
+    <hyperlink ref="Q40" r:id="rId93" xr:uid="{F6CC58AF-41D1-464C-82A3-1D02E66BCDA1}"/>
+    <hyperlink ref="H11" r:id="rId94" xr:uid="{CE72A743-F1DB-4D14-8AD0-EE390C285974}"/>
+    <hyperlink ref="N11" r:id="rId95" xr:uid="{C54F2BFB-8DD6-4F25-A830-35475191DC46}"/>
+    <hyperlink ref="Q11" r:id="rId96" xr:uid="{B9AAF792-69CB-4E97-A1A5-DF3AD9CDA261}"/>
+    <hyperlink ref="H31" r:id="rId97" xr:uid="{A32FF633-6FAE-4F14-9219-BF1B3A31C39E}"/>
+    <hyperlink ref="N31" r:id="rId98" xr:uid="{C2B3435C-B6C9-4623-96B3-A15699412865}"/>
+    <hyperlink ref="Q31" r:id="rId99" xr:uid="{CA7EDBD9-E87F-465B-92B2-E611A1E8A2F3}"/>
+    <hyperlink ref="I45" r:id="rId100" xr:uid="{80681B69-8466-4DFE-96ED-DB881695E038}"/>
+    <hyperlink ref="O45" r:id="rId101" xr:uid="{1B8723FB-A3B0-4E37-96D5-15DB9C36F4B5}"/>
+    <hyperlink ref="R45" r:id="rId102" xr:uid="{82050D3A-369C-4A89-B315-91B61CF1C78C}"/>
+    <hyperlink ref="I46" r:id="rId103" xr:uid="{E28D4DD1-FCF4-4B5B-B4C1-AFA61830DC34}"/>
+    <hyperlink ref="O46" r:id="rId104" xr:uid="{561E090A-DF6F-4E16-9BBE-4D0C5BFBE235}"/>
+    <hyperlink ref="R46" r:id="rId105" xr:uid="{E490637B-3166-45F4-A700-96DD65491731}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId101"/>
-  <drawing r:id="rId102"/>
+  <pageSetup orientation="portrait" r:id="rId106"/>
+  <drawing r:id="rId107"/>
 </worksheet>
 </file>
--- a/8Bit Computer ver2.0/excel/chips availability.xlsx
+++ b/8Bit Computer ver2.0/excel/chips availability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Desktop\Computer_HTL\8Bit Computer ver2.0\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A09B5A-02A5-4906-9828-CECA3FF6890C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792AABC6-64BC-48E2-ACE4-BD2668ED22F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="315" windowWidth="25440" windowHeight="15270" xr2:uid="{E9CC7EE1-7E8B-4FEA-8BE1-446B4A860683}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9CC7EE1-7E8B-4FEA-8BE1-446B4A860683}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="175">
   <si>
     <t>Boolean Logic</t>
   </si>
@@ -627,6 +627,27 @@
       </rPr>
       <t>AC</t>
     </r>
+  </si>
+  <si>
+    <t>SN74AHC157</t>
+  </si>
+  <si>
+    <t>MUX(Barrelshifter)</t>
+  </si>
+  <si>
+    <t>4x2in</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>AHC</t>
+  </si>
+  <si>
+    <t>7.5ns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
   </si>
 </sst>
 </file>
@@ -775,7 +796,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -858,14 +879,13 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1257,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA67386-7B54-425F-86A0-E9D5FF3EDFA0}">
   <dimension ref="B1:R118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,17 +1299,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
@@ -1721,17 +1741,17 @@
     </row>
     <row r="13" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="Q13" s="1"/>
@@ -2019,7 +2039,6 @@
         <v>79</v>
       </c>
       <c r="O21" s="21"/>
-      <c r="P21" s="33"/>
       <c r="Q21" s="17"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
@@ -2399,17 +2418,17 @@
     </row>
     <row r="37" spans="2:18" ht="21" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
       <c r="Q37" s="1"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
@@ -2504,7 +2523,7 @@
       <c r="N40" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P40" s="32" t="s">
+      <c r="P40" s="30" t="s">
         <v>156</v>
       </c>
       <c r="Q40" s="5" t="s">
@@ -2829,35 +2848,63 @@
       </c>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="B49" s="1">
+        <v>6</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="G49" s="1"/>
-      <c r="H49" s="5"/>
+      <c r="H49" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="I49" s="3"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="N49" s="5"/>
-      <c r="Q49" s="5"/>
+      <c r="J49" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L49" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P49" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="50" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="D50" s="30" t="s">
+      <c r="D50" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
       <c r="N50" s="1"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C51" s="19" t="s">
+        <v>174</v>
+      </c>
       <c r="D51" s="2" t="s">
         <v>1</v>
       </c>
@@ -3744,9 +3791,12 @@
     <hyperlink ref="I46" r:id="rId103" xr:uid="{E28D4DD1-FCF4-4B5B-B4C1-AFA61830DC34}"/>
     <hyperlink ref="O46" r:id="rId104" xr:uid="{561E090A-DF6F-4E16-9BBE-4D0C5BFBE235}"/>
     <hyperlink ref="R46" r:id="rId105" xr:uid="{E490637B-3166-45F4-A700-96DD65491731}"/>
+    <hyperlink ref="H49" r:id="rId106" xr:uid="{6B8DD429-C9B9-47AB-A0C6-54D995A37D94}"/>
+    <hyperlink ref="N49" r:id="rId107" xr:uid="{4E953440-E8A9-4951-87F1-67157569F240}"/>
+    <hyperlink ref="Q49" r:id="rId108" xr:uid="{57B388A3-75E6-488D-BE2B-D9B833BACB45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId106"/>
-  <drawing r:id="rId107"/>
+  <pageSetup orientation="portrait" r:id="rId109"/>
+  <drawing r:id="rId110"/>
 </worksheet>
 </file>
--- a/8Bit Computer ver2.0/excel/chips availability.xlsx
+++ b/8Bit Computer ver2.0/excel/chips availability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Desktop\Computer_HTL\8Bit Computer ver2.0\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792AABC6-64BC-48E2-ACE4-BD2668ED22F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215C214C-4C92-460E-8513-698F37560231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9CC7EE1-7E8B-4FEA-8BE1-446B4A860683}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="187">
   <si>
     <t>Boolean Logic</t>
   </si>
@@ -558,9 +558,6 @@
     <t>1.3USD</t>
   </si>
   <si>
-    <t>Requested 10.10</t>
-  </si>
-  <si>
     <t>SN74x574</t>
   </si>
   <si>
@@ -648,6 +645,45 @@
   </si>
   <si>
     <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t>SN74x1G86</t>
+  </si>
+  <si>
+    <t>XOR</t>
+  </si>
+  <si>
+    <t>use need pullup res</t>
+  </si>
+  <si>
+    <t>SN74ABT245B</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>SN74ABT16245A</t>
+  </si>
+  <si>
+    <t>1.6USD</t>
+  </si>
+  <si>
+    <t>0.8USD</t>
+  </si>
+  <si>
+    <t>ABT</t>
+  </si>
+  <si>
+    <t>74x521</t>
+  </si>
+  <si>
+    <t>8Bit identity</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -724,7 +760,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -767,12 +803,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -796,7 +826,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -879,7 +909,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -915,13 +944,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>588741</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1275,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA67386-7B54-425F-86A0-E9D5FF3EDFA0}">
-  <dimension ref="B1:R118"/>
+  <dimension ref="B1:R122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,17 +1328,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
@@ -1726,106 +1755,112 @@
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="C12" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>149</v>
+      </c>
       <c r="L12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="N12" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="O12" s="1"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="P12" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q12" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="D13" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
-      <c r="C14" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>91</v>
-      </c>
+      <c r="D14" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
-      <c r="C15" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="7"/>
-      <c r="P15" s="1"/>
+      <c r="C15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
@@ -1834,7 +1869,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>64</v>
@@ -1847,8 +1882,8 @@
         <v>7</v>
       </c>
       <c r="I16" s="10"/>
-      <c r="J16" s="7" t="s">
-        <v>19</v>
+      <c r="J16" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
@@ -1865,7 +1900,7 @@
         <v>50</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>64</v>
@@ -1879,10 +1914,10 @@
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="6"/>
@@ -1892,77 +1927,71 @@
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="7"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="1"/>
-      <c r="N18" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="O18" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="P18" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q18" s="20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="H19" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="1"/>
+      <c r="I19" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="K19" s="1" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="L19" s="1"/>
       <c r="N19" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="O19" s="18"/>
+      <c r="O19" s="18" t="s">
+        <v>80</v>
+      </c>
       <c r="P19" s="25" t="s">
         <v>133</v>
       </c>
@@ -1972,176 +2001,185 @@
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
-      <c r="C20" s="23" t="s">
-        <v>50</v>
+      <c r="C20" s="16" t="s">
+        <v>138</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>52</v>
+        <v>183</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>78</v>
-      </c>
+      <c r="H20" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="18"/>
       <c r="J20" s="1" t="s">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="L20" s="1"/>
-      <c r="N20" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="O20" s="21" t="s">
-        <v>80</v>
-      </c>
+      <c r="N20" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="O20" s="18"/>
       <c r="P20" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="Q20" s="1"/>
+      <c r="Q20" s="20" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="23" t="s">
-        <v>50</v>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>139</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K21" s="22" t="s">
-        <v>29</v>
+      <c r="I21" s="18"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="L21" s="1"/>
       <c r="N21" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="O21" s="21"/>
-      <c r="Q21" s="17"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q21" s="20" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>146</v>
+      <c r="B22" s="1"/>
+      <c r="C22" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="22" t="s">
-        <v>119</v>
+      <c r="H22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="L22" s="1"/>
-      <c r="N22" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="O22" s="21"/>
+      <c r="N22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O22" s="21" t="s">
+        <v>80</v>
+      </c>
       <c r="P22" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="Q22" s="20" t="s">
-        <v>125</v>
-      </c>
+      <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="D23" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" s="17"/>
+      <c r="J23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="N23" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="O23" s="21"/>
+      <c r="Q23" s="17"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="10" t="s">
+      <c r="G24" s="1"/>
+      <c r="H24" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="N23" s="10" t="s">
+      <c r="I24" s="17"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="N24" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="O23" s="6"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="7"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q24" s="20" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
@@ -2149,71 +2187,64 @@
         <v>50</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G25" s="7"/>
-      <c r="H25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="H25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="7"/>
       <c r="K25" s="7" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="L25" s="7"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="7"/>
+      <c r="M25" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O25" s="6"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="C26" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="C26" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L26" s="1"/>
-      <c r="N26" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="O26" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="P26" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q26" s="20" t="s">
-        <v>125</v>
-      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="10"/>
+      <c r="J26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" s="7"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="7"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
@@ -2221,12 +2252,14 @@
         <v>50</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7" t="s">
         <v>27</v>
@@ -2246,32 +2279,44 @@
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
-      <c r="C28" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" s="7"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="7"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
+      <c r="C28" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="N28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O28" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="P28" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q28" s="20" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
@@ -2279,25 +2324,25 @@
         <v>50</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>61</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="H29" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="I29" s="7"/>
-      <c r="J29" s="6"/>
+      <c r="J29" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="K29" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L29" s="7"/>
-      <c r="M29" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="M29" s="6"/>
       <c r="N29" s="7"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -2308,87 +2353,121 @@
         <v>50</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>61</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="H30" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
+      <c r="J30" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="K30" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L30" s="7" t="s">
-        <v>49</v>
-      </c>
+      <c r="L30" s="7"/>
       <c r="M30" s="6"/>
       <c r="N30" s="7"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C31" s="19" t="s">
+      <c r="B31" s="1"/>
+      <c r="C31" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" s="7"/>
+      <c r="M31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N31" s="7"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M32" s="6"/>
+      <c r="N32" s="7"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C33" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="20" t="s">
+      <c r="H33" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="K31" s="22" t="s">
+      <c r="K33" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L33" t="s">
         <v>154</v>
       </c>
-      <c r="N31" s="20" t="s">
+      <c r="N33" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="P31" s="25" t="s">
+      <c r="P33" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="Q31" s="20" t="s">
+      <c r="Q33" s="20" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="Q33" s="1"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
@@ -2396,8 +2475,6 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2416,186 +2493,135 @@
       <c r="L36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
-      <c r="D37" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
-      <c r="C38" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="K38" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L38" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M38" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="N38" s="11" t="s">
-        <v>51</v>
-      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:18" ht="21" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
-      <c r="C39" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" s="5"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="N39" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="D39" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
       <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
-      <c r="C40" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="5" t="s">
+      <c r="C40" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="5"/>
-      <c r="J40" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K40" s="1"/>
-      <c r="L40" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="N40" s="5" t="s">
+      <c r="I40" s="11"/>
+      <c r="J40" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N40" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="P40" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q40" s="5" t="s">
-        <v>125</v>
-      </c>
+      <c r="Q40" s="1"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I41" s="5"/>
-      <c r="J41" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="27" t="s">
-        <v>103</v>
+      <c r="L41" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="N41" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P41" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q41" s="5" t="s">
-        <v>125</v>
-      </c>
+      <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="1">
-        <v>3</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>50</v>
+      <c r="B42" s="1"/>
+      <c r="C42" s="19" t="s">
+        <v>144</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I42" s="1"/>
+      <c r="I42" s="5"/>
       <c r="J42" s="1" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="K42" s="1"/>
-      <c r="L42" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M42" t="s">
-        <v>105</v>
+      <c r="L42" s="27" t="s">
+        <v>143</v>
       </c>
       <c r="N42" s="5" t="s">
         <v>51</v>
@@ -2608,35 +2634,30 @@
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B43" s="1">
-        <v>3</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>55</v>
+      <c r="B43" s="1"/>
+      <c r="C43" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="1"/>
+      <c r="I43" s="5"/>
       <c r="J43" s="1" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="K43" s="1"/>
-      <c r="L43" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M43" t="s">
-        <v>105</v>
+      <c r="L43" s="27" t="s">
+        <v>103</v>
       </c>
       <c r="N43" s="5" t="s">
         <v>51</v>
@@ -2649,20 +2670,20 @@
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B44">
+      <c r="B44" s="1">
         <v>3</v>
       </c>
       <c r="C44" s="23" t="s">
         <v>50</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="5" t="s">
@@ -2670,12 +2691,20 @@
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
+      <c r="L44" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M44" t="s">
+        <v>105</v>
+      </c>
       <c r="N44" s="5" t="s">
         <v>51</v>
+      </c>
+      <c r="P44" s="25" t="s">
+        <v>133</v>
       </c>
       <c r="Q44" s="5" t="s">
         <v>125</v>
@@ -2689,311 +2718,418 @@
         <v>55</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>127</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G45" s="1"/>
       <c r="H45" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I45" s="5" t="s">
-        <v>78</v>
-      </c>
+      <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>164</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="K45" s="1"/>
       <c r="L45" s="1" t="s">
-        <v>159</v>
+        <v>101</v>
+      </c>
+      <c r="M45" t="s">
+        <v>105</v>
       </c>
       <c r="N45" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="O45" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="P45" s="25" t="s">
         <v>133</v>
       </c>
       <c r="Q45" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="R45" s="5" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C46" s="19" t="s">
-        <v>55</v>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I46" s="5" t="s">
-        <v>78</v>
-      </c>
+      <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>165</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="N46" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="O46" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="P46" s="25" t="s">
-        <v>133</v>
-      </c>
       <c r="Q46" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="R46" s="5" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
-        <v>9</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>56</v>
+        <v>3</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H47" s="17" t="s">
+      <c r="H47" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I47" s="5"/>
+      <c r="I47" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="K47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L47" s="1"/>
-      <c r="N47" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N47" s="5" t="s">
         <v>51</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="P47" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="Q47" s="17" t="s">
-        <v>125</v>
+      <c r="Q47" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
       <c r="C48" s="19" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>127</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G48" s="1"/>
       <c r="H48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I48" s="3"/>
-      <c r="J48" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="K48" s="1"/>
+      <c r="I48" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="L48" s="1"/>
       <c r="N48" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="O48" s="21" t="s">
+        <v>80</v>
+      </c>
       <c r="P48" s="25" t="s">
         <v>133</v>
       </c>
       <c r="Q48" s="5" t="s">
         <v>125</v>
       </c>
+      <c r="R48" s="5" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
-        <v>6</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>55</v>
+        <v>9</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>168</v>
+        <v>54</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>169</v>
+        <v>67</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H49" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="24" t="s">
-        <v>171</v>
-      </c>
+      <c r="I49" s="5"/>
       <c r="K49" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="L49" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="N49" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49" s="1"/>
+      <c r="N49" s="17" t="s">
         <v>51</v>
       </c>
       <c r="P49" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="Q49" s="5" t="s">
+      <c r="Q49" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="D50" s="31" t="s">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+      <c r="C50" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L50" s="1"/>
+      <c r="N50" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P50" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <v>6</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L51" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P51" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q51" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
+      <c r="C52" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L52" s="24"/>
+      <c r="N52" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P52" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q52" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+      <c r="C53" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L53" s="24"/>
+      <c r="N53" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P53" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q53" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="D54" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C51" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C55" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2" t="s">
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2" t="s">
+      <c r="I55" s="2"/>
+      <c r="J55" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="K55" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="L55" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="1" t="s">
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D56" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I52" s="4"/>
-      <c r="J52" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L52" s="1"/>
-      <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
+      <c r="H56" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" s="4"/>
+      <c r="J56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="L56" s="1"/>
+      <c r="N56" s="1"/>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
@@ -3005,6 +3141,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
+      <c r="N57" s="1"/>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
@@ -3429,8 +3566,8 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
@@ -3440,8 +3577,8 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
@@ -3451,8 +3588,8 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
@@ -3462,8 +3599,8 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
@@ -3677,34 +3814,78 @@
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
     </row>
+    <row r="119" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+    </row>
+    <row r="120" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+    </row>
+    <row r="121" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+    </row>
+    <row r="122" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D37:L37"/>
-    <mergeCell ref="D50:L50"/>
-    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="D39:L39"/>
+    <mergeCell ref="D54:L54"/>
+    <mergeCell ref="D14:L14"/>
     <mergeCell ref="D1:L1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H15" r:id="rId1" xr:uid="{4C632AA1-6F55-423B-8697-B86F870D7F1B}"/>
-    <hyperlink ref="H16" r:id="rId2" xr:uid="{E6F47877-79D3-493E-A16B-6B7238B0BE31}"/>
-    <hyperlink ref="H52" r:id="rId3" xr:uid="{F47C6505-8196-4511-AE67-D52965EEDE23}"/>
-    <hyperlink ref="H17" r:id="rId4" xr:uid="{E27B66FC-5778-48E1-899B-BB5BB5FBA7E6}"/>
-    <hyperlink ref="H24" r:id="rId5" xr:uid="{C64839DE-A1BA-4157-9A52-801A27FF2915}"/>
-    <hyperlink ref="H20" r:id="rId6" display="Website" xr:uid="{7F6AF889-A9E9-47C4-A2A7-6DBA4D7C81E1}"/>
-    <hyperlink ref="N20" r:id="rId7" display="Datasheet" xr:uid="{CA54F83D-C19B-421F-B1B5-352D51B9919E}"/>
-    <hyperlink ref="N23" r:id="rId8" xr:uid="{33C9152C-4A79-4B03-A18F-588825C5B6B3}"/>
-    <hyperlink ref="N47" r:id="rId9" xr:uid="{0065FA4C-6809-4998-8687-BDB26D400A98}"/>
-    <hyperlink ref="N18" r:id="rId10" display="Datasheet" xr:uid="{26BF3B04-3EC6-47E2-B049-A1546D3BC973}"/>
-    <hyperlink ref="N26" r:id="rId11" display="Datasheet" xr:uid="{C5903ACA-BDB4-47BF-8B56-FF9FBBB36A72}"/>
-    <hyperlink ref="H18" r:id="rId12" display="Website" xr:uid="{F7D68913-EB8F-4945-852A-487A82242546}"/>
-    <hyperlink ref="H23" r:id="rId13" xr:uid="{5663C4BC-2E27-45A8-A9FD-082BBCA9E9F6}"/>
-    <hyperlink ref="H26" r:id="rId14" display="Website" xr:uid="{792E18D9-027D-4AE8-BA75-FC59B1B2CB73}"/>
-    <hyperlink ref="H47" r:id="rId15" xr:uid="{CF9B7135-5770-4CBA-8BB9-3EFCF0F054CE}"/>
-    <hyperlink ref="H39" r:id="rId16" xr:uid="{D6537DC4-6751-4237-9FA6-53AFEFE2BA73}"/>
-    <hyperlink ref="N41" r:id="rId17" xr:uid="{67C9887A-66CC-41B8-9FDB-D1C4BA617492}"/>
-    <hyperlink ref="N39" r:id="rId18" xr:uid="{3FD9C373-E805-4CB8-8CC6-18D15CCA42DF}"/>
-    <hyperlink ref="H41" r:id="rId19" xr:uid="{4EDF24C3-B147-4992-8CEF-2C81201015B8}"/>
+    <hyperlink ref="H16" r:id="rId1" xr:uid="{4C632AA1-6F55-423B-8697-B86F870D7F1B}"/>
+    <hyperlink ref="H17" r:id="rId2" xr:uid="{E6F47877-79D3-493E-A16B-6B7238B0BE31}"/>
+    <hyperlink ref="H56" r:id="rId3" xr:uid="{F47C6505-8196-4511-AE67-D52965EEDE23}"/>
+    <hyperlink ref="H18" r:id="rId4" xr:uid="{E27B66FC-5778-48E1-899B-BB5BB5FBA7E6}"/>
+    <hyperlink ref="H26" r:id="rId5" xr:uid="{C64839DE-A1BA-4157-9A52-801A27FF2915}"/>
+    <hyperlink ref="H22" r:id="rId6" display="Website" xr:uid="{7F6AF889-A9E9-47C4-A2A7-6DBA4D7C81E1}"/>
+    <hyperlink ref="N22" r:id="rId7" display="Datasheet" xr:uid="{CA54F83D-C19B-421F-B1B5-352D51B9919E}"/>
+    <hyperlink ref="N25" r:id="rId8" xr:uid="{33C9152C-4A79-4B03-A18F-588825C5B6B3}"/>
+    <hyperlink ref="N49" r:id="rId9" xr:uid="{0065FA4C-6809-4998-8687-BDB26D400A98}"/>
+    <hyperlink ref="N19" r:id="rId10" display="Datasheet" xr:uid="{26BF3B04-3EC6-47E2-B049-A1546D3BC973}"/>
+    <hyperlink ref="N28" r:id="rId11" display="Datasheet" xr:uid="{C5903ACA-BDB4-47BF-8B56-FF9FBBB36A72}"/>
+    <hyperlink ref="H19" r:id="rId12" display="Website" xr:uid="{F7D68913-EB8F-4945-852A-487A82242546}"/>
+    <hyperlink ref="H25" r:id="rId13" xr:uid="{5663C4BC-2E27-45A8-A9FD-082BBCA9E9F6}"/>
+    <hyperlink ref="H28" r:id="rId14" display="Website" xr:uid="{792E18D9-027D-4AE8-BA75-FC59B1B2CB73}"/>
+    <hyperlink ref="H49" r:id="rId15" xr:uid="{CF9B7135-5770-4CBA-8BB9-3EFCF0F054CE}"/>
+    <hyperlink ref="H41" r:id="rId16" xr:uid="{D6537DC4-6751-4237-9FA6-53AFEFE2BA73}"/>
+    <hyperlink ref="N43" r:id="rId17" xr:uid="{67C9887A-66CC-41B8-9FDB-D1C4BA617492}"/>
+    <hyperlink ref="N41" r:id="rId18" xr:uid="{3FD9C373-E805-4CB8-8CC6-18D15CCA42DF}"/>
+    <hyperlink ref="H43" r:id="rId19" xr:uid="{4EDF24C3-B147-4992-8CEF-2C81201015B8}"/>
     <hyperlink ref="H5" r:id="rId20" xr:uid="{F8A9DA4F-1E4B-4027-89AA-8A8337135A11}"/>
     <hyperlink ref="N5" r:id="rId21" xr:uid="{F5058B02-CCF1-462C-AF78-CFAD9C4A5367}"/>
     <hyperlink ref="H4" r:id="rId22" xr:uid="{AD2CB2AC-934B-40A8-87F0-2DD3411B0BA0}"/>
@@ -3719,15 +3900,15 @@
     <hyperlink ref="N8" r:id="rId31" xr:uid="{85A66E1C-8FFD-404F-AB02-3B2DC717ABCB}"/>
     <hyperlink ref="H6" r:id="rId32" xr:uid="{0B057FC7-5B6C-4B51-8259-E98B5396182B}"/>
     <hyperlink ref="N6" r:id="rId33" xr:uid="{5DE163B5-CB79-4653-B429-7D96467A8E43}"/>
-    <hyperlink ref="I18" r:id="rId34" xr:uid="{EE53776F-D0D2-4515-B316-8D0A9661C7D5}"/>
-    <hyperlink ref="O18" r:id="rId35" xr:uid="{2938CD97-3CFB-4828-B234-DDD6FA51651E}"/>
-    <hyperlink ref="I26" r:id="rId36" xr:uid="{C041C052-5B7F-4797-90DB-07A5A9BD8086}"/>
-    <hyperlink ref="O26" r:id="rId37" xr:uid="{B784EE51-DF03-4479-ABFD-FAE317652025}"/>
-    <hyperlink ref="O20" r:id="rId38" xr:uid="{A63E6F16-81FE-46B5-A1B1-B4BC1F6573F2}"/>
-    <hyperlink ref="I20" r:id="rId39" xr:uid="{220C83A2-FFD8-4402-83E7-F8389CE5032E}"/>
-    <hyperlink ref="H42" r:id="rId40" xr:uid="{C62D8D79-F101-4180-ACFF-0702F492811A}"/>
-    <hyperlink ref="H22" r:id="rId41" display="Website2" xr:uid="{FC620188-EA0A-4DFC-9048-3D95A2D2DBFE}"/>
-    <hyperlink ref="N22" r:id="rId42" xr:uid="{F0F2535F-42C5-4864-82DD-36116DC794C9}"/>
+    <hyperlink ref="I19" r:id="rId34" xr:uid="{EE53776F-D0D2-4515-B316-8D0A9661C7D5}"/>
+    <hyperlink ref="O19" r:id="rId35" xr:uid="{2938CD97-3CFB-4828-B234-DDD6FA51651E}"/>
+    <hyperlink ref="I28" r:id="rId36" xr:uid="{C041C052-5B7F-4797-90DB-07A5A9BD8086}"/>
+    <hyperlink ref="O28" r:id="rId37" xr:uid="{B784EE51-DF03-4479-ABFD-FAE317652025}"/>
+    <hyperlink ref="O22" r:id="rId38" xr:uid="{A63E6F16-81FE-46B5-A1B1-B4BC1F6573F2}"/>
+    <hyperlink ref="I22" r:id="rId39" xr:uid="{220C83A2-FFD8-4402-83E7-F8389CE5032E}"/>
+    <hyperlink ref="H44" r:id="rId40" xr:uid="{C62D8D79-F101-4180-ACFF-0702F492811A}"/>
+    <hyperlink ref="H24" r:id="rId41" display="Website2" xr:uid="{FC620188-EA0A-4DFC-9048-3D95A2D2DBFE}"/>
+    <hyperlink ref="N24" r:id="rId42" xr:uid="{F0F2535F-42C5-4864-82DD-36116DC794C9}"/>
     <hyperlink ref="I5" r:id="rId43" xr:uid="{5D5CF429-1E28-49D6-B19E-03C72E4A0EC4}"/>
     <hyperlink ref="I9" r:id="rId44" xr:uid="{379146E8-AD4E-46D7-A785-14ED81742167}"/>
     <hyperlink ref="I10" r:id="rId45" xr:uid="{025AEAD3-FDD7-4701-B885-935FF1A1F40E}"/>
@@ -3742,8 +3923,8 @@
     <hyperlink ref="O6" r:id="rId54" xr:uid="{2B0393D1-9C98-4B09-843F-3E2A610A923F}"/>
     <hyperlink ref="O7" r:id="rId55" xr:uid="{7230B460-BF16-4B25-9AD0-999DBA80097A}"/>
     <hyperlink ref="O4" r:id="rId56" xr:uid="{677AD2D2-0C13-4EA4-A5A9-72E0106594DE}"/>
-    <hyperlink ref="N44" r:id="rId57" xr:uid="{40A478FC-8924-4710-A43E-370133585A08}"/>
-    <hyperlink ref="H44" r:id="rId58" xr:uid="{891765AC-B469-40EC-813C-5919893FF5BB}"/>
+    <hyperlink ref="N46" r:id="rId57" xr:uid="{40A478FC-8924-4710-A43E-370133585A08}"/>
+    <hyperlink ref="H46" r:id="rId58" xr:uid="{891765AC-B469-40EC-813C-5919893FF5BB}"/>
     <hyperlink ref="Q4" r:id="rId59" xr:uid="{CC3D9E5D-3A0A-43E9-A6FB-ECEAF3E87FBE}"/>
     <hyperlink ref="Q5" r:id="rId60" xr:uid="{3BD4A876-5CA1-4921-BBE4-BB723B41D805}"/>
     <hyperlink ref="Q6" r:id="rId61" xr:uid="{946CB908-8C19-435D-94BA-2ABC09894E34}"/>
@@ -3751,52 +3932,64 @@
     <hyperlink ref="Q8" r:id="rId63" xr:uid="{2F170893-D4B2-43E4-AA17-B3BDB073BDFE}"/>
     <hyperlink ref="Q9" r:id="rId64" xr:uid="{0C53A4D7-BD24-4D99-BD35-01B96FE5E6CD}"/>
     <hyperlink ref="Q10" r:id="rId65" xr:uid="{6DDE68D0-0F25-4356-AE65-5E1262D5C2FD}"/>
-    <hyperlink ref="Q18" r:id="rId66" xr:uid="{10BC4986-0F69-4E48-AE3E-DB047B8561F9}"/>
-    <hyperlink ref="Q26" r:id="rId67" xr:uid="{84B06EEE-62E7-4DD2-B215-B850EFEEBDD5}"/>
-    <hyperlink ref="Q47" r:id="rId68" xr:uid="{DEE65F20-FA5B-4878-889D-BBA69B573B7C}"/>
-    <hyperlink ref="Q22" r:id="rId69" xr:uid="{B024DD3B-1306-4A33-BAB6-DA8CBCF66C81}"/>
-    <hyperlink ref="Q41" r:id="rId70" xr:uid="{BA23315B-529E-4707-9A39-6B3442B6ADFE}"/>
-    <hyperlink ref="Q42" r:id="rId71" xr:uid="{29B13572-2064-4DD1-8E7B-9421C4956652}"/>
-    <hyperlink ref="Q44" r:id="rId72" xr:uid="{35BAA14B-2F9F-4592-AF16-C940162A69F9}"/>
-    <hyperlink ref="N42" r:id="rId73" xr:uid="{63A1230A-6BC9-4382-A381-7EB5E3C505F0}"/>
-    <hyperlink ref="Q46" r:id="rId74" xr:uid="{EBC6B08D-12B4-4976-9AC7-C2395F2D56E6}"/>
-    <hyperlink ref="N46" r:id="rId75" xr:uid="{2C06C958-3C24-46E7-B766-AD20430526C5}"/>
-    <hyperlink ref="H46" r:id="rId76" xr:uid="{DB6CD851-AFD1-4479-B0D4-453D0BFD7FA5}"/>
-    <hyperlink ref="H45" r:id="rId77" xr:uid="{EC464FC1-1A89-4154-9F52-A74B0BFEE481}"/>
-    <hyperlink ref="N45" r:id="rId78" xr:uid="{92B45BB2-CC01-4CB5-9E3E-7D2C4BE24F3E}"/>
-    <hyperlink ref="Q45" r:id="rId79" display="BUY" xr:uid="{60FF01C3-49F8-48A7-8F9E-481F332B29F7}"/>
-    <hyperlink ref="H48" r:id="rId80" xr:uid="{C919B7E8-F2A3-44C6-AAA3-C9AFF9838425}"/>
-    <hyperlink ref="N48" r:id="rId81" xr:uid="{75618C90-808E-40B6-8DA5-E93A774B00F4}"/>
-    <hyperlink ref="Q48" r:id="rId82" xr:uid="{D31F91A2-72C6-4E63-8486-ACC3D5798E3F}"/>
-    <hyperlink ref="H21" r:id="rId83" xr:uid="{B28AB376-A24C-4CE7-96AA-2CA3B384903C}"/>
-    <hyperlink ref="N21" r:id="rId84" xr:uid="{2462CC12-CD75-42B8-B52E-FC208A0C0D00}"/>
-    <hyperlink ref="N43" r:id="rId85" xr:uid="{ADDC0E5E-3350-43F7-970D-90AA6A715DC7}"/>
-    <hyperlink ref="Q43" r:id="rId86" xr:uid="{5F94472F-CA2B-4DB3-8ADB-7E4F7C6EB981}"/>
-    <hyperlink ref="H43" r:id="rId87" location="M29F800FT55N3E2" xr:uid="{799044EA-6D81-4EB5-87E5-41CE14255DBB}"/>
-    <hyperlink ref="H19" r:id="rId88" xr:uid="{B19B548D-587F-4116-A7DB-B2A506DECA30}"/>
-    <hyperlink ref="N19" r:id="rId89" xr:uid="{744CEDEB-72A5-4048-A91C-2A88578DFA95}"/>
-    <hyperlink ref="Q19" r:id="rId90" xr:uid="{479F0893-90B0-4314-9B1D-B67BEEFD8536}"/>
-    <hyperlink ref="H40" r:id="rId91" xr:uid="{AD80FF21-6722-4F90-B04A-2D31DA05E751}"/>
-    <hyperlink ref="N40" r:id="rId92" xr:uid="{D559E430-FAF4-4EE1-8379-890AB8B90EB8}"/>
-    <hyperlink ref="Q40" r:id="rId93" xr:uid="{F6CC58AF-41D1-464C-82A3-1D02E66BCDA1}"/>
+    <hyperlink ref="Q19" r:id="rId66" xr:uid="{10BC4986-0F69-4E48-AE3E-DB047B8561F9}"/>
+    <hyperlink ref="Q28" r:id="rId67" xr:uid="{84B06EEE-62E7-4DD2-B215-B850EFEEBDD5}"/>
+    <hyperlink ref="Q49" r:id="rId68" xr:uid="{DEE65F20-FA5B-4878-889D-BBA69B573B7C}"/>
+    <hyperlink ref="Q24" r:id="rId69" xr:uid="{B024DD3B-1306-4A33-BAB6-DA8CBCF66C81}"/>
+    <hyperlink ref="Q43" r:id="rId70" xr:uid="{BA23315B-529E-4707-9A39-6B3442B6ADFE}"/>
+    <hyperlink ref="Q44" r:id="rId71" xr:uid="{29B13572-2064-4DD1-8E7B-9421C4956652}"/>
+    <hyperlink ref="Q46" r:id="rId72" xr:uid="{35BAA14B-2F9F-4592-AF16-C940162A69F9}"/>
+    <hyperlink ref="N44" r:id="rId73" xr:uid="{63A1230A-6BC9-4382-A381-7EB5E3C505F0}"/>
+    <hyperlink ref="Q48" r:id="rId74" xr:uid="{EBC6B08D-12B4-4976-9AC7-C2395F2D56E6}"/>
+    <hyperlink ref="N48" r:id="rId75" xr:uid="{2C06C958-3C24-46E7-B766-AD20430526C5}"/>
+    <hyperlink ref="H48" r:id="rId76" xr:uid="{DB6CD851-AFD1-4479-B0D4-453D0BFD7FA5}"/>
+    <hyperlink ref="H47" r:id="rId77" xr:uid="{EC464FC1-1A89-4154-9F52-A74B0BFEE481}"/>
+    <hyperlink ref="N47" r:id="rId78" xr:uid="{92B45BB2-CC01-4CB5-9E3E-7D2C4BE24F3E}"/>
+    <hyperlink ref="Q47" r:id="rId79" display="BUY" xr:uid="{60FF01C3-49F8-48A7-8F9E-481F332B29F7}"/>
+    <hyperlink ref="H50" r:id="rId80" xr:uid="{C919B7E8-F2A3-44C6-AAA3-C9AFF9838425}"/>
+    <hyperlink ref="N50" r:id="rId81" xr:uid="{75618C90-808E-40B6-8DA5-E93A774B00F4}"/>
+    <hyperlink ref="Q50" r:id="rId82" xr:uid="{D31F91A2-72C6-4E63-8486-ACC3D5798E3F}"/>
+    <hyperlink ref="H23" r:id="rId83" xr:uid="{B28AB376-A24C-4CE7-96AA-2CA3B384903C}"/>
+    <hyperlink ref="N23" r:id="rId84" xr:uid="{2462CC12-CD75-42B8-B52E-FC208A0C0D00}"/>
+    <hyperlink ref="N45" r:id="rId85" xr:uid="{ADDC0E5E-3350-43F7-970D-90AA6A715DC7}"/>
+    <hyperlink ref="Q45" r:id="rId86" xr:uid="{5F94472F-CA2B-4DB3-8ADB-7E4F7C6EB981}"/>
+    <hyperlink ref="H45" r:id="rId87" location="M29F800FT55N3E2" xr:uid="{799044EA-6D81-4EB5-87E5-41CE14255DBB}"/>
+    <hyperlink ref="H21" r:id="rId88" xr:uid="{B19B548D-587F-4116-A7DB-B2A506DECA30}"/>
+    <hyperlink ref="N21" r:id="rId89" xr:uid="{744CEDEB-72A5-4048-A91C-2A88578DFA95}"/>
+    <hyperlink ref="Q21" r:id="rId90" xr:uid="{479F0893-90B0-4314-9B1D-B67BEEFD8536}"/>
+    <hyperlink ref="H42" r:id="rId91" xr:uid="{AD80FF21-6722-4F90-B04A-2D31DA05E751}"/>
+    <hyperlink ref="N42" r:id="rId92" xr:uid="{D559E430-FAF4-4EE1-8379-890AB8B90EB8}"/>
+    <hyperlink ref="Q42" r:id="rId93" xr:uid="{F6CC58AF-41D1-464C-82A3-1D02E66BCDA1}"/>
     <hyperlink ref="H11" r:id="rId94" xr:uid="{CE72A743-F1DB-4D14-8AD0-EE390C285974}"/>
     <hyperlink ref="N11" r:id="rId95" xr:uid="{C54F2BFB-8DD6-4F25-A830-35475191DC46}"/>
     <hyperlink ref="Q11" r:id="rId96" xr:uid="{B9AAF792-69CB-4E97-A1A5-DF3AD9CDA261}"/>
-    <hyperlink ref="H31" r:id="rId97" xr:uid="{A32FF633-6FAE-4F14-9219-BF1B3A31C39E}"/>
-    <hyperlink ref="N31" r:id="rId98" xr:uid="{C2B3435C-B6C9-4623-96B3-A15699412865}"/>
-    <hyperlink ref="Q31" r:id="rId99" xr:uid="{CA7EDBD9-E87F-465B-92B2-E611A1E8A2F3}"/>
-    <hyperlink ref="I45" r:id="rId100" xr:uid="{80681B69-8466-4DFE-96ED-DB881695E038}"/>
-    <hyperlink ref="O45" r:id="rId101" xr:uid="{1B8723FB-A3B0-4E37-96D5-15DB9C36F4B5}"/>
-    <hyperlink ref="R45" r:id="rId102" xr:uid="{82050D3A-369C-4A89-B315-91B61CF1C78C}"/>
-    <hyperlink ref="I46" r:id="rId103" xr:uid="{E28D4DD1-FCF4-4B5B-B4C1-AFA61830DC34}"/>
-    <hyperlink ref="O46" r:id="rId104" xr:uid="{561E090A-DF6F-4E16-9BBE-4D0C5BFBE235}"/>
-    <hyperlink ref="R46" r:id="rId105" xr:uid="{E490637B-3166-45F4-A700-96DD65491731}"/>
-    <hyperlink ref="H49" r:id="rId106" xr:uid="{6B8DD429-C9B9-47AB-A0C6-54D995A37D94}"/>
-    <hyperlink ref="N49" r:id="rId107" xr:uid="{4E953440-E8A9-4951-87F1-67157569F240}"/>
-    <hyperlink ref="Q49" r:id="rId108" xr:uid="{57B388A3-75E6-488D-BE2B-D9B833BACB45}"/>
+    <hyperlink ref="H33" r:id="rId97" xr:uid="{A32FF633-6FAE-4F14-9219-BF1B3A31C39E}"/>
+    <hyperlink ref="N33" r:id="rId98" xr:uid="{C2B3435C-B6C9-4623-96B3-A15699412865}"/>
+    <hyperlink ref="Q33" r:id="rId99" xr:uid="{CA7EDBD9-E87F-465B-92B2-E611A1E8A2F3}"/>
+    <hyperlink ref="I47" r:id="rId100" xr:uid="{80681B69-8466-4DFE-96ED-DB881695E038}"/>
+    <hyperlink ref="O47" r:id="rId101" xr:uid="{1B8723FB-A3B0-4E37-96D5-15DB9C36F4B5}"/>
+    <hyperlink ref="R47" r:id="rId102" xr:uid="{82050D3A-369C-4A89-B315-91B61CF1C78C}"/>
+    <hyperlink ref="I48" r:id="rId103" xr:uid="{E28D4DD1-FCF4-4B5B-B4C1-AFA61830DC34}"/>
+    <hyperlink ref="O48" r:id="rId104" xr:uid="{561E090A-DF6F-4E16-9BBE-4D0C5BFBE235}"/>
+    <hyperlink ref="R48" r:id="rId105" xr:uid="{E490637B-3166-45F4-A700-96DD65491731}"/>
+    <hyperlink ref="H51" r:id="rId106" xr:uid="{6B8DD429-C9B9-47AB-A0C6-54D995A37D94}"/>
+    <hyperlink ref="N51" r:id="rId107" xr:uid="{4E953440-E8A9-4951-87F1-67157569F240}"/>
+    <hyperlink ref="Q51" r:id="rId108" xr:uid="{57B388A3-75E6-488D-BE2B-D9B833BACB45}"/>
+    <hyperlink ref="H12" r:id="rId109" xr:uid="{047AFF56-79C1-4CFD-A099-CD2F20666804}"/>
+    <hyperlink ref="N12" r:id="rId110" xr:uid="{C874FFE0-1A9D-4C64-B2D8-2B5B7D864EEF}"/>
+    <hyperlink ref="Q12" r:id="rId111" xr:uid="{6D011867-DF84-4464-9649-55AC164A9A2F}"/>
+    <hyperlink ref="H52" r:id="rId112" xr:uid="{9BDE1F0C-97B4-4741-AA2F-BB34E12B2613}"/>
+    <hyperlink ref="H53" r:id="rId113" xr:uid="{778AC8B9-8FAC-41A1-B098-46C3FD08BD5C}"/>
+    <hyperlink ref="N53" r:id="rId114" xr:uid="{4886676B-B4ED-49E5-8DEA-966FE01DE715}"/>
+    <hyperlink ref="N52" r:id="rId115" xr:uid="{3C498D19-AA6F-472C-B98F-A0770D22348E}"/>
+    <hyperlink ref="Q52" r:id="rId116" xr:uid="{48D954F9-FD6B-484C-9C17-8EF77F29EEF8}"/>
+    <hyperlink ref="Q53" r:id="rId117" xr:uid="{C5D0A17F-909E-48E2-89B3-F840B69B21A1}"/>
+    <hyperlink ref="H20" r:id="rId118" xr:uid="{AD74E670-CB67-4CF0-98AC-15C4338CE2CC}"/>
+    <hyperlink ref="N20" r:id="rId119" xr:uid="{809B6A2B-2537-4DC9-98A4-80E23A80D51A}"/>
+    <hyperlink ref="Q20" r:id="rId120" xr:uid="{C3733D1D-43C0-46BC-A557-FB8CD4D39225}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId109"/>
-  <drawing r:id="rId110"/>
+  <pageSetup orientation="portrait" r:id="rId121"/>
+  <drawing r:id="rId122"/>
 </worksheet>
 </file>
--- a/8Bit Computer ver2.0/excel/chips availability.xlsx
+++ b/8Bit Computer ver2.0/excel/chips availability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Desktop\Computer_HTL\8Bit Computer ver2.0\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215C214C-4C92-460E-8513-698F37560231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C757E02-6563-4B55-AE14-A8FCC4ADF4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9CC7EE1-7E8B-4FEA-8BE1-446B4A860683}"/>
   </bookViews>
@@ -826,7 +826,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -913,6 +913,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1307,7 +1310,7 @@
   <dimension ref="B1:R122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3083,7 +3086,7 @@
       <c r="N54" s="1"/>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="32" t="s">
         <v>173</v>
       </c>
       <c r="D55" s="2" t="s">

--- a/8Bit Computer ver2.0/excel/chips availability.xlsx
+++ b/8Bit Computer ver2.0/excel/chips availability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Desktop\Computer_HTL\8Bit Computer ver2.0\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C757E02-6563-4B55-AE14-A8FCC4ADF4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7902B5-AB7C-445D-B8E2-E13AB54EA0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9CC7EE1-7E8B-4FEA-8BE1-446B4A860683}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="197">
   <si>
     <t>Boolean Logic</t>
   </si>
@@ -684,6 +684,36 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>M20-8891045</t>
+  </si>
+  <si>
+    <t>M20-7911042R</t>
+  </si>
+  <si>
+    <t>Pin socket</t>
+  </si>
+  <si>
+    <t>Pin Strip</t>
+  </si>
+  <si>
+    <t>10pin</t>
+  </si>
+  <si>
+    <t>M20-8890845</t>
+  </si>
+  <si>
+    <t>8pin</t>
+  </si>
+  <si>
+    <t>M20-7910842R</t>
+  </si>
+  <si>
+    <t>For other socket/strips</t>
+  </si>
+  <si>
+    <t>NOT INCLUDED</t>
   </si>
 </sst>
 </file>
@@ -760,7 +790,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -803,6 +833,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -826,7 +862,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -915,7 +951,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -945,16 +986,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>588741</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>543917</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>75640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -977,8 +1018,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1200151" y="9258300"/>
-          <a:ext cx="2150840" cy="1857375"/>
+          <a:off x="1165412" y="12438530"/>
+          <a:ext cx="2146358" cy="1857375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1309,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA67386-7B54-425F-86A0-E9D5FF3EDFA0}">
   <dimension ref="B1:R122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O65" sqref="O65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2880,7 +2921,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>9</v>
       </c>
@@ -2917,7 +2958,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="19" t="s">
         <v>131</v>
@@ -2955,7 +2996,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>6</v>
       </c>
@@ -2995,7 +3036,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="19" t="s">
         <v>176</v>
@@ -3033,7 +3074,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="19" t="s">
         <v>176</v>
@@ -3071,7 +3112,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:18" ht="21" x14ac:dyDescent="0.35">
       <c r="D54" s="30" t="s">
         <v>13</v>
       </c>
@@ -3085,8 +3126,8 @@
       <c r="L54" s="31"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C55" s="32" t="s">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C55" s="13" t="s">
         <v>173</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -3112,7 +3153,7 @@
       </c>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D56" s="1" t="s">
         <v>42</v>
       </c>
@@ -3134,52 +3175,127 @@
       <c r="L56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="N57" s="1"/>
-    </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-    </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-    </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-    </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C57" s="33"/>
+      <c r="D57" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="G57" s="15"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="O57" s="33"/>
+      <c r="P57" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q57" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="R57" s="33"/>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C58" s="33"/>
+      <c r="D58" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="G58" s="15"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="O58" s="33"/>
+      <c r="P58" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q58" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="R58" s="33"/>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C59" s="33"/>
+      <c r="D59" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="G59" s="15"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="O59" s="33"/>
+      <c r="P59" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q59" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="R59" s="33"/>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C60" s="33"/>
+      <c r="D60" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="G60" s="15"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="O60" s="33"/>
+      <c r="P60" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q60" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="R60" s="33"/>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -3189,8 +3305,11 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
-    </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M61" s="32" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -3201,7 +3320,7 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -3212,7 +3331,7 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -3990,9 +4109,18 @@
     <hyperlink ref="H20" r:id="rId118" xr:uid="{AD74E670-CB67-4CF0-98AC-15C4338CE2CC}"/>
     <hyperlink ref="N20" r:id="rId119" xr:uid="{809B6A2B-2537-4DC9-98A4-80E23A80D51A}"/>
     <hyperlink ref="Q20" r:id="rId120" xr:uid="{C3733D1D-43C0-46BC-A557-FB8CD4D39225}"/>
+    <hyperlink ref="N57" r:id="rId121" xr:uid="{52AE5DFF-8AC8-4363-BCB3-94A384C565D8}"/>
+    <hyperlink ref="N58" r:id="rId122" xr:uid="{414C9BCD-7CF7-4DE2-BA57-7DD1AB5A0FD0}"/>
+    <hyperlink ref="Q57" r:id="rId123" xr:uid="{9467689B-EEBC-4374-9E72-3D320D892660}"/>
+    <hyperlink ref="Q58" r:id="rId124" xr:uid="{59C50D68-3822-4E21-8DCB-38B73DCC75C1}"/>
+    <hyperlink ref="N59" r:id="rId125" xr:uid="{B22E3500-96C2-430D-861A-0385FAB0965F}"/>
+    <hyperlink ref="Q59" r:id="rId126" xr:uid="{B032CEA0-7CF2-46B8-BB39-350C01CFC35D}"/>
+    <hyperlink ref="N60" r:id="rId127" xr:uid="{17C049D4-1F98-4448-9BEB-DBA235660298}"/>
+    <hyperlink ref="Q60" r:id="rId128" xr:uid="{93F1B2C3-E2E1-455E-828A-6E20149EE2DD}"/>
+    <hyperlink ref="M61" r:id="rId129" xr:uid="{E6F87D1E-A9C3-4063-BA4B-3C48BDCF3529}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId121"/>
-  <drawing r:id="rId122"/>
+  <pageSetup orientation="portrait" r:id="rId130"/>
+  <drawing r:id="rId131"/>
 </worksheet>
 </file>
--- a/8Bit Computer ver2.0/excel/chips availability.xlsx
+++ b/8Bit Computer ver2.0/excel/chips availability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Desktop\Computer_HTL\8Bit Computer ver2.0\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7902B5-AB7C-445D-B8E2-E13AB54EA0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC0D6F9-FB52-497E-B5F7-5E8AB090443F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9CC7EE1-7E8B-4FEA-8BE1-446B4A860683}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="203">
   <si>
     <t>Boolean Logic</t>
   </si>
@@ -715,6 +715,24 @@
   <si>
     <t>NOT INCLUDED</t>
   </si>
+  <si>
+    <t>I/O</t>
+  </si>
+  <si>
+    <t>SN74x540</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 channel </t>
+  </si>
+  <si>
+    <t>possible LEDs</t>
+  </si>
+  <si>
+    <t>possible switches</t>
+  </si>
 </sst>
 </file>
 
@@ -723,7 +741,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-1];[Red]\-#,##0.00\ [$€-1]"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -789,6 +807,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -829,13 +855,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,7 +888,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -936,27 +962,26 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -987,15 +1012,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>560294</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
+      <xdr:colOff>414617</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>543917</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>75640</xdr:rowOff>
+      <xdr:colOff>398240</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>42022</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1018,7 +1043,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1165412" y="12438530"/>
+          <a:off x="1019735" y="14388353"/>
           <a:ext cx="2146358" cy="1857375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1350,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA67386-7B54-425F-86A0-E9D5FF3EDFA0}">
   <dimension ref="B1:R122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O65" sqref="O65"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,17 +1397,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
@@ -1472,7 +1497,7 @@
       <c r="G4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="28" t="s">
         <v>77</v>
       </c>
       <c r="I4" s="17" t="s">
@@ -1481,7 +1506,7 @@
       <c r="J4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="27" t="s">
         <v>145</v>
       </c>
       <c r="L4" s="1"/>
@@ -1524,7 +1549,7 @@
       <c r="J5" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="27" t="s">
         <v>113</v>
       </c>
       <c r="L5" s="1"/>
@@ -1567,7 +1592,7 @@
       <c r="J6" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="27" t="s">
         <v>145</v>
       </c>
       <c r="L6" s="1"/>
@@ -1610,7 +1635,7 @@
       <c r="J7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="27" t="s">
         <v>145</v>
       </c>
       <c r="L7" s="1"/>
@@ -1653,7 +1678,7 @@
       <c r="J8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="27" t="s">
         <v>145</v>
       </c>
       <c r="L8" s="1"/>
@@ -1698,7 +1723,7 @@
       <c r="J9" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K9" s="28" t="s">
+      <c r="K9" s="27" t="s">
         <v>114</v>
       </c>
       <c r="L9" s="1"/>
@@ -1743,7 +1768,7 @@
       <c r="J10" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K10" s="28" t="s">
+      <c r="K10" s="27" t="s">
         <v>113</v>
       </c>
       <c r="L10" s="1"/>
@@ -1851,17 +1876,17 @@
     </row>
     <row r="14" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="Q14" s="1"/>
@@ -2565,17 +2590,17 @@
     </row>
     <row r="39" spans="2:18" ht="21" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
-      <c r="D39" s="30" t="s">
+      <c r="D39" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
       <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
@@ -2664,7 +2689,7 @@
         <v>137</v>
       </c>
       <c r="K42" s="1"/>
-      <c r="L42" s="27" t="s">
+      <c r="L42" s="1" t="s">
         <v>143</v>
       </c>
       <c r="N42" s="5" t="s">
@@ -2700,7 +2725,7 @@
         <v>106</v>
       </c>
       <c r="K43" s="1"/>
-      <c r="L43" s="27" t="s">
+      <c r="L43" s="1" t="s">
         <v>103</v>
       </c>
       <c r="N43" s="5" t="s">
@@ -3113,17 +3138,17 @@
       </c>
     </row>
     <row r="54" spans="2:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
-      <c r="L54" s="31"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
       <c r="N54" s="1"/>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.25">
@@ -3176,7 +3201,7 @@
       <c r="N56" s="1"/>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C57" s="33"/>
+      <c r="C57" s="29"/>
       <c r="D57" s="15" t="s">
         <v>187</v>
       </c>
@@ -3187,26 +3212,26 @@
         <v>191</v>
       </c>
       <c r="G57" s="15"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
       <c r="J57" s="15"/>
       <c r="K57" s="15"/>
       <c r="L57" s="15"/>
-      <c r="M57" s="33"/>
+      <c r="M57" s="29"/>
       <c r="N57" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="O57" s="33"/>
-      <c r="P57" s="35" t="s">
+      <c r="O57" s="29"/>
+      <c r="P57" s="31" t="s">
         <v>196</v>
       </c>
       <c r="Q57" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="R57" s="33"/>
+      <c r="R57" s="29"/>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C58" s="33"/>
+      <c r="C58" s="29"/>
       <c r="D58" s="15" t="s">
         <v>188</v>
       </c>
@@ -3217,26 +3242,26 @@
         <v>191</v>
       </c>
       <c r="G58" s="15"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
       <c r="J58" s="15"/>
       <c r="K58" s="15"/>
       <c r="L58" s="15"/>
-      <c r="M58" s="33"/>
+      <c r="M58" s="29"/>
       <c r="N58" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="O58" s="33"/>
-      <c r="P58" s="35" t="s">
+      <c r="O58" s="29"/>
+      <c r="P58" s="31" t="s">
         <v>196</v>
       </c>
       <c r="Q58" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="R58" s="33"/>
+      <c r="R58" s="29"/>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C59" s="33"/>
+      <c r="C59" s="29"/>
       <c r="D59" s="15" t="s">
         <v>192</v>
       </c>
@@ -3247,26 +3272,26 @@
         <v>193</v>
       </c>
       <c r="G59" s="15"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
       <c r="J59" s="15"/>
       <c r="K59" s="15"/>
       <c r="L59" s="15"/>
-      <c r="M59" s="33"/>
+      <c r="M59" s="29"/>
       <c r="N59" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="O59" s="33"/>
-      <c r="P59" s="35" t="s">
+      <c r="O59" s="29"/>
+      <c r="P59" s="31" t="s">
         <v>196</v>
       </c>
       <c r="Q59" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="R59" s="33"/>
+      <c r="R59" s="29"/>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C60" s="33"/>
+      <c r="C60" s="29"/>
       <c r="D60" s="15" t="s">
         <v>194</v>
       </c>
@@ -3277,23 +3302,23 @@
         <v>193</v>
       </c>
       <c r="G60" s="15"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
       <c r="J60" s="15"/>
       <c r="K60" s="15"/>
       <c r="L60" s="15"/>
-      <c r="M60" s="33"/>
+      <c r="M60" s="29"/>
       <c r="N60" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="O60" s="33"/>
-      <c r="P60" s="35" t="s">
+      <c r="O60" s="29"/>
+      <c r="P60" s="31" t="s">
         <v>196</v>
       </c>
       <c r="Q60" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="R60" s="33"/>
+      <c r="R60" s="29"/>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D61" s="1"/>
@@ -3320,40 +3345,95 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
+    <row r="63" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="D63" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="34"/>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-    </row>
-    <row r="65" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
+      <c r="C64" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G64" s="13"/>
+      <c r="H64" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K64" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L64" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N64" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="O64" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="P64" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q64" s="1"/>
+    </row>
+    <row r="65" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C65" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="G65" s="1"/>
-      <c r="H65" s="3"/>
+      <c r="H65" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="I65" s="3"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
+      <c r="J65" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K65" s="22" t="s">
+        <v>171</v>
+      </c>
       <c r="L65" s="1"/>
-    </row>
-    <row r="66" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="N65" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P65" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q65" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -3364,7 +3444,10 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
     </row>
-    <row r="67" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C67" s="32" t="s">
+        <v>201</v>
+      </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -3375,7 +3458,10 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
     </row>
-    <row r="68" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C68" s="32" t="s">
+        <v>202</v>
+      </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3386,7 +3472,7 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
     </row>
-    <row r="69" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -3397,7 +3483,7 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
     </row>
-    <row r="70" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -3408,7 +3494,7 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
     </row>
-    <row r="71" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -3419,7 +3505,7 @@
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
     </row>
-    <row r="72" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -3430,7 +3516,7 @@
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
     </row>
-    <row r="73" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -3441,7 +3527,7 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
     </row>
-    <row r="74" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -3452,7 +3538,7 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
     </row>
-    <row r="75" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -3463,7 +3549,7 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
     </row>
-    <row r="76" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -3474,7 +3560,7 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
     </row>
-    <row r="77" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -3485,7 +3571,7 @@
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
     </row>
-    <row r="78" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -3496,7 +3582,7 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
     </row>
-    <row r="79" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -3507,7 +3593,7 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
     </row>
-    <row r="80" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -3981,11 +4067,12 @@
       <c r="L122" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="D39:L39"/>
     <mergeCell ref="D54:L54"/>
     <mergeCell ref="D14:L14"/>
     <mergeCell ref="D1:L1"/>
+    <mergeCell ref="D63:L63"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -4118,9 +4205,14 @@
     <hyperlink ref="N60" r:id="rId127" xr:uid="{17C049D4-1F98-4448-9BEB-DBA235660298}"/>
     <hyperlink ref="Q60" r:id="rId128" xr:uid="{93F1B2C3-E2E1-455E-828A-6E20149EE2DD}"/>
     <hyperlink ref="M61" r:id="rId129" xr:uid="{E6F87D1E-A9C3-4063-BA4B-3C48BDCF3529}"/>
+    <hyperlink ref="H65" r:id="rId130" xr:uid="{1590F363-5B54-413D-92C4-269526397E57}"/>
+    <hyperlink ref="N65" r:id="rId131" xr:uid="{C8E602E0-25DF-4132-90B8-3433782B630C}"/>
+    <hyperlink ref="Q65" r:id="rId132" xr:uid="{15AC358C-0845-4DF6-9B90-0DC741228AEF}"/>
+    <hyperlink ref="C67" r:id="rId133" xr:uid="{DCA814CC-077E-470E-9A6A-680172197756}"/>
+    <hyperlink ref="C68" r:id="rId134" xr:uid="{51A24C82-C0EA-4698-A52E-A029AEDBD4F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId130"/>
-  <drawing r:id="rId131"/>
+  <pageSetup orientation="portrait" r:id="rId135"/>
+  <drawing r:id="rId136"/>
 </worksheet>
 </file>
--- a/8Bit Computer ver2.0/excel/chips availability.xlsx
+++ b/8Bit Computer ver2.0/excel/chips availability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Desktop\Computer_HTL\8Bit Computer ver2.0\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC0D6F9-FB52-497E-B5F7-5E8AB090443F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044F86D7-85FA-4E04-A9BF-3CEF8D88E52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9CC7EE1-7E8B-4FEA-8BE1-446B4A860683}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="207">
   <si>
     <t>Boolean Logic</t>
   </si>
@@ -732,6 +732,18 @@
   </si>
   <si>
     <t>possible switches</t>
+  </si>
+  <si>
+    <t>DS1100Z-20+</t>
+  </si>
+  <si>
+    <t>Delay</t>
+  </si>
+  <si>
+    <t>16ns</t>
+  </si>
+  <si>
+    <t>4,8,12,16,20</t>
   </si>
 </sst>
 </file>
@@ -1013,13 +1025,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>414617</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>398240</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>42022</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1373,10 +1385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA67386-7B54-425F-86A0-E9D5FF3EDFA0}">
-  <dimension ref="B1:R122"/>
+  <dimension ref="B1:R123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q62" sqref="Q62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3321,18 +3333,38 @@
       <c r="R60" s="29"/>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="32" t="s">
-        <v>195</v>
-      </c>
+      <c r="C61" s="29"/>
+      <c r="D61" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="G61" s="15"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15">
+        <v>-20</v>
+      </c>
+      <c r="L61" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="M61" s="29"/>
+      <c r="N61" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="O61" s="29"/>
+      <c r="P61" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q61" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="R61" s="29"/>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D62" s="1"/>
@@ -3344,110 +3376,110 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
-    </row>
-    <row r="63" spans="2:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="D63" s="33" t="s">
+      <c r="M62" s="32" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="D64" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34"/>
-    </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C64" s="11" t="s">
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="34"/>
+    </row>
+    <row r="65" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C65" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D65" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E64" s="11" t="s">
+      <c r="E65" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F64" s="13" t="s">
+      <c r="F65" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G64" s="13"/>
-      <c r="H64" s="12" t="s">
+      <c r="G65" s="13"/>
+      <c r="H65" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="I64" s="12" t="s">
+      <c r="I65" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J64" s="11" t="s">
+      <c r="J65" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K64" s="11" t="s">
+      <c r="K65" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L64" s="11" t="s">
+      <c r="L65" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N64" s="13" t="s">
+      <c r="N65" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O64" s="12" t="s">
+      <c r="O65" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="P64" s="12" t="s">
+      <c r="P65" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="Q64" s="1"/>
-    </row>
-    <row r="65" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C65" s="19" t="s">
+      <c r="Q65" s="1"/>
+    </row>
+    <row r="66" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C66" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="G65" s="1"/>
-      <c r="H65" s="5" t="s">
+      <c r="G66" s="1"/>
+      <c r="H66" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I65" s="3"/>
-      <c r="J65" s="1" t="s">
+      <c r="I66" s="3"/>
+      <c r="J66" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K65" s="22" t="s">
+      <c r="K66" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="L65" s="1"/>
-      <c r="N65" s="5" t="s">
+      <c r="L66" s="1"/>
+      <c r="N66" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="P65" s="31" t="s">
+      <c r="P66" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="Q65" s="5" t="s">
+      <c r="Q66" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-    </row>
     <row r="67" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C67" s="32" t="s">
-        <v>201</v>
-      </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -3460,7 +3492,7 @@
     </row>
     <row r="68" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C68" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -3473,6 +3505,9 @@
       <c r="L68" s="1"/>
     </row>
     <row r="69" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C69" s="32" t="s">
+        <v>202</v>
+      </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -3818,8 +3853,8 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
@@ -4066,13 +4101,24 @@
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
     </row>
+    <row r="123" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="D39:L39"/>
     <mergeCell ref="D54:L54"/>
     <mergeCell ref="D14:L14"/>
     <mergeCell ref="D1:L1"/>
-    <mergeCell ref="D63:L63"/>
+    <mergeCell ref="D64:L64"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -4204,15 +4250,17 @@
     <hyperlink ref="Q59" r:id="rId126" xr:uid="{B032CEA0-7CF2-46B8-BB39-350C01CFC35D}"/>
     <hyperlink ref="N60" r:id="rId127" xr:uid="{17C049D4-1F98-4448-9BEB-DBA235660298}"/>
     <hyperlink ref="Q60" r:id="rId128" xr:uid="{93F1B2C3-E2E1-455E-828A-6E20149EE2DD}"/>
-    <hyperlink ref="M61" r:id="rId129" xr:uid="{E6F87D1E-A9C3-4063-BA4B-3C48BDCF3529}"/>
-    <hyperlink ref="H65" r:id="rId130" xr:uid="{1590F363-5B54-413D-92C4-269526397E57}"/>
-    <hyperlink ref="N65" r:id="rId131" xr:uid="{C8E602E0-25DF-4132-90B8-3433782B630C}"/>
-    <hyperlink ref="Q65" r:id="rId132" xr:uid="{15AC358C-0845-4DF6-9B90-0DC741228AEF}"/>
-    <hyperlink ref="C67" r:id="rId133" xr:uid="{DCA814CC-077E-470E-9A6A-680172197756}"/>
-    <hyperlink ref="C68" r:id="rId134" xr:uid="{51A24C82-C0EA-4698-A52E-A029AEDBD4F4}"/>
+    <hyperlink ref="M62" r:id="rId129" xr:uid="{E6F87D1E-A9C3-4063-BA4B-3C48BDCF3529}"/>
+    <hyperlink ref="H66" r:id="rId130" xr:uid="{1590F363-5B54-413D-92C4-269526397E57}"/>
+    <hyperlink ref="N66" r:id="rId131" xr:uid="{C8E602E0-25DF-4132-90B8-3433782B630C}"/>
+    <hyperlink ref="Q66" r:id="rId132" xr:uid="{15AC358C-0845-4DF6-9B90-0DC741228AEF}"/>
+    <hyperlink ref="C68" r:id="rId133" xr:uid="{DCA814CC-077E-470E-9A6A-680172197756}"/>
+    <hyperlink ref="C69" r:id="rId134" xr:uid="{51A24C82-C0EA-4698-A52E-A029AEDBD4F4}"/>
+    <hyperlink ref="N61" r:id="rId135" xr:uid="{76138DFE-C5A2-4EFC-9B28-2F3C020D3801}"/>
+    <hyperlink ref="Q61" r:id="rId136" xr:uid="{67DA55A1-4D89-4FF1-B17C-42D124B2570E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId135"/>
-  <drawing r:id="rId136"/>
+  <pageSetup orientation="portrait" r:id="rId137"/>
+  <drawing r:id="rId138"/>
 </worksheet>
 </file>
--- a/8Bit Computer ver2.0/excel/chips availability.xlsx
+++ b/8Bit Computer ver2.0/excel/chips availability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Desktop\Computer_HTL\8Bit Computer ver2.0\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044F86D7-85FA-4E04-A9BF-3CEF8D88E52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D45DC1C-2222-4DC9-ACB6-70D3A5D56183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9CC7EE1-7E8B-4FEA-8BE1-446B4A860683}"/>
   </bookViews>
@@ -1388,7 +1388,7 @@
   <dimension ref="B1:R123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q62" sqref="Q62"/>
+      <selection activeCell="P70" sqref="P70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3294,8 +3294,8 @@
         <v>51</v>
       </c>
       <c r="O59" s="29"/>
-      <c r="P59" s="31" t="s">
-        <v>196</v>
+      <c r="P59" s="25" t="s">
+        <v>133</v>
       </c>
       <c r="Q59" s="20" t="s">
         <v>125</v>
@@ -3324,8 +3324,8 @@
         <v>51</v>
       </c>
       <c r="O60" s="29"/>
-      <c r="P60" s="31" t="s">
-        <v>196</v>
+      <c r="P60" s="25" t="s">
+        <v>133</v>
       </c>
       <c r="Q60" s="20" t="s">
         <v>125</v>
@@ -3358,8 +3358,8 @@
         <v>51</v>
       </c>
       <c r="O61" s="29"/>
-      <c r="P61" s="31" t="s">
-        <v>196</v>
+      <c r="P61" s="25" t="s">
+        <v>133</v>
       </c>
       <c r="Q61" s="20" t="s">
         <v>125</v>
@@ -3472,8 +3472,8 @@
       <c r="N66" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="P66" s="31" t="s">
-        <v>196</v>
+      <c r="P66" s="25" t="s">
+        <v>133</v>
       </c>
       <c r="Q66" s="5" t="s">
         <v>125</v>

--- a/8Bit Computer ver2.0/excel/chips availability.xlsx
+++ b/8Bit Computer ver2.0/excel/chips availability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Desktop\Computer_HTL\8Bit Computer ver2.0\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D45DC1C-2222-4DC9-ACB6-70D3A5D56183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66C4E78-0A86-4082-AD9B-C022D2D1A70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9CC7EE1-7E8B-4FEA-8BE1-446B4A860683}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="221">
   <si>
     <t>Boolean Logic</t>
   </si>
@@ -745,6 +745,48 @@
   <si>
     <t>4,8,12,16,20</t>
   </si>
+  <si>
+    <t>LTST-C170KFKT</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange </t>
+  </si>
+  <si>
+    <t>LTST-C170KGKT</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>LTST-C170KRKT</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>LTST-C171KSKT</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>LTST-C171TBKT</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Flip Switch</t>
+  </si>
+  <si>
+    <t>2MS1T2B3M2QES</t>
+  </si>
+  <si>
+    <t>ON-ON</t>
+  </si>
 </sst>
 </file>
 
@@ -753,7 +795,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-1];[Red]\-#,##0.00\ [$€-1]"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -823,6 +865,34 @@
       <u/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0264BE"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -900,7 +970,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -990,6 +1060,21 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1024,15 +1109,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>414617</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:colOff>324970</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>398240</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>42022</xdr:rowOff>
+      <xdr:colOff>308593</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>19611</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1055,7 +1140,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1019735" y="14388353"/>
+          <a:off x="930088" y="15508942"/>
           <a:ext cx="2146358" cy="1857375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1387,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA67386-7B54-425F-86A0-E9D5FF3EDFA0}">
   <dimension ref="B1:R123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P70" sqref="P70"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,17 +1494,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
@@ -1888,17 +1973,17 @@
     </row>
     <row r="14" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="Q14" s="1"/>
@@ -2602,17 +2687,17 @@
     </row>
     <row r="39" spans="2:18" ht="21" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
-      <c r="D39" s="33" t="s">
+      <c r="D39" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
       <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
@@ -3150,17 +3235,17 @@
       </c>
     </row>
     <row r="54" spans="2:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="D54" s="33" t="s">
+      <c r="D54" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="34"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="39"/>
       <c r="N54" s="1"/>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.25">
@@ -3392,19 +3477,19 @@
       <c r="L63" s="1"/>
     </row>
     <row r="64" spans="2:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="D64" s="33" t="s">
+      <c r="D64" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="34"/>
-    </row>
-    <row r="65" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="39"/>
+      <c r="L64" s="39"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C65" s="11" t="s">
         <v>59</v>
       </c>
@@ -3444,7 +3529,7 @@
       </c>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C66" s="19" t="s">
         <v>55</v>
       </c>
@@ -3479,79 +3564,184 @@
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C67" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F67" s="33" t="s">
+        <v>209</v>
+      </c>
       <c r="G67" s="1"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
-    </row>
-    <row r="68" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C68" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
+      <c r="N67" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P67" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q67" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C68" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F68" s="22" t="s">
+        <v>211</v>
+      </c>
       <c r="G68" s="1"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
-    </row>
-    <row r="69" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C69" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
+      <c r="N68" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P68" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q68" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C69" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F69" s="34" t="s">
+        <v>213</v>
+      </c>
       <c r="G69" s="1"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-    </row>
-    <row r="70" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
+      <c r="N69" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P69" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q69" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C70" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F70" s="35" t="s">
+        <v>215</v>
+      </c>
       <c r="G70" s="1"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-    </row>
-    <row r="71" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
+      <c r="N70" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P70" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q70" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C71" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F71" s="36" t="s">
+        <v>217</v>
+      </c>
       <c r="G71" s="1"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
-    </row>
-    <row r="72" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
+      <c r="N71" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P71" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q71" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>8</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="G72" s="1"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
-    </row>
-    <row r="73" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="N72" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P72" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q72" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -3561,19 +3751,21 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
-    </row>
-    <row r="74" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-      <c r="H74" s="3"/>
+      <c r="H74" s="37"/>
       <c r="I74" s="3"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
-    </row>
-    <row r="75" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -3584,7 +3776,10 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
     </row>
-    <row r="76" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C76" s="32" t="s">
+        <v>201</v>
+      </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -3595,7 +3790,10 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
     </row>
-    <row r="77" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C77" s="32" t="s">
+        <v>202</v>
+      </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -3606,7 +3804,7 @@
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
     </row>
-    <row r="78" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -3617,7 +3815,7 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
     </row>
-    <row r="79" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -3628,7 +3826,7 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
     </row>
-    <row r="80" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -4254,13 +4452,25 @@
     <hyperlink ref="H66" r:id="rId130" xr:uid="{1590F363-5B54-413D-92C4-269526397E57}"/>
     <hyperlink ref="N66" r:id="rId131" xr:uid="{C8E602E0-25DF-4132-90B8-3433782B630C}"/>
     <hyperlink ref="Q66" r:id="rId132" xr:uid="{15AC358C-0845-4DF6-9B90-0DC741228AEF}"/>
-    <hyperlink ref="C68" r:id="rId133" xr:uid="{DCA814CC-077E-470E-9A6A-680172197756}"/>
-    <hyperlink ref="C69" r:id="rId134" xr:uid="{51A24C82-C0EA-4698-A52E-A029AEDBD4F4}"/>
+    <hyperlink ref="C76" r:id="rId133" xr:uid="{DCA814CC-077E-470E-9A6A-680172197756}"/>
+    <hyperlink ref="C77" r:id="rId134" xr:uid="{51A24C82-C0EA-4698-A52E-A029AEDBD4F4}"/>
     <hyperlink ref="N61" r:id="rId135" xr:uid="{76138DFE-C5A2-4EFC-9B28-2F3C020D3801}"/>
     <hyperlink ref="Q61" r:id="rId136" xr:uid="{67DA55A1-4D89-4FF1-B17C-42D124B2570E}"/>
+    <hyperlink ref="Q67" r:id="rId137" xr:uid="{9D4382A4-F904-41E1-B435-4589A01E03E7}"/>
+    <hyperlink ref="N67" r:id="rId138" xr:uid="{589B8D49-ECA0-4268-B1FB-46E25B1B7E4E}"/>
+    <hyperlink ref="Q68" r:id="rId139" xr:uid="{49B638E2-302E-4C88-B0CA-66C2B6A9EE1B}"/>
+    <hyperlink ref="N68" r:id="rId140" xr:uid="{D4584256-1E19-4285-97C1-90EC390282C8}"/>
+    <hyperlink ref="N69" r:id="rId141" xr:uid="{4F7DBA63-A996-4741-B44F-BF9C25E975DD}"/>
+    <hyperlink ref="Q69" r:id="rId142" xr:uid="{0CC2B505-39CA-4016-BCA4-146CE6A8EF18}"/>
+    <hyperlink ref="N70" r:id="rId143" display="Datasheet2" xr:uid="{A8A2196D-20AE-4C88-BAA0-0BA9F1547237}"/>
+    <hyperlink ref="Q70" r:id="rId144" xr:uid="{28FD21EE-36C0-40D6-8B88-DF1E2DC0583A}"/>
+    <hyperlink ref="N71" r:id="rId145" display="Datasheet3" xr:uid="{43347140-9AD4-4B38-B219-4FC79534B2AA}"/>
+    <hyperlink ref="Q71" r:id="rId146" xr:uid="{65376778-AD36-4868-A833-D51DD4774842}"/>
+    <hyperlink ref="N72" r:id="rId147" xr:uid="{612638B9-0B1A-472B-9B88-C5DB51EF47F9}"/>
+    <hyperlink ref="Q72" r:id="rId148" xr:uid="{39500D48-B99D-4A43-93E9-00F86FB5ACF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId137"/>
-  <drawing r:id="rId138"/>
+  <pageSetup orientation="portrait" r:id="rId149"/>
+  <drawing r:id="rId150"/>
 </worksheet>
 </file>
--- a/8Bit Computer ver2.0/excel/chips availability.xlsx
+++ b/8Bit Computer ver2.0/excel/chips availability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Desktop\Computer_HTL\8Bit Computer ver2.0\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66C4E78-0A86-4082-AD9B-C022D2D1A70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2C94C1-B8AF-495F-98B0-8E460A204576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9CC7EE1-7E8B-4FEA-8BE1-446B4A860683}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="227">
   <si>
     <t>Boolean Logic</t>
   </si>
@@ -786,6 +786,24 @@
   </si>
   <si>
     <t>ON-ON</t>
+  </si>
+  <si>
+    <t>MPEV1D1040L6R8</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>use for PSU</t>
+  </si>
+  <si>
+    <t>MP2338GTL</t>
+  </si>
+  <si>
+    <t>Step-Down Converter</t>
+  </si>
+  <si>
+    <t>Schematic wrong chngd to right</t>
   </si>
 </sst>
 </file>
@@ -1110,13 +1128,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>324970</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>308593</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>19611</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1470,10 +1488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA67386-7B54-425F-86A0-E9D5FF3EDFA0}">
-  <dimension ref="B1:R123"/>
+  <dimension ref="B1:R125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView tabSelected="1" topLeftCell="D50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O77" sqref="O77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3452,165 +3470,165 @@
       <c r="R61" s="29"/>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="32" t="s">
+      <c r="C62" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="O62" s="29"/>
+      <c r="P62" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q62" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="R62" s="29"/>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C63" s="29"/>
+      <c r="D63" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="O63" s="29"/>
+      <c r="P63" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q63" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="R63" s="29"/>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="32" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-    </row>
-    <row r="64" spans="2:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="D64" s="38" t="s">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="D66" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="39"/>
-      <c r="K64" s="39"/>
-      <c r="L64" s="39"/>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C65" s="11" t="s">
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="39"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C67" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D67" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E67" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F65" s="13" t="s">
+      <c r="F67" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G65" s="13"/>
-      <c r="H65" s="12" t="s">
+      <c r="G67" s="13"/>
+      <c r="H67" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="I65" s="12" t="s">
+      <c r="I67" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J65" s="11" t="s">
+      <c r="J67" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K65" s="11" t="s">
+      <c r="K67" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L65" s="11" t="s">
+      <c r="L67" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N65" s="13" t="s">
+      <c r="N67" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O65" s="12" t="s">
+      <c r="O67" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="P65" s="12" t="s">
+      <c r="P67" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="Q65" s="1"/>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C66" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G66" s="1"/>
-      <c r="H66" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I66" s="3"/>
-      <c r="J66" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K66" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="L66" s="1"/>
-      <c r="N66" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="P66" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q66" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C67" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F67" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="G67" s="1"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="N67" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="P67" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q67" s="5" t="s">
-        <v>125</v>
-      </c>
+      <c r="Q67" s="1"/>
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C68" s="19" t="s">
         <v>55</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F68" s="22" t="s">
-        <v>211</v>
+        <v>199</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="G68" s="1"/>
-      <c r="H68" s="3"/>
+      <c r="H68" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="I68" s="3"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
+      <c r="J68" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K68" s="22" t="s">
+        <v>171</v>
+      </c>
       <c r="L68" s="1"/>
       <c r="N68" s="5" t="s">
         <v>79</v>
@@ -3627,13 +3645,13 @@
         <v>55</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F69" s="34" t="s">
-        <v>213</v>
+      <c r="F69" s="33" t="s">
+        <v>209</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="3"/>
@@ -3656,13 +3674,13 @@
         <v>55</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F70" s="35" t="s">
-        <v>215</v>
+      <c r="F70" s="22" t="s">
+        <v>211</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="3"/>
@@ -3685,13 +3703,13 @@
         <v>55</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F71" s="36" t="s">
-        <v>217</v>
+      <c r="F71" s="34" t="s">
+        <v>213</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="3"/>
@@ -3710,20 +3728,17 @@
       </c>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B72">
-        <v>8</v>
-      </c>
       <c r="C72" s="19" t="s">
         <v>55</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>220</v>
+        <v>208</v>
+      </c>
+      <c r="F72" s="35" t="s">
+        <v>215</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="3"/>
@@ -3734,36 +3749,76 @@
       <c r="N72" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="P72" s="31" t="s">
-        <v>196</v>
+      <c r="P72" s="25" t="s">
+        <v>133</v>
       </c>
       <c r="Q72" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
+      <c r="C73" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F73" s="36" t="s">
+        <v>217</v>
+      </c>
       <c r="G73" s="1"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
-      <c r="N73" s="1"/>
+      <c r="N73" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P73" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q73" s="5" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
+      <c r="B74">
+        <v>8</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="G74" s="1"/>
-      <c r="H74" s="37"/>
+      <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
-      <c r="N74" s="1"/>
+      <c r="M74" t="s">
+        <v>226</v>
+      </c>
+      <c r="N74" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P74" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q74" s="5" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D75" s="1"/>
@@ -3775,25 +3830,21 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
+      <c r="N75" s="1"/>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C76" s="32" t="s">
-        <v>201</v>
-      </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-      <c r="H76" s="3"/>
+      <c r="H76" s="37"/>
       <c r="I76" s="3"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
+      <c r="N76" s="1"/>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C77" s="32" t="s">
-        <v>202</v>
-      </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -3805,6 +3856,9 @@
       <c r="L77" s="1"/>
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C78" s="32" t="s">
+        <v>201</v>
+      </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -3816,6 +3870,9 @@
       <c r="L78" s="1"/>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C79" s="32" t="s">
+        <v>202</v>
+      </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -4062,8 +4119,8 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
@@ -4073,8 +4130,8 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
@@ -4310,13 +4367,35 @@
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
     </row>
+    <row r="124" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+    </row>
+    <row r="125" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="D39:L39"/>
     <mergeCell ref="D54:L54"/>
     <mergeCell ref="D14:L14"/>
     <mergeCell ref="D1:L1"/>
-    <mergeCell ref="D64:L64"/>
+    <mergeCell ref="D66:L66"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -4448,29 +4527,33 @@
     <hyperlink ref="Q59" r:id="rId126" xr:uid="{B032CEA0-7CF2-46B8-BB39-350C01CFC35D}"/>
     <hyperlink ref="N60" r:id="rId127" xr:uid="{17C049D4-1F98-4448-9BEB-DBA235660298}"/>
     <hyperlink ref="Q60" r:id="rId128" xr:uid="{93F1B2C3-E2E1-455E-828A-6E20149EE2DD}"/>
-    <hyperlink ref="M62" r:id="rId129" xr:uid="{E6F87D1E-A9C3-4063-BA4B-3C48BDCF3529}"/>
-    <hyperlink ref="H66" r:id="rId130" xr:uid="{1590F363-5B54-413D-92C4-269526397E57}"/>
-    <hyperlink ref="N66" r:id="rId131" xr:uid="{C8E602E0-25DF-4132-90B8-3433782B630C}"/>
-    <hyperlink ref="Q66" r:id="rId132" xr:uid="{15AC358C-0845-4DF6-9B90-0DC741228AEF}"/>
-    <hyperlink ref="C76" r:id="rId133" xr:uid="{DCA814CC-077E-470E-9A6A-680172197756}"/>
-    <hyperlink ref="C77" r:id="rId134" xr:uid="{51A24C82-C0EA-4698-A52E-A029AEDBD4F4}"/>
+    <hyperlink ref="M64" r:id="rId129" xr:uid="{E6F87D1E-A9C3-4063-BA4B-3C48BDCF3529}"/>
+    <hyperlink ref="H68" r:id="rId130" xr:uid="{1590F363-5B54-413D-92C4-269526397E57}"/>
+    <hyperlink ref="N68" r:id="rId131" xr:uid="{C8E602E0-25DF-4132-90B8-3433782B630C}"/>
+    <hyperlink ref="Q68" r:id="rId132" xr:uid="{15AC358C-0845-4DF6-9B90-0DC741228AEF}"/>
+    <hyperlink ref="C78" r:id="rId133" xr:uid="{DCA814CC-077E-470E-9A6A-680172197756}"/>
+    <hyperlink ref="C79" r:id="rId134" xr:uid="{51A24C82-C0EA-4698-A52E-A029AEDBD4F4}"/>
     <hyperlink ref="N61" r:id="rId135" xr:uid="{76138DFE-C5A2-4EFC-9B28-2F3C020D3801}"/>
     <hyperlink ref="Q61" r:id="rId136" xr:uid="{67DA55A1-4D89-4FF1-B17C-42D124B2570E}"/>
-    <hyperlink ref="Q67" r:id="rId137" xr:uid="{9D4382A4-F904-41E1-B435-4589A01E03E7}"/>
-    <hyperlink ref="N67" r:id="rId138" xr:uid="{589B8D49-ECA0-4268-B1FB-46E25B1B7E4E}"/>
-    <hyperlink ref="Q68" r:id="rId139" xr:uid="{49B638E2-302E-4C88-B0CA-66C2B6A9EE1B}"/>
-    <hyperlink ref="N68" r:id="rId140" xr:uid="{D4584256-1E19-4285-97C1-90EC390282C8}"/>
-    <hyperlink ref="N69" r:id="rId141" xr:uid="{4F7DBA63-A996-4741-B44F-BF9C25E975DD}"/>
-    <hyperlink ref="Q69" r:id="rId142" xr:uid="{0CC2B505-39CA-4016-BCA4-146CE6A8EF18}"/>
-    <hyperlink ref="N70" r:id="rId143" display="Datasheet2" xr:uid="{A8A2196D-20AE-4C88-BAA0-0BA9F1547237}"/>
-    <hyperlink ref="Q70" r:id="rId144" xr:uid="{28FD21EE-36C0-40D6-8B88-DF1E2DC0583A}"/>
-    <hyperlink ref="N71" r:id="rId145" display="Datasheet3" xr:uid="{43347140-9AD4-4B38-B219-4FC79534B2AA}"/>
-    <hyperlink ref="Q71" r:id="rId146" xr:uid="{65376778-AD36-4868-A833-D51DD4774842}"/>
-    <hyperlink ref="N72" r:id="rId147" xr:uid="{612638B9-0B1A-472B-9B88-C5DB51EF47F9}"/>
-    <hyperlink ref="Q72" r:id="rId148" xr:uid="{39500D48-B99D-4A43-93E9-00F86FB5ACF4}"/>
+    <hyperlink ref="Q69" r:id="rId137" xr:uid="{9D4382A4-F904-41E1-B435-4589A01E03E7}"/>
+    <hyperlink ref="N69" r:id="rId138" xr:uid="{589B8D49-ECA0-4268-B1FB-46E25B1B7E4E}"/>
+    <hyperlink ref="Q70" r:id="rId139" xr:uid="{49B638E2-302E-4C88-B0CA-66C2B6A9EE1B}"/>
+    <hyperlink ref="N70" r:id="rId140" xr:uid="{D4584256-1E19-4285-97C1-90EC390282C8}"/>
+    <hyperlink ref="N71" r:id="rId141" xr:uid="{4F7DBA63-A996-4741-B44F-BF9C25E975DD}"/>
+    <hyperlink ref="Q71" r:id="rId142" xr:uid="{0CC2B505-39CA-4016-BCA4-146CE6A8EF18}"/>
+    <hyperlink ref="N72" r:id="rId143" display="Datasheet2" xr:uid="{A8A2196D-20AE-4C88-BAA0-0BA9F1547237}"/>
+    <hyperlink ref="Q72" r:id="rId144" xr:uid="{28FD21EE-36C0-40D6-8B88-DF1E2DC0583A}"/>
+    <hyperlink ref="N73" r:id="rId145" display="Datasheet3" xr:uid="{43347140-9AD4-4B38-B219-4FC79534B2AA}"/>
+    <hyperlink ref="Q73" r:id="rId146" xr:uid="{65376778-AD36-4868-A833-D51DD4774842}"/>
+    <hyperlink ref="N74" r:id="rId147" xr:uid="{612638B9-0B1A-472B-9B88-C5DB51EF47F9}"/>
+    <hyperlink ref="Q74" r:id="rId148" xr:uid="{39500D48-B99D-4A43-93E9-00F86FB5ACF4}"/>
+    <hyperlink ref="N62" r:id="rId149" xr:uid="{0329CB29-2EA8-4380-8D4A-DC178B7CD321}"/>
+    <hyperlink ref="Q62" r:id="rId150" xr:uid="{EF372ED3-39E3-49D1-AA0F-93DAD946E71A}"/>
+    <hyperlink ref="N63" r:id="rId151" xr:uid="{AF533AD2-5FE3-4FE6-B9EA-C42D35FC761D}"/>
+    <hyperlink ref="Q63" r:id="rId152" xr:uid="{676B950B-A01E-4215-9B10-DA502C7586DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId149"/>
-  <drawing r:id="rId150"/>
+  <pageSetup orientation="portrait" r:id="rId153"/>
+  <drawing r:id="rId154"/>
 </worksheet>
 </file>
--- a/8Bit Computer ver2.0/excel/chips availability.xlsx
+++ b/8Bit Computer ver2.0/excel/chips availability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Desktop\Computer_HTL\8Bit Computer ver2.0\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2C94C1-B8AF-495F-98B0-8E460A204576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D051643E-01C4-4695-94AE-8FD2213CDF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9CC7EE1-7E8B-4FEA-8BE1-446B4A860683}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="235">
   <si>
     <t>Boolean Logic</t>
   </si>
@@ -804,6 +804,30 @@
   </si>
   <si>
     <t>Schematic wrong chngd to right</t>
+  </si>
+  <si>
+    <t>90ns</t>
+  </si>
+  <si>
+    <t>DS1100Z-150+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use for clk delay </t>
+  </si>
+  <si>
+    <t>B3FS-4055P</t>
+  </si>
+  <si>
+    <t>Push Button</t>
+  </si>
+  <si>
+    <t>OFF - (ON)</t>
+  </si>
+  <si>
+    <t>Adafruit 5807</t>
+  </si>
+  <si>
+    <t>USB C PD Trigger board</t>
   </si>
 </sst>
 </file>
@@ -988,7 +1012,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1099,6 +1123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1128,13 +1153,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>324970</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>308593</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>19611</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1488,10 +1513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA67386-7B54-425F-86A0-E9D5FF3EDFA0}">
-  <dimension ref="B1:R125"/>
+  <dimension ref="B1:R127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O77" sqref="O77"/>
+    <sheetView tabSelected="1" topLeftCell="D53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3528,165 +3553,163 @@
       <c r="R63" s="29"/>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="32" t="s">
+      <c r="C64" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="G64" s="15"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="29"/>
+      <c r="N64" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="O64" s="29"/>
+      <c r="P64" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q64" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="R64" s="29"/>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C65" s="29"/>
+      <c r="D65" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="20"/>
+      <c r="O65" s="29"/>
+      <c r="P65" s="40"/>
+      <c r="Q65" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="R65" s="29"/>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="32" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-    </row>
-    <row r="66" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="D66" s="38" t="s">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="D68" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="39"/>
-      <c r="J66" s="39"/>
-      <c r="K66" s="39"/>
-      <c r="L66" s="39"/>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C67" s="11" t="s">
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="39"/>
+      <c r="L68" s="39"/>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C69" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D69" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E69" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="13" t="s">
+      <c r="F69" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G67" s="13"/>
-      <c r="H67" s="12" t="s">
+      <c r="G69" s="13"/>
+      <c r="H69" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="I67" s="12" t="s">
+      <c r="I69" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J67" s="11" t="s">
+      <c r="J69" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K67" s="11" t="s">
+      <c r="K69" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L67" s="11" t="s">
+      <c r="L69" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N67" s="13" t="s">
+      <c r="N69" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O67" s="12" t="s">
+      <c r="O69" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="P67" s="12" t="s">
+      <c r="P69" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="Q67" s="1"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C68" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G68" s="1"/>
-      <c r="H68" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I68" s="3"/>
-      <c r="J68" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K68" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="L68" s="1"/>
-      <c r="N68" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="P68" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q68" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C69" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F69" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="G69" s="1"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="N69" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="P69" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q69" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q69" s="1"/>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C70" s="19" t="s">
         <v>55</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F70" s="22" t="s">
-        <v>211</v>
+        <v>199</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="G70" s="1"/>
-      <c r="H70" s="3"/>
+      <c r="H70" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="I70" s="3"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
+      <c r="J70" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K70" s="22" t="s">
+        <v>171</v>
+      </c>
       <c r="L70" s="1"/>
       <c r="N70" s="5" t="s">
         <v>79</v>
@@ -3698,18 +3721,18 @@
         <v>125</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C71" s="19" t="s">
         <v>55</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F71" s="34" t="s">
-        <v>213</v>
+      <c r="F71" s="33" t="s">
+        <v>209</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="3"/>
@@ -3727,18 +3750,18 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C72" s="19" t="s">
         <v>55</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F72" s="35" t="s">
-        <v>215</v>
+      <c r="F72" s="22" t="s">
+        <v>211</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="3"/>
@@ -3756,18 +3779,18 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C73" s="19" t="s">
         <v>55</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F73" s="36" t="s">
-        <v>217</v>
+      <c r="F73" s="34" t="s">
+        <v>213</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="3"/>
@@ -3785,21 +3808,18 @@
         <v>125</v>
       </c>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B74">
-        <v>8</v>
-      </c>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C74" s="19" t="s">
         <v>55</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>220</v>
+        <v>208</v>
+      </c>
+      <c r="F74" s="35" t="s">
+        <v>215</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="3"/>
@@ -3807,9 +3827,6 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
-      <c r="M74" t="s">
-        <v>226</v>
-      </c>
       <c r="N74" s="5" t="s">
         <v>79</v>
       </c>
@@ -3820,59 +3837,112 @@
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C75" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F75" s="36" t="s">
+        <v>217</v>
+      </c>
       <c r="G75" s="1"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
-      <c r="N75" s="1"/>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
+      <c r="N75" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P75" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q75" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>8</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="G76" s="1"/>
-      <c r="H76" s="37"/>
+      <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
-      <c r="N76" s="1"/>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
+      <c r="M76" t="s">
+        <v>226</v>
+      </c>
+      <c r="N76" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P76" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q76" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C77" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="G77" s="1"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
-    </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C78" s="32" t="s">
-        <v>201</v>
-      </c>
+      <c r="N77" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P77" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q77" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="3"/>
+      <c r="H78" s="37"/>
       <c r="I78" s="3"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C79" s="32" t="s">
-        <v>202</v>
-      </c>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -3883,7 +3953,10 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C80" s="32" t="s">
+        <v>201</v>
+      </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -3894,7 +3967,10 @@
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
     </row>
-    <row r="81" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C81" s="32" t="s">
+        <v>202</v>
+      </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -3905,7 +3981,7 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
     </row>
-    <row r="82" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -3916,7 +3992,7 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
     </row>
-    <row r="83" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -3927,7 +4003,7 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
     </row>
-    <row r="84" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -3938,7 +4014,7 @@
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
     </row>
-    <row r="85" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -3949,7 +4025,7 @@
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
     </row>
-    <row r="86" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -3960,7 +4036,7 @@
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
     </row>
-    <row r="87" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -3971,7 +4047,7 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
     </row>
-    <row r="88" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -3982,7 +4058,7 @@
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
     </row>
-    <row r="89" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -3993,7 +4069,7 @@
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
     </row>
-    <row r="90" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -4004,7 +4080,7 @@
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
     </row>
-    <row r="91" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -4015,7 +4091,7 @@
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
     </row>
-    <row r="92" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -4026,7 +4102,7 @@
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
     </row>
-    <row r="93" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -4037,7 +4113,7 @@
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
     </row>
-    <row r="94" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -4048,7 +4124,7 @@
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
     </row>
-    <row r="95" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -4059,7 +4135,7 @@
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
     </row>
-    <row r="96" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -4141,8 +4217,8 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
@@ -4152,8 +4228,8 @@
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
@@ -4389,13 +4465,35 @@
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
     </row>
+    <row r="126" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+    </row>
+    <row r="127" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="D39:L39"/>
     <mergeCell ref="D54:L54"/>
     <mergeCell ref="D14:L14"/>
     <mergeCell ref="D1:L1"/>
-    <mergeCell ref="D66:L66"/>
+    <mergeCell ref="D68:L68"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -4527,33 +4625,38 @@
     <hyperlink ref="Q59" r:id="rId126" xr:uid="{B032CEA0-7CF2-46B8-BB39-350C01CFC35D}"/>
     <hyperlink ref="N60" r:id="rId127" xr:uid="{17C049D4-1F98-4448-9BEB-DBA235660298}"/>
     <hyperlink ref="Q60" r:id="rId128" xr:uid="{93F1B2C3-E2E1-455E-828A-6E20149EE2DD}"/>
-    <hyperlink ref="M64" r:id="rId129" xr:uid="{E6F87D1E-A9C3-4063-BA4B-3C48BDCF3529}"/>
-    <hyperlink ref="H68" r:id="rId130" xr:uid="{1590F363-5B54-413D-92C4-269526397E57}"/>
-    <hyperlink ref="N68" r:id="rId131" xr:uid="{C8E602E0-25DF-4132-90B8-3433782B630C}"/>
-    <hyperlink ref="Q68" r:id="rId132" xr:uid="{15AC358C-0845-4DF6-9B90-0DC741228AEF}"/>
-    <hyperlink ref="C78" r:id="rId133" xr:uid="{DCA814CC-077E-470E-9A6A-680172197756}"/>
-    <hyperlink ref="C79" r:id="rId134" xr:uid="{51A24C82-C0EA-4698-A52E-A029AEDBD4F4}"/>
+    <hyperlink ref="M66" r:id="rId129" xr:uid="{E6F87D1E-A9C3-4063-BA4B-3C48BDCF3529}"/>
+    <hyperlink ref="H70" r:id="rId130" xr:uid="{1590F363-5B54-413D-92C4-269526397E57}"/>
+    <hyperlink ref="N70" r:id="rId131" xr:uid="{C8E602E0-25DF-4132-90B8-3433782B630C}"/>
+    <hyperlink ref="Q70" r:id="rId132" xr:uid="{15AC358C-0845-4DF6-9B90-0DC741228AEF}"/>
+    <hyperlink ref="C80" r:id="rId133" xr:uid="{DCA814CC-077E-470E-9A6A-680172197756}"/>
+    <hyperlink ref="C81" r:id="rId134" xr:uid="{51A24C82-C0EA-4698-A52E-A029AEDBD4F4}"/>
     <hyperlink ref="N61" r:id="rId135" xr:uid="{76138DFE-C5A2-4EFC-9B28-2F3C020D3801}"/>
     <hyperlink ref="Q61" r:id="rId136" xr:uid="{67DA55A1-4D89-4FF1-B17C-42D124B2570E}"/>
-    <hyperlink ref="Q69" r:id="rId137" xr:uid="{9D4382A4-F904-41E1-B435-4589A01E03E7}"/>
-    <hyperlink ref="N69" r:id="rId138" xr:uid="{589B8D49-ECA0-4268-B1FB-46E25B1B7E4E}"/>
-    <hyperlink ref="Q70" r:id="rId139" xr:uid="{49B638E2-302E-4C88-B0CA-66C2B6A9EE1B}"/>
-    <hyperlink ref="N70" r:id="rId140" xr:uid="{D4584256-1E19-4285-97C1-90EC390282C8}"/>
-    <hyperlink ref="N71" r:id="rId141" xr:uid="{4F7DBA63-A996-4741-B44F-BF9C25E975DD}"/>
-    <hyperlink ref="Q71" r:id="rId142" xr:uid="{0CC2B505-39CA-4016-BCA4-146CE6A8EF18}"/>
-    <hyperlink ref="N72" r:id="rId143" display="Datasheet2" xr:uid="{A8A2196D-20AE-4C88-BAA0-0BA9F1547237}"/>
-    <hyperlink ref="Q72" r:id="rId144" xr:uid="{28FD21EE-36C0-40D6-8B88-DF1E2DC0583A}"/>
-    <hyperlink ref="N73" r:id="rId145" display="Datasheet3" xr:uid="{43347140-9AD4-4B38-B219-4FC79534B2AA}"/>
-    <hyperlink ref="Q73" r:id="rId146" xr:uid="{65376778-AD36-4868-A833-D51DD4774842}"/>
-    <hyperlink ref="N74" r:id="rId147" xr:uid="{612638B9-0B1A-472B-9B88-C5DB51EF47F9}"/>
-    <hyperlink ref="Q74" r:id="rId148" xr:uid="{39500D48-B99D-4A43-93E9-00F86FB5ACF4}"/>
+    <hyperlink ref="Q71" r:id="rId137" xr:uid="{9D4382A4-F904-41E1-B435-4589A01E03E7}"/>
+    <hyperlink ref="N71" r:id="rId138" xr:uid="{589B8D49-ECA0-4268-B1FB-46E25B1B7E4E}"/>
+    <hyperlink ref="Q72" r:id="rId139" xr:uid="{49B638E2-302E-4C88-B0CA-66C2B6A9EE1B}"/>
+    <hyperlink ref="N72" r:id="rId140" xr:uid="{D4584256-1E19-4285-97C1-90EC390282C8}"/>
+    <hyperlink ref="N73" r:id="rId141" xr:uid="{4F7DBA63-A996-4741-B44F-BF9C25E975DD}"/>
+    <hyperlink ref="Q73" r:id="rId142" xr:uid="{0CC2B505-39CA-4016-BCA4-146CE6A8EF18}"/>
+    <hyperlink ref="N74" r:id="rId143" display="Datasheet2" xr:uid="{A8A2196D-20AE-4C88-BAA0-0BA9F1547237}"/>
+    <hyperlink ref="Q74" r:id="rId144" xr:uid="{28FD21EE-36C0-40D6-8B88-DF1E2DC0583A}"/>
+    <hyperlink ref="N75" r:id="rId145" display="Datasheet3" xr:uid="{43347140-9AD4-4B38-B219-4FC79534B2AA}"/>
+    <hyperlink ref="Q75" r:id="rId146" xr:uid="{65376778-AD36-4868-A833-D51DD4774842}"/>
+    <hyperlink ref="N76" r:id="rId147" xr:uid="{612638B9-0B1A-472B-9B88-C5DB51EF47F9}"/>
+    <hyperlink ref="Q76" r:id="rId148" xr:uid="{39500D48-B99D-4A43-93E9-00F86FB5ACF4}"/>
     <hyperlink ref="N62" r:id="rId149" xr:uid="{0329CB29-2EA8-4380-8D4A-DC178B7CD321}"/>
     <hyperlink ref="Q62" r:id="rId150" xr:uid="{EF372ED3-39E3-49D1-AA0F-93DAD946E71A}"/>
     <hyperlink ref="N63" r:id="rId151" xr:uid="{AF533AD2-5FE3-4FE6-B9EA-C42D35FC761D}"/>
     <hyperlink ref="Q63" r:id="rId152" xr:uid="{676B950B-A01E-4215-9B10-DA502C7586DE}"/>
+    <hyperlink ref="Q64" r:id="rId153" xr:uid="{03D6A5FC-D93A-4DCC-A183-323E76CA8110}"/>
+    <hyperlink ref="N64" r:id="rId154" xr:uid="{E5C754CA-97AC-43B4-AA33-09575C56AA6F}"/>
+    <hyperlink ref="N77" r:id="rId155" xr:uid="{8BBD7671-F374-47F0-93CF-6D8F3CF846E4}"/>
+    <hyperlink ref="Q77" r:id="rId156" xr:uid="{FFFDA2AA-98B5-484F-B8A5-3EBCAE9CF1B1}"/>
+    <hyperlink ref="Q65" r:id="rId157" xr:uid="{6F21FB30-BEBA-46C3-9F5F-62E24A3B0E1F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId153"/>
-  <drawing r:id="rId154"/>
+  <pageSetup orientation="portrait" r:id="rId158"/>
+  <drawing r:id="rId159"/>
 </worksheet>
 </file>